--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD4A02E-0B7D-4C87-B472-F21E53CD7024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022379A-84A1-4AC6-B364-E01254F67069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="176">
   <si>
     <t>shipmentType</t>
   </si>
@@ -383,9 +383,6 @@
     <t>CartoonQuantity</t>
   </si>
   <si>
-    <t>09-07-2021</t>
-  </si>
-  <si>
     <t>$585.91</t>
   </si>
   <si>
@@ -401,12 +398,6 @@
     <t>$2,584.37</t>
   </si>
   <si>
-    <t>51495420</t>
-  </si>
-  <si>
-    <t>51495491</t>
-  </si>
-  <si>
     <t>$572.93</t>
   </si>
   <si>
@@ -488,43 +479,82 @@
     <t>TotalNumberOfLabels</t>
   </si>
   <si>
-    <t>09-13-2021</t>
-  </si>
-  <si>
-    <t>51496215</t>
-  </si>
-  <si>
-    <t>51496217</t>
-  </si>
-  <si>
-    <t>51496218</t>
-  </si>
-  <si>
-    <t>51496219</t>
-  </si>
-  <si>
-    <t>51496220</t>
-  </si>
-  <si>
-    <t>51496221</t>
-  </si>
-  <si>
-    <t>09-17-2021</t>
-  </si>
-  <si>
-    <t>51496556</t>
-  </si>
-  <si>
-    <t>51496560</t>
-  </si>
-  <si>
-    <t>51496563</t>
-  </si>
-  <si>
-    <t>51496578</t>
-  </si>
-  <si>
     <t>CloneOrderId</t>
+  </si>
+  <si>
+    <t>09-26-2021</t>
+  </si>
+  <si>
+    <t>51497576</t>
+  </si>
+  <si>
+    <t>51497585</t>
+  </si>
+  <si>
+    <t>51497777</t>
+  </si>
+  <si>
+    <t>51497780</t>
+  </si>
+  <si>
+    <t>09-29-2021</t>
+  </si>
+  <si>
+    <t>51497935</t>
+  </si>
+  <si>
+    <t>51498282</t>
+  </si>
+  <si>
+    <t>51498283</t>
+  </si>
+  <si>
+    <t>10-01-2021</t>
+  </si>
+  <si>
+    <t>51498286</t>
+  </si>
+  <si>
+    <t>51498289</t>
+  </si>
+  <si>
+    <t>51498292</t>
+  </si>
+  <si>
+    <t>51498295</t>
+  </si>
+  <si>
+    <t>51498297</t>
+  </si>
+  <si>
+    <t>51498298</t>
+  </si>
+  <si>
+    <t>51498299</t>
+  </si>
+  <si>
+    <t>51498303</t>
+  </si>
+  <si>
+    <t>51498305</t>
+  </si>
+  <si>
+    <t>51498306</t>
+  </si>
+  <si>
+    <t>51498346</t>
+  </si>
+  <si>
+    <t>51498348</t>
+  </si>
+  <si>
+    <t>51498354</t>
+  </si>
+  <si>
+    <t>Tracking#</t>
+  </si>
+  <si>
+    <t>WayBill</t>
   </si>
 </sst>
 </file>
@@ -553,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,8 +780,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -832,6 +922,499 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -840,7 +1423,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -852,44 +1435,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -899,6 +1450,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1190,25 +1797,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>32</v>
@@ -1219,28 +1826,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>34</v>
@@ -1400,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,200 +2032,211 @@
     <col min="18" max="18" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="21" width="9.140625" style="1" collapsed="1"/>
-    <col min="22" max="22" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="30" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="25" max="26" width="10" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" s="56" t="s">
+      <c r="W1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="AB1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AC1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AD1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" s="54" t="s">
+      <c r="AE1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE1" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF1" s="57" t="s">
-        <v>145</v>
+      <c r="AH1" s="25" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="46" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y2" s="49" t="s">
+      <c r="V2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="AB2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AH2" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1672,41 +2290,45 @@
       <c r="U3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y3" s="9" t="s">
+      <c r="V3" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="42" t="s">
         <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1758,39 +2380,43 @@
       <c r="U4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="16" t="s">
+      <c r="V4" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="X4" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH4" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="45" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1799,17 +2425,17 @@
       <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1819,7 +2445,7 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>84</v>
@@ -1842,44 +2468,48 @@
       <c r="U5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y5" s="9" t="s">
+      <c r="V5" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="W5" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="X5" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH5" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>118</v>
+      <c r="B6" s="48" t="s">
+        <v>160</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -1930,40 +2560,44 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="22" t="s">
+      <c r="V6" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="W6" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="X6" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6" t="s">
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH6" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>153</v>
+      <c r="B7" s="51" t="s">
+        <v>160</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -2012,36 +2646,40 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="W7" s="24"/>
-      <c r="X7" s="25" t="s">
+      <c r="V7" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="X7" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AH7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>118</v>
+      <c r="B8" s="55" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2092,40 +2730,42 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y8" s="9" t="s">
+      <c r="V8" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="6" t="s">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AE8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH8" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>153</v>
+      <c r="B9" s="58" t="s">
+        <v>160</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -2176,34 +2816,38 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y9" s="9" t="s">
+      <c r="V9" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="W9" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="X9" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="6" t="s">
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AF9" s="6"/>
+      <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>153</v>
+      <c r="B10" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2240,32 +2884,34 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y10" s="9" t="s">
+      <c r="V10" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="6" t="s">
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AF10" s="6"/>
+      <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>153</v>
+      <c r="B11" s="61" t="s">
+        <v>160</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -2305,7 +2951,7 @@
         <v>91</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>74</v>
@@ -2316,34 +2962,38 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y11" s="9" t="s">
+      <c r="V11" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="X11" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="6" t="s">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AF11" s="6"/>
+      <c r="AH11" s="6"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>153</v>
+      <c r="B12" s="65" t="s">
+        <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -2394,34 +3044,36 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="40" t="s">
+      <c r="V12" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="W12" s="13"/>
+      <c r="X12" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="6" t="s">
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AF12" s="6"/>
+      <c r="AH12" s="6"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>153</v>
+      <c r="B13" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -2458,25 +3110,27 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y13" s="9" t="s">
+      <c r="V13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="W13" s="14"/>
+      <c r="X13" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="6" t="s">
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AF13" s="6"/>
+      <c r="AH13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022379A-84A1-4AC6-B364-E01254F67069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="7" r:id="rId1"/>
@@ -18,8 +12,8 @@
     <sheet name="Input" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="188">
   <si>
     <t>shipmentType</t>
   </si>
@@ -359,9 +353,6 @@
     <t>Non-Palletized-step3</t>
   </si>
   <si>
-    <t>Ups</t>
-  </si>
-  <si>
     <t>Ups SurePost</t>
   </si>
   <si>
@@ -500,68 +491,107 @@
     <t>09-29-2021</t>
   </si>
   <si>
+    <t>10-01-2021</t>
+  </si>
+  <si>
+    <t>51498286</t>
+  </si>
+  <si>
+    <t>51498289</t>
+  </si>
+  <si>
+    <t>51498292</t>
+  </si>
+  <si>
+    <t>51498295</t>
+  </si>
+  <si>
+    <t>51498298</t>
+  </si>
+  <si>
+    <t>51498299</t>
+  </si>
+  <si>
+    <t>51498303</t>
+  </si>
+  <si>
+    <t>51498305</t>
+  </si>
+  <si>
+    <t>51498306</t>
+  </si>
+  <si>
+    <t>Tracking#</t>
+  </si>
+  <si>
+    <t>WayBill</t>
+  </si>
+  <si>
+    <t>51498385</t>
+  </si>
+  <si>
+    <t>51498390</t>
+  </si>
+  <si>
+    <t>51498392</t>
+  </si>
+  <si>
+    <t>51498394</t>
+  </si>
+  <si>
+    <t>51498398</t>
+  </si>
+  <si>
+    <t>CEV1002729</t>
+  </si>
+  <si>
+    <t>CEV1002739</t>
+  </si>
+  <si>
+    <t>CEV1002740</t>
+  </si>
+  <si>
+    <t>CEV1002741</t>
+  </si>
+  <si>
+    <t>CEV1002742</t>
+  </si>
+  <si>
+    <t>CEV1002743</t>
+  </si>
+  <si>
+    <t>CEV1002745</t>
+  </si>
+  <si>
+    <t>FCUPSG1011019</t>
+  </si>
+  <si>
+    <t>FCUPSG1011008</t>
+  </si>
+  <si>
+    <t>FCUPSG1011020</t>
+  </si>
+  <si>
+    <t>FCUPSG1011022</t>
+  </si>
+  <si>
+    <t>FCUPSG1011011</t>
+  </si>
+  <si>
     <t>51497935</t>
   </si>
   <si>
-    <t>51498282</t>
-  </si>
-  <si>
     <t>51498283</t>
   </si>
   <si>
-    <t>10-01-2021</t>
-  </si>
-  <si>
-    <t>51498286</t>
-  </si>
-  <si>
-    <t>51498289</t>
-  </si>
-  <si>
-    <t>51498292</t>
-  </si>
-  <si>
-    <t>51498295</t>
-  </si>
-  <si>
-    <t>51498297</t>
-  </si>
-  <si>
-    <t>51498298</t>
-  </si>
-  <si>
-    <t>51498299</t>
-  </si>
-  <si>
-    <t>51498303</t>
-  </si>
-  <si>
-    <t>51498305</t>
-  </si>
-  <si>
-    <t>51498306</t>
-  </si>
-  <si>
-    <t>51498346</t>
-  </si>
-  <si>
-    <t>51498348</t>
-  </si>
-  <si>
-    <t>51498354</t>
-  </si>
-  <si>
-    <t>Tracking#</t>
-  </si>
-  <si>
-    <t>WayBill</t>
+    <t>UPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,7 +613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,23 +855,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="51">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -864,557 +879,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1423,7 +887,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1439,73 +903,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1779,43 +1220,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D485FAC2-B8A8-43FA-BB3A-6EC45B882D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
         <v>129</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
         <v>133</v>
-      </c>
-      <c r="G1" t="s">
-        <v>134</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>32</v>
@@ -1824,30 +1265,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>34</v>
@@ -1859,14 +1300,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1877,7 +1318,7 @@
     <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1937,7 +1378,7 @@
       </c>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1999,21 +1440,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2035,7 +1476,8 @@
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="10" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2044,206 +1486,208 @@
     <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="X1" s="24" t="s">
+      <c r="W1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA1" s="24" t="s">
+      <c r="Y1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AC1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>142</v>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>160</v>
+      <c r="B3" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -2287,20 +1731,22 @@
       <c r="T3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="X3" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
+      <c r="U3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22" t="s">
+        <v>174</v>
+      </c>
       <c r="AA3" s="9" t="s">
         <v>95</v>
       </c>
@@ -2318,18 +1764,18 @@
       </c>
       <c r="AF3" s="6"/>
       <c r="AG3" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>160</v>
+      <c r="B4" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -2377,20 +1823,22 @@
       <c r="T4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="X4" s="43" t="s">
+      <c r="U4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="X4" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="AA4" s="9" t="s">
         <v>95</v>
       </c>
@@ -2406,18 +1854,18 @@
       </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>160</v>
+      <c r="B5" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -2445,7 +1893,7 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>84</v>
@@ -2465,20 +1913,22 @@
       <c r="T5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="W5" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="X5" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
+      <c r="U5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="AA5" s="9" t="s">
         <v>95</v>
       </c>
@@ -2492,24 +1942,24 @@
         <v>79</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>160</v>
+      <c r="B6" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -2560,17 +2010,19 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="W6" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="X6" s="49" t="s">
+      <c r="V6" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="X6" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33" t="s">
+        <v>177</v>
+      </c>
       <c r="AA6" s="9" t="s">
         <v>95</v>
       </c>
@@ -2586,18 +2038,18 @@
       </c>
       <c r="AF6" s="6"/>
       <c r="AG6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>160</v>
+      <c r="B7" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -2646,17 +2098,19 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="W7" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="X7" s="52" t="s">
+      <c r="V7" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="X7" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37" t="s">
+        <v>178</v>
+      </c>
       <c r="AA7" s="9" t="s">
         <v>95</v>
       </c>
@@ -2664,7 +2118,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="2" t="s">
@@ -2674,12 +2128,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>160</v>
+      <c r="B8" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2730,15 +2184,17 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="54" t="s">
-        <v>166</v>
+      <c r="V8" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="W8" s="11"/>
-      <c r="X8" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
+      <c r="X8" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40" t="s">
+        <v>179</v>
+      </c>
       <c r="AA8" s="9" t="s">
         <v>95</v>
       </c>
@@ -2754,24 +2210,24 @@
       </c>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>160</v>
+      <c r="B9" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>23</v>
@@ -2816,19 +2272,21 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="W9" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="X9" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
+      <c r="V9" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="X9" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44" t="s">
+        <v>180</v>
+      </c>
       <c r="AA9" s="9" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -2842,12 +2300,12 @@
       </c>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>151</v>
+      <c r="B10" s="45" t="s">
+        <v>150</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2884,17 +2342,19 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="26" t="s">
-        <v>152</v>
+      <c r="V10" s="46" t="s">
+        <v>151</v>
       </c>
       <c r="W10" s="12"/>
-      <c r="X10" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
+      <c r="X10" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47" t="s">
+        <v>181</v>
+      </c>
       <c r="AA10" s="9" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -2906,12 +2366,12 @@
       </c>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>160</v>
+      <c r="B11" s="48" t="s">
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -2951,7 +2411,7 @@
         <v>91</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>74</v>
@@ -2962,19 +2422,21 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="W11" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="X11" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
+      <c r="V11" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="W11" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="X11" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51" t="s">
+        <v>182</v>
+      </c>
       <c r="AA11" s="9" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -2988,12 +2450,12 @@
       </c>
       <c r="AH11" s="6"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>160</v>
+      <c r="B12" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3044,17 +2506,19 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="64" t="s">
-        <v>170</v>
+      <c r="V12" s="53" t="s">
+        <v>165</v>
       </c>
       <c r="W12" s="13"/>
-      <c r="X12" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
+      <c r="X12" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54" t="s">
+        <v>183</v>
+      </c>
       <c r="AA12" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>30</v>
@@ -3068,18 +2532,18 @@
       </c>
       <c r="AH12" s="6"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>151</v>
+      <c r="B13" s="55" t="s">
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -3110,17 +2574,19 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="29" t="s">
-        <v>153</v>
+      <c r="V13" s="56" t="s">
+        <v>152</v>
       </c>
       <c r="W13" s="14"/>
-      <c r="X13" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
+      <c r="X13" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57" t="s">
+        <v>184</v>
+      </c>
       <c r="AA13" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9198B7B7-A805-4F78-ABED-438C5ABC5569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="7" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="Input" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="193">
   <si>
     <t>shipmentType</t>
   </si>
@@ -585,13 +591,28 @@
   </si>
   <si>
     <t>UPS</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Safe/Vault</t>
+  </si>
+  <si>
+    <t>211</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,7 +908,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -947,6 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1220,23 +1242,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -1300,14 +1322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1318,7 +1340,7 @@
     <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1400,7 @@
       </c>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1440,21 +1462,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1486,7 +1508,7 @@
     <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1">
+    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -1676,7 +1698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -1770,7 +1792,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -1860,7 +1882,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -1954,7 +1976,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
@@ -2044,7 +2066,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
@@ -2128,7 +2150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -2216,7 +2238,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2300,7 +2322,7 @@
       </c>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2332,12 +2354,24 @@
         <v>29</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="N10" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" t="s">
+        <v>191</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="2" t="s">
         <v>78</v>
@@ -2366,7 +2400,7 @@
       </c>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2450,7 +2484,7 @@
       </c>
       <c r="AH11" s="6"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2532,7 +2566,7 @@
       </c>
       <c r="AH12" s="6"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9198B7B7-A805-4F78-ABED-438C5ABC5569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D59957-0FB9-46A5-A904-E42606170870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="206">
   <si>
     <t>shipmentType</t>
   </si>
@@ -362,9 +362,6 @@
     <t>Ups SurePost</t>
   </si>
   <si>
-    <t>$95.63</t>
-  </si>
-  <si>
     <t>TestOrder1</t>
   </si>
   <si>
@@ -398,21 +395,9 @@
     <t>$572.93</t>
   </si>
   <si>
-    <t>$55.41</t>
-  </si>
-  <si>
-    <t>$70.90</t>
-  </si>
-  <si>
-    <t>$117.76</t>
-  </si>
-  <si>
     <t>Non-Boxed (Bagged, Rolled or Drum Items)</t>
   </si>
   <si>
-    <t>$141.04</t>
-  </si>
-  <si>
     <t>AccountType</t>
   </si>
   <si>
@@ -479,120 +464,24 @@
     <t>CloneOrderId</t>
   </si>
   <si>
-    <t>09-26-2021</t>
-  </si>
-  <si>
-    <t>51497576</t>
-  </si>
-  <si>
-    <t>51497585</t>
-  </si>
-  <si>
     <t>51497777</t>
   </si>
   <si>
     <t>51497780</t>
   </si>
   <si>
-    <t>09-29-2021</t>
-  </si>
-  <si>
-    <t>10-01-2021</t>
-  </si>
-  <si>
-    <t>51498286</t>
-  </si>
-  <si>
-    <t>51498289</t>
-  </si>
-  <si>
-    <t>51498292</t>
-  </si>
-  <si>
-    <t>51498295</t>
-  </si>
-  <si>
-    <t>51498298</t>
-  </si>
-  <si>
-    <t>51498299</t>
-  </si>
-  <si>
-    <t>51498303</t>
-  </si>
-  <si>
-    <t>51498305</t>
-  </si>
-  <si>
-    <t>51498306</t>
-  </si>
-  <si>
     <t>Tracking#</t>
   </si>
   <si>
     <t>WayBill</t>
   </si>
   <si>
-    <t>51498385</t>
-  </si>
-  <si>
     <t>51498390</t>
   </si>
   <si>
     <t>51498392</t>
   </si>
   <si>
-    <t>51498394</t>
-  </si>
-  <si>
-    <t>51498398</t>
-  </si>
-  <si>
-    <t>CEV1002729</t>
-  </si>
-  <si>
-    <t>CEV1002739</t>
-  </si>
-  <si>
-    <t>CEV1002740</t>
-  </si>
-  <si>
-    <t>CEV1002741</t>
-  </si>
-  <si>
-    <t>CEV1002742</t>
-  </si>
-  <si>
-    <t>CEV1002743</t>
-  </si>
-  <si>
-    <t>CEV1002745</t>
-  </si>
-  <si>
-    <t>FCUPSG1011019</t>
-  </si>
-  <si>
-    <t>FCUPSG1011008</t>
-  </si>
-  <si>
-    <t>FCUPSG1011020</t>
-  </si>
-  <si>
-    <t>FCUPSG1011022</t>
-  </si>
-  <si>
-    <t>FCUPSG1011011</t>
-  </si>
-  <si>
-    <t>51497935</t>
-  </si>
-  <si>
-    <t>51498283</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -605,7 +494,157 @@
     <t>Safe/Vault</t>
   </si>
   <si>
-    <t>211</t>
+    <t>AutoRes10011</t>
+  </si>
+  <si>
+    <t>10-05-2021</t>
+  </si>
+  <si>
+    <t>$95.85</t>
+  </si>
+  <si>
+    <t>51498646</t>
+  </si>
+  <si>
+    <t>FCT894845662225498112</t>
+  </si>
+  <si>
+    <t>CEV1002784</t>
+  </si>
+  <si>
+    <t>51498648</t>
+  </si>
+  <si>
+    <t>51498649</t>
+  </si>
+  <si>
+    <t>FCT894848526595391488</t>
+  </si>
+  <si>
+    <t>CEV1002786</t>
+  </si>
+  <si>
+    <t>51498653</t>
+  </si>
+  <si>
+    <t>FCT894851044603854848</t>
+  </si>
+  <si>
+    <t>CEV1002787</t>
+  </si>
+  <si>
+    <t>51498657</t>
+  </si>
+  <si>
+    <t>FCT894853600319111168</t>
+  </si>
+  <si>
+    <t>CEV1002788</t>
+  </si>
+  <si>
+    <t>51498661</t>
+  </si>
+  <si>
+    <t>FCT894856760194498560</t>
+  </si>
+  <si>
+    <t>CEV1002790</t>
+  </si>
+  <si>
+    <t>51498665</t>
+  </si>
+  <si>
+    <t>FCT894860194788409344</t>
+  </si>
+  <si>
+    <t>CEV1002791</t>
+  </si>
+  <si>
+    <t>51498668</t>
+  </si>
+  <si>
+    <t>51498669</t>
+  </si>
+  <si>
+    <t>FCT894862556529688576</t>
+  </si>
+  <si>
+    <t>CEV1002793</t>
+  </si>
+  <si>
+    <t>Ups</t>
+  </si>
+  <si>
+    <t>51498974</t>
+  </si>
+  <si>
+    <t>$59.00</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398611353</t>
+  </si>
+  <si>
+    <t>FCUPSG1011044</t>
+  </si>
+  <si>
+    <t>51498976</t>
+  </si>
+  <si>
+    <t>51498983</t>
+  </si>
+  <si>
+    <t>$168.92</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391501841</t>
+  </si>
+  <si>
+    <t>FCUPSG1011046</t>
+  </si>
+  <si>
+    <t>51498985</t>
+  </si>
+  <si>
+    <t>51498986</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW92095853</t>
+  </si>
+  <si>
+    <t>FCUPSG1011048</t>
+  </si>
+  <si>
+    <t>51498989</t>
+  </si>
+  <si>
+    <t>51498994</t>
+  </si>
+  <si>
+    <t>$118.78</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW92773067</t>
+  </si>
+  <si>
+    <t>FCUPSG1011050</t>
+  </si>
+  <si>
+    <t>51499010</t>
+  </si>
+  <si>
+    <t>51499021</t>
+  </si>
+  <si>
+    <t>$75.26</t>
+  </si>
+  <si>
+    <t>1Z44R7R60390157476</t>
+  </si>
+  <si>
+    <t>FCUPSG1011053</t>
+  </si>
+  <si>
+    <t>51499023</t>
   </si>
 </sst>
 </file>
@@ -634,7 +673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="78">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,8 +915,153 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -897,6 +1081,743 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,12 +1829,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -921,54 +1841,82 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1260,59 +2208,59 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1362,7 +2310,7 @@
       <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I1" t="s">
@@ -1422,16 +2370,16 @@
       <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="L2" t="s">
@@ -1443,7 +2391,7 @@
       <c r="N2" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="P2" t="s">
@@ -1455,7 +2403,7 @@
       <c r="R2" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="3"/>
@@ -1472,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,8 +2446,8 @@
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1572,22 +2520,22 @@
       <c r="U1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" s="16" t="s">
+      <c r="W1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA1" s="16" t="s">
+      <c r="Y1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA1" s="12" t="s">
         <v>94</v>
       </c>
       <c r="AB1" s="3" t="s">
@@ -1597,33 +2545,33 @@
         <v>108</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>155</v>
+      <c r="B2" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1665,23 +2613,25 @@
       <c r="T2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA2" s="9" t="s">
+      <c r="V2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB2" s="3" t="s">
@@ -1691,10 +2641,10 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1702,14 +2652,14 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -1753,23 +2703,25 @@
       <c r="T3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA3" s="9" t="s">
+      <c r="V3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z3" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB3" s="3" t="s">
@@ -1778,17 +2730,17 @@
       <c r="AC3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1796,7 +2748,7 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="31" t="s">
         <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1845,40 +2797,42 @@
       <c r="T4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="W4" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="X4" s="26" t="s">
+      <c r="V4" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X4" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA4" s="9" t="s">
+      <c r="Y4" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z4" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA4" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="6"/>
+      <c r="AF4" s="5"/>
       <c r="AG4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH4" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1886,7 +2840,7 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1915,7 +2869,7 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>84</v>
@@ -1935,23 +2889,25 @@
       <c r="T5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="W5" s="28" t="s">
+      <c r="V5" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="X5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA5" s="9" t="s">
+      <c r="Z5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA5" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB5" s="3" t="s">
@@ -1960,19 +2916,19 @@
       <c r="AC5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AD5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AE5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AE5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH5" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1980,7 +2936,7 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="41" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2032,20 +2988,22 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="X6" s="33" t="s">
+      <c r="V6" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X6" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA6" s="9" t="s">
+      <c r="Y6" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z6" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA6" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB6" s="3" t="s">
@@ -2054,15 +3012,15 @@
       <c r="AC6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6" t="s">
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF6" s="6"/>
+      <c r="AF6" s="5"/>
       <c r="AG6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH6" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2070,7 +3028,7 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="46" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2120,33 +3078,35 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="X7" s="37" t="s">
+      <c r="V7" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="W7" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="X7" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA7" s="9" t="s">
+      <c r="Y7" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z7" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA7" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="6" t="s">
-        <v>147</v>
+      <c r="AE7" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="6" t="s">
+      <c r="AH7" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2154,7 +3114,7 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="52" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2163,17 +3123,17 @@
       <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2206,35 +3166,37 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40" t="s">
+      <c r="V8" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y8" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="Z8" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA8" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>76</v>
       </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="6" t="s">
+      <c r="AD8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AE8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2242,26 +3204,26 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="58" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2279,7 +3241,7 @@
       <c r="P9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="9" t="s">
         <v>91</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -2294,21 +3256,23 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="W9" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="X9" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA9" s="9" t="s">
-        <v>187</v>
+      <c r="V9" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="W9" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="X9" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y9" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z9" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA9" s="56" t="s">
+        <v>181</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -2317,17 +3281,17 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
-      <c r="AG9" s="6" t="s">
+      <c r="AG9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH9" s="6"/>
+      <c r="AH9" s="5"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>150</v>
+      <c r="B10" s="82" t="s">
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2354,57 +3318,61 @@
         <v>29</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="P10" s="59" t="s">
+      <c r="N10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="59" t="s">
-        <v>190</v>
+      <c r="Q10" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="R10" t="s">
-        <v>191</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>192</v>
+        <v>154</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47" t="s">
+      <c r="V10" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="W10" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="X10" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y10" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z10" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA10" s="56" t="s">
         <v>181</v>
-      </c>
-      <c r="AA10" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="6" t="s">
+      <c r="AG10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH10" s="6"/>
+      <c r="AH10" s="5"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="64" t="s">
         <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2413,17 +3381,17 @@
       <c r="D11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2438,14 +3406,14 @@
       <c r="O11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="9" t="s">
         <v>91</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>74</v>
@@ -2456,21 +3424,23 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="W11" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="X11" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA11" s="9" t="s">
+      <c r="V11" s="63" t="s">
         <v>187</v>
+      </c>
+      <c r="W11" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="X11" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y11" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z11" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA11" s="56" t="s">
+        <v>181</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -2479,16 +3449,16 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="6" t="s">
+      <c r="AG11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH11" s="6"/>
+      <c r="AH11" s="5"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="70" t="s">
         <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2497,17 +3467,17 @@
       <c r="D12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="J12" s="3" t="s">
         <v>25</v>
       </c>
@@ -2525,7 +3495,7 @@
       <c r="P12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="9" t="s">
         <v>91</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -2540,18 +3510,22 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA12" s="9" t="s">
+      <c r="V12" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="W12" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="X12" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y12" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z12" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA12" s="56" t="s">
         <v>110</v>
       </c>
       <c r="AB12" s="3" t="s">
@@ -2561,35 +3535,35 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="6" t="s">
+      <c r="AG12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH12" s="6"/>
+      <c r="AH12" s="5"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>150</v>
+      <c r="B13" s="76" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="J13" s="3" t="s">
         <v>25</v>
       </c>
@@ -2598,28 +3572,44 @@
         <v>29</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="N13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="R13" t="s">
+        <v>154</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA13" s="9" t="s">
+      <c r="V13" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="W13" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="X13" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z13" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA13" s="56" t="s">
         <v>110</v>
       </c>
       <c r="AB13" s="3"/>
@@ -2627,10 +3617,10 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="6" t="s">
+      <c r="AG13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH13" s="6"/>
+      <c r="AH13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D59957-0FB9-46A5-A904-E42606170870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{72D59957-0FB9-46A5-A904-E42606170870}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateAccount" sheetId="7" r:id="rId1"/>
-    <sheet name="ShipmentInformation" sheetId="6" r:id="rId2"/>
-    <sheet name="Input" sheetId="1" r:id="rId3"/>
+    <sheet name="CreateAccount" r:id="rId1" sheetId="7"/>
+    <sheet name="ShipmentInformation" r:id="rId2" sheetId="6"/>
+    <sheet name="Input" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="252">
   <si>
     <t>shipmentType</t>
   </si>
@@ -645,12 +645,151 @@
   </si>
   <si>
     <t>51499023</t>
+  </si>
+  <si>
+    <t>51499273</t>
+  </si>
+  <si>
+    <t>10-06-2021</t>
+  </si>
+  <si>
+    <t>FCT895220663336304640</t>
+  </si>
+  <si>
+    <t>CEV1002802</t>
+  </si>
+  <si>
+    <t>51499277</t>
+  </si>
+  <si>
+    <t>51499278</t>
+  </si>
+  <si>
+    <t>FCT895223517291741184</t>
+  </si>
+  <si>
+    <t>CEV1002804</t>
+  </si>
+  <si>
+    <t>51499282</t>
+  </si>
+  <si>
+    <t>FCT895225941423292416</t>
+  </si>
+  <si>
+    <t>CEV1002805</t>
+  </si>
+  <si>
+    <t>51499285</t>
+  </si>
+  <si>
+    <t>FCT895228518881820672</t>
+  </si>
+  <si>
+    <t>CEV1002806</t>
+  </si>
+  <si>
+    <t>51499287</t>
+  </si>
+  <si>
+    <t>51499288</t>
+  </si>
+  <si>
+    <t>FCT895231480668618752</t>
+  </si>
+  <si>
+    <t>CEV1002808</t>
+  </si>
+  <si>
+    <t>51499290</t>
+  </si>
+  <si>
+    <t>51499291</t>
+  </si>
+  <si>
+    <t>FCT895234205674373120</t>
+  </si>
+  <si>
+    <t>CEV1002810</t>
+  </si>
+  <si>
+    <t>51499293</t>
+  </si>
+  <si>
+    <t>51499294</t>
+  </si>
+  <si>
+    <t>FCT895236538525286400</t>
+  </si>
+  <si>
+    <t>CEV1002812</t>
+  </si>
+  <si>
+    <t>51499303</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396087880</t>
+  </si>
+  <si>
+    <t>FCUPSG1011056</t>
+  </si>
+  <si>
+    <t>51499306</t>
+  </si>
+  <si>
+    <t>51499313</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397684107</t>
+  </si>
+  <si>
+    <t>FCUPSG1011058</t>
+  </si>
+  <si>
+    <t>51499327</t>
+  </si>
+  <si>
+    <t>51499332</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395801126</t>
+  </si>
+  <si>
+    <t>FCUPSG1011060</t>
+  </si>
+  <si>
+    <t>51499336</t>
+  </si>
+  <si>
+    <t>51499340</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW94177430</t>
+  </si>
+  <si>
+    <t>FCUPSG1011062</t>
+  </si>
+  <si>
+    <t>51499342</t>
+  </si>
+  <si>
+    <t>51499343</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW98898154</t>
+  </si>
+  <si>
+    <t>FCUPSG1011064</t>
+  </si>
+  <si>
+    <t>51499345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,7 +812,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="78">
+  <fills count="216">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,8 +1199,698 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="207">
     <border>
       <left/>
       <right/>
@@ -1821,109 +2650,661 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="156">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="9" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="12" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="13" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="14" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="15" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="16" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="17" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="18" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="19" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="20" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="21" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="22" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="23" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="24" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="25" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="26" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="27" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="28" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="29" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="30" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="31" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="32" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="33" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="34" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="35" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="37" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="38" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="39" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="40" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="53" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="55" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="58" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="59" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="63" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="64" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="65" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="66" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="67" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="68" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="180" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="182" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="184" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="186" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="188" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="190" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="192" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="194" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="196" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="198" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="200" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="202" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="204" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="206" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1940,10 +3321,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2107,21 +3488,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2138,7 +3519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2190,15 +3571,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I2"/>
@@ -2265,12 +3646,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2279,13 +3660,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -2410,15 +3791,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AA9" sqref="AA9"/>
@@ -2426,34 +3807,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="9.140625" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="9.140625" style="1" collapsed="1"/>
-    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="11.43359375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
+    <col min="14" max="16" style="1" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.07421875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="30" max="32" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="34" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2560,12 +3941,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>156</v>
+      <c r="B2" s="88" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2616,20 +3997,20 @@
       <c r="U2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" s="21" t="s">
+      <c r="V2" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="W2" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="X2" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="Y2" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>160</v>
+      <c r="Y2" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" s="91" t="s">
+        <v>209</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>95</v>
@@ -2652,8 +4033,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>156</v>
+      <c r="B3" s="94" t="s">
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -2706,20 +4087,20 @@
       <c r="U3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="25" t="s">
-        <v>162</v>
+      <c r="V3" s="93" t="s">
+        <v>211</v>
       </c>
       <c r="W3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="X3" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>164</v>
+      <c r="Y3" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z3" s="97" t="s">
+        <v>213</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -2748,8 +4129,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>156</v>
+      <c r="B4" s="99" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -2800,20 +4181,20 @@
       <c r="U4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="30" t="s">
-        <v>165</v>
+      <c r="V4" s="98" t="s">
+        <v>214</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z4" s="34" t="s">
-        <v>167</v>
+      <c r="Y4" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z4" s="102" t="s">
+        <v>216</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -2840,8 +4221,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>156</v>
+      <c r="B5" s="104" t="s">
+        <v>207</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -2892,20 +4273,20 @@
       <c r="U5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="X5" s="37" t="s">
+      <c r="V5" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="W5" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="X5" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z5" s="39" t="s">
-        <v>170</v>
+      <c r="Y5" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z5" s="107" t="s">
+        <v>219</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -2936,8 +4317,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>156</v>
+      <c r="B6" s="110" t="s">
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -2988,20 +4369,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="X6" s="42" t="s">
+      <c r="V6" s="109" t="s">
+        <v>221</v>
+      </c>
+      <c r="W6" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="X6" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z6" s="44" t="s">
-        <v>173</v>
+      <c r="Y6" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z6" s="113" t="s">
+        <v>223</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -3028,8 +4409,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>156</v>
+      <c r="B7" s="116" t="s">
+        <v>207</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -3078,20 +4459,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="W7" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="X7" s="47" t="s">
+      <c r="V7" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="W7" s="120" t="s">
+        <v>228</v>
+      </c>
+      <c r="X7" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z7" s="49" t="s">
-        <v>176</v>
+      <c r="Y7" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z7" s="119" t="s">
+        <v>227</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -3114,8 +4495,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>156</v>
+      <c r="B8" s="122" t="s">
+        <v>207</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3166,18 +4547,18 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="51" t="s">
-        <v>178</v>
+      <c r="V8" s="121" t="s">
+        <v>229</v>
       </c>
       <c r="W8" s="10"/>
-      <c r="X8" s="53" t="s">
+      <c r="X8" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="55" t="s">
-        <v>180</v>
+      <c r="Y8" s="124" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z8" s="125" t="s">
+        <v>231</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -3204,8 +4585,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>156</v>
+      <c r="B9" s="127" t="s">
+        <v>207</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3256,20 +4637,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="W9" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="X9" s="59" t="s">
+      <c r="V9" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="W9" s="131" t="s">
+        <v>235</v>
+      </c>
+      <c r="X9" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="Y9" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z9" s="61" t="s">
-        <v>185</v>
+      <c r="Y9" s="129" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z9" s="130" t="s">
+        <v>234</v>
       </c>
       <c r="AA9" s="56" t="s">
         <v>181</v>
@@ -3290,8 +4671,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="82" t="s">
-        <v>156</v>
+      <c r="B10" s="133" t="s">
+        <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3340,20 +4721,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="W10" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="X10" s="83" t="s">
+      <c r="V10" s="132" t="s">
+        <v>236</v>
+      </c>
+      <c r="W10" s="137" t="s">
+        <v>239</v>
+      </c>
+      <c r="X10" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="Y10" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z10" s="85" t="s">
-        <v>204</v>
+      <c r="Y10" s="135" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z10" s="136" t="s">
+        <v>238</v>
       </c>
       <c r="AA10" s="56" t="s">
         <v>181</v>
@@ -3372,8 +4753,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>156</v>
+      <c r="B11" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3424,20 +4805,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="W11" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="X11" s="65" t="s">
+      <c r="V11" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="W11" s="143" t="s">
+        <v>243</v>
+      </c>
+      <c r="X11" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="Y11" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z11" s="67" t="s">
-        <v>190</v>
+      <c r="Y11" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z11" s="142" t="s">
+        <v>242</v>
       </c>
       <c r="AA11" s="56" t="s">
         <v>181</v>
@@ -3458,8 +4839,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="70" t="s">
-        <v>156</v>
+      <c r="B12" s="145" t="s">
+        <v>207</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3510,20 +4891,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="W12" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="X12" s="71" t="s">
+      <c r="V12" s="144" t="s">
+        <v>244</v>
+      </c>
+      <c r="W12" s="149" t="s">
+        <v>247</v>
+      </c>
+      <c r="X12" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="Y12" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z12" s="73" t="s">
-        <v>194</v>
+      <c r="Y12" s="147" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z12" s="148" t="s">
+        <v>246</v>
       </c>
       <c r="AA12" s="56" t="s">
         <v>110</v>
@@ -3544,8 +4925,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="76" t="s">
-        <v>156</v>
+      <c r="B13" s="151" t="s">
+        <v>207</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -3594,20 +4975,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="W13" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="X13" s="77" t="s">
+      <c r="V13" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="W13" s="155" t="s">
+        <v>251</v>
+      </c>
+      <c r="X13" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="Y13" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z13" s="79" t="s">
-        <v>199</v>
+      <c r="Y13" s="153" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z13" s="154" t="s">
+        <v>250</v>
       </c>
       <c r="AA13" s="56" t="s">
         <v>110</v>
@@ -3624,7 +5005,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{72D59957-0FB9-46A5-A904-E42606170870}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ADAD6327-1828-4C08-AA60-45E028A71647}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
   <si>
     <t>shipmentType</t>
   </si>
@@ -476,12 +476,6 @@
     <t>WayBill</t>
   </si>
   <si>
-    <t>51498390</t>
-  </si>
-  <si>
-    <t>51498392</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -497,156 +491,24 @@
     <t>AutoRes10011</t>
   </si>
   <si>
-    <t>10-05-2021</t>
-  </si>
-  <si>
     <t>$95.85</t>
   </si>
   <si>
-    <t>51498646</t>
-  </si>
-  <si>
-    <t>FCT894845662225498112</t>
-  </si>
-  <si>
-    <t>CEV1002784</t>
-  </si>
-  <si>
-    <t>51498648</t>
-  </si>
-  <si>
-    <t>51498649</t>
-  </si>
-  <si>
-    <t>FCT894848526595391488</t>
-  </si>
-  <si>
-    <t>CEV1002786</t>
-  </si>
-  <si>
-    <t>51498653</t>
-  </si>
-  <si>
-    <t>FCT894851044603854848</t>
-  </si>
-  <si>
-    <t>CEV1002787</t>
-  </si>
-  <si>
-    <t>51498657</t>
-  </si>
-  <si>
-    <t>FCT894853600319111168</t>
-  </si>
-  <si>
-    <t>CEV1002788</t>
-  </si>
-  <si>
-    <t>51498661</t>
-  </si>
-  <si>
-    <t>FCT894856760194498560</t>
-  </si>
-  <si>
-    <t>CEV1002790</t>
-  </si>
-  <si>
-    <t>51498665</t>
-  </si>
-  <si>
-    <t>FCT894860194788409344</t>
-  </si>
-  <si>
-    <t>CEV1002791</t>
-  </si>
-  <si>
-    <t>51498668</t>
-  </si>
-  <si>
-    <t>51498669</t>
-  </si>
-  <si>
-    <t>FCT894862556529688576</t>
-  </si>
-  <si>
-    <t>CEV1002793</t>
-  </si>
-  <si>
     <t>Ups</t>
   </si>
   <si>
-    <t>51498974</t>
-  </si>
-  <si>
     <t>$59.00</t>
   </si>
   <si>
-    <t>1Z44R7R60398611353</t>
-  </si>
-  <si>
-    <t>FCUPSG1011044</t>
-  </si>
-  <si>
-    <t>51498976</t>
-  </si>
-  <si>
-    <t>51498983</t>
-  </si>
-  <si>
     <t>$168.92</t>
   </si>
   <si>
-    <t>1Z44R7R60391501841</t>
-  </si>
-  <si>
-    <t>FCUPSG1011046</t>
-  </si>
-  <si>
-    <t>51498985</t>
-  </si>
-  <si>
-    <t>51498986</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW92095853</t>
-  </si>
-  <si>
-    <t>FCUPSG1011048</t>
-  </si>
-  <si>
-    <t>51498989</t>
-  </si>
-  <si>
-    <t>51498994</t>
-  </si>
-  <si>
     <t>$118.78</t>
   </si>
   <si>
-    <t>1Z44R7R6YW92773067</t>
-  </si>
-  <si>
-    <t>FCUPSG1011050</t>
-  </si>
-  <si>
-    <t>51499010</t>
-  </si>
-  <si>
-    <t>51499021</t>
-  </si>
-  <si>
     <t>$75.26</t>
   </si>
   <si>
-    <t>1Z44R7R60390157476</t>
-  </si>
-  <si>
-    <t>FCUPSG1011053</t>
-  </si>
-  <si>
-    <t>51499023</t>
-  </si>
-  <si>
     <t>51499273</t>
   </si>
   <si>
@@ -783,6 +645,24 @@
   </si>
   <si>
     <t>51499345</t>
+  </si>
+  <si>
+    <t>BTX Global Logistics</t>
+  </si>
+  <si>
+    <t>51499445</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>$472.52</t>
+  </si>
+  <si>
+    <t>FCBTXA1000153</t>
+  </si>
+  <si>
+    <t>51499447</t>
   </si>
 </sst>
 </file>
@@ -790,7 +670,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,8 +691,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="216">
+  <fills count="90">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,638 +1145,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="207">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -2651,445 +1907,26 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <top style="thin"/>
@@ -3141,7 +1978,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3158,146 +1995,84 @@
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="8" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="9" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="10" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="11" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="12" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="13" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="14" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="15" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="16" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="17" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="18" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="19" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="20" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="21" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="22" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="23" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="24" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="25" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="26" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="27" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="28" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="29" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="30" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="31" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="32" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="33" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="34" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="35" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="36" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="37" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="38" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="39" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="40" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="41" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="42" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="43" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="44" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="45" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="46" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="47" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="48" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="49" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="50" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="51" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="52" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="53" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="54" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="55" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="56" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="57" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="58" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="59" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="60" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="61" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="62" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="63" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="64" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="65" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="66" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="67" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="68" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="70" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="72" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="74" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="76" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="78" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="80" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="82" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="84" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="86" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="88" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="90" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="92" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="94" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="96" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="98" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="100" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="102" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="104" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="106" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="108" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="110" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="112" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="114" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="116" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="118" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="120" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="122" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="124" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="126" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="128" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="130" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="132" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="134" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="136" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="138" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="140" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="142" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="144" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="146" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="148" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="150" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="152" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="154" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="156" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="158" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="160" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="162" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="164" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="166" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="168" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="170" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="172" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="174" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="176" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="178" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="180" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="182" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="184" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="186" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="188" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="190" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="192" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="194" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="196" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="198" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="200" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="202" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="204" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="215" borderId="206" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="9" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="12" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="13" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="14" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="15" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="16" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="17" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="18" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="19" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="20" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="21" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="22" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="23" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="24" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="25" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="26" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="27" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="28" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="29" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="30" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="31" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="32" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="33" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="34" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="35" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="37" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="38" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="39" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="40" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="53" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="55" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="58" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="59" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="63" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="64" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="65" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="66" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="67" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="68" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="69" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="70" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="82" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3802,7 +2577,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3945,8 +2720,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>207</v>
+      <c r="B2" s="89" t="s">
+        <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3997,23 +2772,23 @@
       <c r="U2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="87" t="s">
+      <c r="V2" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="W2" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="X2" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y2" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z2" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA2" s="87" t="s">
         <v>206</v>
-      </c>
-      <c r="W2" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="X2" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z2" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -4033,8 +2808,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="94" t="s">
-        <v>207</v>
+      <c r="B3" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -4087,20 +2862,20 @@
       <c r="U3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="93" t="s">
-        <v>211</v>
+      <c r="V3" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="W3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="95" t="s">
+      <c r="X3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z3" s="97" t="s">
-        <v>213</v>
+      <c r="Y3" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -4129,8 +2904,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>207</v>
+      <c r="B4" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -4181,20 +2956,20 @@
       <c r="U4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="98" t="s">
-        <v>214</v>
+      <c r="V4" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="101" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z4" s="102" t="s">
-        <v>216</v>
+      <c r="Y4" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -4221,8 +2996,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="104" t="s">
-        <v>207</v>
+      <c r="B5" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -4273,20 +3048,20 @@
       <c r="U5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="W5" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="X5" s="105" t="s">
+      <c r="V5" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="W5" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="X5" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z5" s="107" t="s">
-        <v>219</v>
+      <c r="Y5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z5" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -4317,8 +3092,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="110" t="s">
-        <v>207</v>
+      <c r="B6" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -4369,20 +3144,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="W6" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="X6" s="111" t="s">
+      <c r="V6" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z6" s="113" t="s">
-        <v>223</v>
+      <c r="Y6" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z6" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -4409,8 +3184,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="116" t="s">
-        <v>207</v>
+      <c r="B7" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -4459,20 +3234,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="W7" s="120" t="s">
-        <v>228</v>
-      </c>
-      <c r="X7" s="117" t="s">
+      <c r="V7" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="X7" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="118" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z7" s="119" t="s">
-        <v>227</v>
+      <c r="Y7" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z7" s="50" t="s">
+        <v>181</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -4495,8 +3270,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="122" t="s">
-        <v>207</v>
+      <c r="B8" s="53" t="s">
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -4547,18 +3322,18 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="121" t="s">
-        <v>229</v>
+      <c r="V8" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="W8" s="10"/>
-      <c r="X8" s="123" t="s">
+      <c r="X8" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" s="124" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z8" s="125" t="s">
-        <v>231</v>
+      <c r="Y8" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z8" s="56" t="s">
+        <v>185</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -4585,8 +3360,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="127" t="s">
-        <v>207</v>
+      <c r="B9" s="58" t="s">
+        <v>161</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -4637,23 +3412,23 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="126" t="s">
-        <v>232</v>
-      </c>
-      <c r="W9" s="131" t="s">
-        <v>235</v>
-      </c>
-      <c r="X9" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y9" s="129" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z9" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA9" s="56" t="s">
-        <v>181</v>
+      <c r="V9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="W9" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="X9" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z9" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -4671,8 +3446,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="133" t="s">
-        <v>207</v>
+      <c r="B10" s="64" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -4700,19 +3475,19 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="R10" t="s">
         <v>152</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="R10" t="s">
-        <v>154</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>97</v>
@@ -4721,23 +3496,23 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="W10" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="X10" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y10" s="135" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z10" s="136" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA10" s="56" t="s">
-        <v>181</v>
+      <c r="V10" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="W10" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="X10" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y10" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z10" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -4753,8 +3528,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="139" t="s">
-        <v>207</v>
+      <c r="B11" s="70" t="s">
+        <v>161</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -4805,23 +3580,23 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="138" t="s">
-        <v>240</v>
-      </c>
-      <c r="W11" s="143" t="s">
-        <v>243</v>
-      </c>
-      <c r="X11" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y11" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z11" s="142" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA11" s="56" t="s">
-        <v>181</v>
+      <c r="V11" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="W11" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="X11" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y11" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z11" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -4839,8 +3614,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="145" t="s">
-        <v>207</v>
+      <c r="B12" s="76" t="s">
+        <v>161</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -4857,7 +3632,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>25</v>
@@ -4891,22 +3666,22 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="144" t="s">
-        <v>244</v>
-      </c>
-      <c r="W12" s="149" t="s">
-        <v>247</v>
-      </c>
-      <c r="X12" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y12" s="147" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z12" s="148" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA12" s="56" t="s">
+      <c r="V12" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="W12" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="X12" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y12" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z12" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="17" t="s">
         <v>110</v>
       </c>
       <c r="AB12" s="3" t="s">
@@ -4925,8 +3700,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="151" t="s">
-        <v>207</v>
+      <c r="B13" s="82" t="s">
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -4943,7 +3718,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>25</v>
@@ -4954,19 +3729,19 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="R13" t="s">
         <v>152</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="R13" t="s">
-        <v>154</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>97</v>
@@ -4975,22 +3750,22 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="150" t="s">
-        <v>248</v>
-      </c>
-      <c r="W13" s="155" t="s">
-        <v>251</v>
-      </c>
-      <c r="X13" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y13" s="153" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z13" s="154" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA13" s="56" t="s">
+      <c r="V13" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="W13" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="X13" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y13" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z13" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA13" s="17" t="s">
         <v>110</v>
       </c>
       <c r="AB13" s="3"/>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="270">
   <si>
     <t>shipmentType</t>
   </si>
@@ -663,6 +663,180 @@
   </si>
   <si>
     <t>51499447</t>
+  </si>
+  <si>
+    <t>51499545</t>
+  </si>
+  <si>
+    <t>$473.82</t>
+  </si>
+  <si>
+    <t>FCBTXA1000155</t>
+  </si>
+  <si>
+    <t>51499548</t>
+  </si>
+  <si>
+    <t>51499549</t>
+  </si>
+  <si>
+    <t>$918.14</t>
+  </si>
+  <si>
+    <t>FCT895984969740976128</t>
+  </si>
+  <si>
+    <t>CEV1002823</t>
+  </si>
+  <si>
+    <t>51499551</t>
+  </si>
+  <si>
+    <t>51499552</t>
+  </si>
+  <si>
+    <t>$1,047.07</t>
+  </si>
+  <si>
+    <t>FCT895987768319016960</t>
+  </si>
+  <si>
+    <t>CEV1002825</t>
+  </si>
+  <si>
+    <t>51499554</t>
+  </si>
+  <si>
+    <t>51499555</t>
+  </si>
+  <si>
+    <t>$2,586.92</t>
+  </si>
+  <si>
+    <t>FCT895990605350436864</t>
+  </si>
+  <si>
+    <t>CEV1002827</t>
+  </si>
+  <si>
+    <t>51499557</t>
+  </si>
+  <si>
+    <t>51499558</t>
+  </si>
+  <si>
+    <t>FCT895993706627203072</t>
+  </si>
+  <si>
+    <t>CEV1002829</t>
+  </si>
+  <si>
+    <t>51499560</t>
+  </si>
+  <si>
+    <t>51499561</t>
+  </si>
+  <si>
+    <t>$1,062.07</t>
+  </si>
+  <si>
+    <t>FCT895996686067826688</t>
+  </si>
+  <si>
+    <t>CEV1002831</t>
+  </si>
+  <si>
+    <t>51499563</t>
+  </si>
+  <si>
+    <t>51499564</t>
+  </si>
+  <si>
+    <t>$575.48</t>
+  </si>
+  <si>
+    <t>FCT895999267062153216</t>
+  </si>
+  <si>
+    <t>CEV1002833</t>
+  </si>
+  <si>
+    <t>51499566</t>
+  </si>
+  <si>
+    <t>51499567</t>
+  </si>
+  <si>
+    <t>$60.46</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399094938</t>
+  </si>
+  <si>
+    <t>FCUPSG1011070</t>
+  </si>
+  <si>
+    <t>51499569</t>
+  </si>
+  <si>
+    <t>51499570</t>
+  </si>
+  <si>
+    <t>$76.66</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395553154</t>
+  </si>
+  <si>
+    <t>FCUPSG1011072</t>
+  </si>
+  <si>
+    <t>51499572</t>
+  </si>
+  <si>
+    <t>51499573</t>
+  </si>
+  <si>
+    <t>$170.38</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393778595</t>
+  </si>
+  <si>
+    <t>FCUPSG1011074</t>
+  </si>
+  <si>
+    <t>51499575</t>
+  </si>
+  <si>
+    <t>51499576</t>
+  </si>
+  <si>
+    <t>$97.31</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99212178</t>
+  </si>
+  <si>
+    <t>FCUPSG1011076</t>
+  </si>
+  <si>
+    <t>51499578</t>
+  </si>
+  <si>
+    <t>51499581</t>
+  </si>
+  <si>
+    <t>$120.18</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97951981</t>
+  </si>
+  <si>
+    <t>FCUPSG1011078</t>
+  </si>
+  <si>
+    <t>51499583</t>
   </si>
 </sst>
 </file>
@@ -698,7 +872,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="90">
+  <fills count="234">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,8 +1319,728 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="83">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -1927,6 +2821,510 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -1978,7 +3376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2072,7 +3470,79 @@
     <xf applyBorder="true" applyFill="true" borderId="76" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="78" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="80" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="82" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="180" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="182" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="184" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="186" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="188" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="190" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="192" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="194" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="196" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="198" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="200" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="202" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="204" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="206" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="208" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="210" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="212" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="214" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="216" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="218" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="220" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="222" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="224" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="226" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2720,7 +4190,7 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="95" t="s">
         <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2772,20 +4242,20 @@
       <c r="U2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="W2" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="X2" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y2" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z2" s="92" t="s">
-        <v>210</v>
+      <c r="V2" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="W2" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="X2" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y2" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>214</v>
       </c>
       <c r="AA2" s="87" t="s">
         <v>206</v>
@@ -2808,8 +4278,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>161</v>
+      <c r="B3" s="101" t="s">
+        <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -2862,20 +4332,20 @@
       <c r="U3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>167</v>
+      <c r="V3" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="W3" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="X3" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y3" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z3" s="104" t="s">
+        <v>219</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -2904,8 +4374,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>161</v>
+      <c r="B4" s="107" t="s">
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -2956,20 +4426,20 @@
       <c r="U4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>170</v>
+      <c r="V4" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="W4" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="X4" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y4" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z4" s="110" t="s">
+        <v>224</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -2996,8 +4466,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>161</v>
+      <c r="B5" s="113" t="s">
+        <v>208</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -3048,20 +4518,20 @@
       <c r="U5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W5" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y5" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z5" s="38" t="s">
-        <v>173</v>
+      <c r="V5" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="W5" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="X5" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y5" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z5" s="116" t="s">
+        <v>229</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -3092,8 +4562,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>161</v>
+      <c r="B6" s="119" t="s">
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -3144,20 +4614,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="W6" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="X6" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y6" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z6" s="44" t="s">
-        <v>177</v>
+      <c r="V6" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="W6" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="X6" s="120" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y6" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z6" s="122" t="s">
+        <v>233</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -3184,8 +4654,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>161</v>
+      <c r="B7" s="125" t="s">
+        <v>208</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -3234,20 +4704,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="X7" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y7" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z7" s="50" t="s">
-        <v>181</v>
+      <c r="V7" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="W7" s="129" t="s">
+        <v>239</v>
+      </c>
+      <c r="X7" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y7" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z7" s="128" t="s">
+        <v>238</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -3270,8 +4740,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>161</v>
+      <c r="B8" s="131" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3322,18 +4792,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="W8" s="10"/>
-      <c r="X8" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y8" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z8" s="56" t="s">
-        <v>185</v>
+      <c r="V8" s="130" t="s">
+        <v>240</v>
+      </c>
+      <c r="W8" s="135" t="s">
+        <v>244</v>
+      </c>
+      <c r="X8" s="132" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y8" s="133" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z8" s="134" t="s">
+        <v>243</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -3360,8 +4832,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>161</v>
+      <c r="B9" s="137" t="s">
+        <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3412,20 +4884,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="W9" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="X9" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y9" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z9" s="61" t="s">
-        <v>188</v>
+      <c r="V9" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="W9" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="X9" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y9" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z9" s="140" t="s">
+        <v>248</v>
       </c>
       <c r="AA9" s="17" t="s">
         <v>155</v>
@@ -3446,8 +4918,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>161</v>
+      <c r="B10" s="143" t="s">
+        <v>208</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3496,20 +4968,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="W10" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="X10" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y10" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z10" s="67" t="s">
-        <v>192</v>
+      <c r="V10" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="W10" s="147" t="s">
+        <v>254</v>
+      </c>
+      <c r="X10" s="144" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y10" s="145" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z10" s="146" t="s">
+        <v>253</v>
       </c>
       <c r="AA10" s="17" t="s">
         <v>155</v>
@@ -3528,8 +5000,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>161</v>
+      <c r="B11" s="149" t="s">
+        <v>208</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3580,20 +5052,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="W11" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="X11" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y11" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z11" s="73" t="s">
-        <v>196</v>
+      <c r="V11" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="W11" s="153" t="s">
+        <v>259</v>
+      </c>
+      <c r="X11" s="150" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y11" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z11" s="152" t="s">
+        <v>258</v>
       </c>
       <c r="AA11" s="17" t="s">
         <v>155</v>
@@ -3614,8 +5086,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="76" t="s">
-        <v>161</v>
+      <c r="B12" s="155" t="s">
+        <v>208</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3666,20 +5138,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="W12" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="X12" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y12" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z12" s="79" t="s">
-        <v>200</v>
+      <c r="V12" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="W12" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="X12" s="156" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y12" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z12" s="158" t="s">
+        <v>263</v>
       </c>
       <c r="AA12" s="17" t="s">
         <v>110</v>
@@ -3700,8 +5172,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>161</v>
+      <c r="B13" s="161" t="s">
+        <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -3750,20 +5222,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="W13" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="X13" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y13" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z13" s="85" t="s">
-        <v>204</v>
+      <c r="V13" s="160" t="s">
+        <v>265</v>
+      </c>
+      <c r="W13" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="X13" s="162" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y13" s="163" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z13" s="164" t="s">
+        <v>268</v>
       </c>
       <c r="AA13" s="17" t="s">
         <v>110</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="315">
   <si>
     <t>shipmentType</t>
   </si>
@@ -837,6 +837,141 @@
   </si>
   <si>
     <t>51499583</t>
+  </si>
+  <si>
+    <t>51499647</t>
+  </si>
+  <si>
+    <t>10-11-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000157</t>
+  </si>
+  <si>
+    <t>51499649</t>
+  </si>
+  <si>
+    <t>51499650</t>
+  </si>
+  <si>
+    <t>FCT897085507316482048</t>
+  </si>
+  <si>
+    <t>CEV1002841</t>
+  </si>
+  <si>
+    <t>51499653</t>
+  </si>
+  <si>
+    <t>FCT897087894819176448</t>
+  </si>
+  <si>
+    <t>CEV1002842</t>
+  </si>
+  <si>
+    <t>51499656</t>
+  </si>
+  <si>
+    <t>FCT897090325405761536</t>
+  </si>
+  <si>
+    <t>CEV1002843</t>
+  </si>
+  <si>
+    <t>51499658</t>
+  </si>
+  <si>
+    <t>51499659</t>
+  </si>
+  <si>
+    <t>FCT897093225750200320</t>
+  </si>
+  <si>
+    <t>CEV1002845</t>
+  </si>
+  <si>
+    <t>51499661</t>
+  </si>
+  <si>
+    <t>51499662</t>
+  </si>
+  <si>
+    <t>FCT897096076819955712</t>
+  </si>
+  <si>
+    <t>CEV1002847</t>
+  </si>
+  <si>
+    <t>51499664</t>
+  </si>
+  <si>
+    <t>51499665</t>
+  </si>
+  <si>
+    <t>FCT897098607889481728</t>
+  </si>
+  <si>
+    <t>CEV1002849</t>
+  </si>
+  <si>
+    <t>51499668</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391240454</t>
+  </si>
+  <si>
+    <t>FCUPSG1011081</t>
+  </si>
+  <si>
+    <t>51499670</t>
+  </si>
+  <si>
+    <t>51499671</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396354895</t>
+  </si>
+  <si>
+    <t>FCUPSG1011083</t>
+  </si>
+  <si>
+    <t>51499673</t>
+  </si>
+  <si>
+    <t>51499674</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393189669</t>
+  </si>
+  <si>
+    <t>FCUPSG1011085</t>
+  </si>
+  <si>
+    <t>51499676</t>
+  </si>
+  <si>
+    <t>51499677</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW96276936</t>
+  </si>
+  <si>
+    <t>FCUPSG1011087</t>
+  </si>
+  <si>
+    <t>51499679</t>
+  </si>
+  <si>
+    <t>51499680</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW92537769</t>
+  </si>
+  <si>
+    <t>FCUPSG1011089</t>
+  </si>
+  <si>
+    <t>51499682</t>
   </si>
 </sst>
 </file>
@@ -872,7 +1007,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="234">
+  <fills count="372">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2039,8 +2174,698 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="365">
     <border>
       <left/>
       <right/>
@@ -2821,6 +3646,489 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -3376,7 +4684,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3542,7 +4850,76 @@
     <xf applyBorder="true" applyFill="true" borderId="220" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="222" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="224" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="233" borderId="226" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="226" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="228" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="230" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="232" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="234" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="236" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="238" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="240" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="242" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="244" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="246" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="248" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="250" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="252" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="254" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="256" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="258" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="260" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="262" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="264" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="266" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="268" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="270" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="272" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="274" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="276" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="278" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="280" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="282" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="284" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="286" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="288" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="290" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="292" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="294" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="296" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="298" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="300" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="302" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="304" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="306" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="308" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="310" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="312" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="314" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="316" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="318" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="320" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="322" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="324" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="326" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="328" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="330" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="332" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="334" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="336" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="338" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="340" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="342" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="344" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="346" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="348" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="350" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="352" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="354" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="356" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="358" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="360" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="362" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="371" borderId="364" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4190,8 +5567,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>208</v>
+      <c r="B2" s="167" t="s">
+        <v>271</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -4242,20 +5619,20 @@
       <c r="U2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="W2" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="X2" s="96" t="s">
+      <c r="V2" s="166" t="s">
+        <v>270</v>
+      </c>
+      <c r="W2" s="171" t="s">
+        <v>273</v>
+      </c>
+      <c r="X2" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="Y2" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z2" s="98" t="s">
-        <v>214</v>
+      <c r="Y2" s="169" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z2" s="170" t="s">
+        <v>272</v>
       </c>
       <c r="AA2" s="87" t="s">
         <v>206</v>
@@ -4278,8 +5655,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>208</v>
+      <c r="B3" s="173" t="s">
+        <v>271</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -4332,20 +5709,20 @@
       <c r="U3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="100" t="s">
-        <v>216</v>
+      <c r="V3" s="172" t="s">
+        <v>274</v>
       </c>
       <c r="W3" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="X3" s="102" t="s">
+      <c r="X3" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="Y3" s="103" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z3" s="104" t="s">
-        <v>219</v>
+      <c r="Y3" s="175" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z3" s="176" t="s">
+        <v>276</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -4374,8 +5751,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="107" t="s">
-        <v>208</v>
+      <c r="B4" s="178" t="s">
+        <v>271</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -4426,20 +5803,20 @@
       <c r="U4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="106" t="s">
-        <v>221</v>
+      <c r="V4" s="177" t="s">
+        <v>277</v>
       </c>
       <c r="W4" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="108" t="s">
+      <c r="X4" s="179" t="s">
         <v>222</v>
       </c>
-      <c r="Y4" s="109" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z4" s="110" t="s">
-        <v>224</v>
+      <c r="Y4" s="180" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z4" s="181" t="s">
+        <v>279</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -4466,8 +5843,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="113" t="s">
-        <v>208</v>
+      <c r="B5" s="183" t="s">
+        <v>271</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -4518,20 +5895,20 @@
       <c r="U5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="112" t="s">
-        <v>226</v>
-      </c>
-      <c r="W5" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="X5" s="114" t="s">
+      <c r="V5" s="182" t="s">
+        <v>280</v>
+      </c>
+      <c r="W5" s="187" t="s">
+        <v>283</v>
+      </c>
+      <c r="X5" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="Y5" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z5" s="116" t="s">
-        <v>229</v>
+      <c r="Y5" s="185" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z5" s="186" t="s">
+        <v>282</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -4562,8 +5939,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="119" t="s">
-        <v>208</v>
+      <c r="B6" s="189" t="s">
+        <v>271</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -4614,20 +5991,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="W6" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="X6" s="120" t="s">
+      <c r="V6" s="188" t="s">
+        <v>284</v>
+      </c>
+      <c r="W6" s="193" t="s">
+        <v>287</v>
+      </c>
+      <c r="X6" s="190" t="s">
         <v>222</v>
       </c>
-      <c r="Y6" s="121" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z6" s="122" t="s">
-        <v>233</v>
+      <c r="Y6" s="191" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z6" s="192" t="s">
+        <v>286</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -4654,8 +6031,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="125" t="s">
-        <v>208</v>
+      <c r="B7" s="195" t="s">
+        <v>271</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -4704,20 +6081,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="124" t="s">
-        <v>235</v>
-      </c>
-      <c r="W7" s="129" t="s">
-        <v>239</v>
-      </c>
-      <c r="X7" s="126" t="s">
+      <c r="V7" s="194" t="s">
+        <v>288</v>
+      </c>
+      <c r="W7" s="199" t="s">
+        <v>291</v>
+      </c>
+      <c r="X7" s="196" t="s">
         <v>236</v>
       </c>
-      <c r="Y7" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z7" s="128" t="s">
-        <v>238</v>
+      <c r="Y7" s="197" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z7" s="198" t="s">
+        <v>290</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -4740,8 +6117,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="131" t="s">
-        <v>208</v>
+      <c r="B8" s="201" t="s">
+        <v>271</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -4792,20 +6169,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="130" t="s">
-        <v>240</v>
+      <c r="V8" s="200" t="s">
+        <v>292</v>
       </c>
       <c r="W8" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="X8" s="132" t="s">
+      <c r="X8" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="Y8" s="133" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z8" s="134" t="s">
-        <v>243</v>
+      <c r="Y8" s="203" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z8" s="204" t="s">
+        <v>294</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -4832,8 +6209,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="137" t="s">
-        <v>208</v>
+      <c r="B9" s="206" t="s">
+        <v>271</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -4884,20 +6261,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="136" t="s">
-        <v>245</v>
-      </c>
-      <c r="W9" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="X9" s="138" t="s">
+      <c r="V9" s="205" t="s">
+        <v>295</v>
+      </c>
+      <c r="W9" s="210" t="s">
+        <v>298</v>
+      </c>
+      <c r="X9" s="207" t="s">
         <v>246</v>
       </c>
-      <c r="Y9" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z9" s="140" t="s">
-        <v>248</v>
+      <c r="Y9" s="208" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z9" s="209" t="s">
+        <v>297</v>
       </c>
       <c r="AA9" s="17" t="s">
         <v>155</v>
@@ -4918,8 +6295,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="143" t="s">
-        <v>208</v>
+      <c r="B10" s="212" t="s">
+        <v>271</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -4968,20 +6345,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="142" t="s">
-        <v>250</v>
-      </c>
-      <c r="W10" s="147" t="s">
-        <v>254</v>
-      </c>
-      <c r="X10" s="144" t="s">
+      <c r="V10" s="211" t="s">
+        <v>299</v>
+      </c>
+      <c r="W10" s="216" t="s">
+        <v>302</v>
+      </c>
+      <c r="X10" s="213" t="s">
         <v>251</v>
       </c>
-      <c r="Y10" s="145" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z10" s="146" t="s">
-        <v>253</v>
+      <c r="Y10" s="214" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z10" s="215" t="s">
+        <v>301</v>
       </c>
       <c r="AA10" s="17" t="s">
         <v>155</v>
@@ -5000,8 +6377,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="149" t="s">
-        <v>208</v>
+      <c r="B11" s="218" t="s">
+        <v>271</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -5052,20 +6429,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="148" t="s">
-        <v>255</v>
-      </c>
-      <c r="W11" s="153" t="s">
-        <v>259</v>
-      </c>
-      <c r="X11" s="150" t="s">
+      <c r="V11" s="217" t="s">
+        <v>303</v>
+      </c>
+      <c r="W11" s="222" t="s">
+        <v>306</v>
+      </c>
+      <c r="X11" s="219" t="s">
         <v>256</v>
       </c>
-      <c r="Y11" s="151" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z11" s="152" t="s">
-        <v>258</v>
+      <c r="Y11" s="220" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z11" s="221" t="s">
+        <v>305</v>
       </c>
       <c r="AA11" s="17" t="s">
         <v>155</v>
@@ -5086,8 +6463,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="155" t="s">
-        <v>208</v>
+      <c r="B12" s="224" t="s">
+        <v>271</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -5138,20 +6515,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="154" t="s">
-        <v>260</v>
-      </c>
-      <c r="W12" s="159" t="s">
-        <v>264</v>
-      </c>
-      <c r="X12" s="156" t="s">
+      <c r="V12" s="223" t="s">
+        <v>307</v>
+      </c>
+      <c r="W12" s="228" t="s">
+        <v>310</v>
+      </c>
+      <c r="X12" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="Y12" s="157" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z12" s="158" t="s">
-        <v>263</v>
+      <c r="Y12" s="226" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z12" s="227" t="s">
+        <v>309</v>
       </c>
       <c r="AA12" s="17" t="s">
         <v>110</v>
@@ -5172,8 +6549,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="161" t="s">
-        <v>208</v>
+      <c r="B13" s="230" t="s">
+        <v>271</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -5222,20 +6599,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="160" t="s">
-        <v>265</v>
-      </c>
-      <c r="W13" s="165" t="s">
-        <v>269</v>
-      </c>
-      <c r="X13" s="162" t="s">
+      <c r="V13" s="229" t="s">
+        <v>311</v>
+      </c>
+      <c r="W13" s="234" t="s">
+        <v>314</v>
+      </c>
+      <c r="X13" s="231" t="s">
         <v>266</v>
       </c>
-      <c r="Y13" s="163" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z13" s="164" t="s">
-        <v>268</v>
+      <c r="Y13" s="232" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z13" s="233" t="s">
+        <v>313</v>
       </c>
       <c r="AA13" s="17" t="s">
         <v>110</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="318">
   <si>
     <t>shipmentType</t>
   </si>
@@ -972,6 +972,15 @@
   </si>
   <si>
     <t>51499682</t>
+  </si>
+  <si>
+    <t>51500029</t>
+  </si>
+  <si>
+    <t>10-14-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000168</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1016,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="372">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2864,8 +2873,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="365">
+  <borders count="375">
     <border>
       <left/>
       <right/>
@@ -3646,6 +3705,41 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -4684,7 +4778,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="240">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4919,7 +5013,12 @@
     <xf applyBorder="true" applyFill="true" borderId="358" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="360" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="362" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="371" borderId="364" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="364" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="366" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="368" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="370" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="372" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="381" borderId="374" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5567,8 +5666,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="167" t="s">
-        <v>271</v>
+      <c r="B2" s="236" t="s">
+        <v>316</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -5619,20 +5718,20 @@
       <c r="U2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="166" t="s">
-        <v>270</v>
+      <c r="V2" s="235" t="s">
+        <v>315</v>
       </c>
       <c r="W2" s="171" t="s">
         <v>273</v>
       </c>
-      <c r="X2" s="168" t="s">
+      <c r="X2" s="237" t="s">
         <v>213</v>
       </c>
-      <c r="Y2" s="169" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z2" s="170" t="s">
-        <v>272</v>
+      <c r="Y2" s="238" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z2" s="239" t="s">
+        <v>317</v>
       </c>
       <c r="AA2" s="87" t="s">
         <v>206</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="319">
   <si>
     <t>shipmentType</t>
   </si>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>FCBTXA1000168</t>
+  </si>
+  <si>
+    <t>51500196</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="382">
+  <fills count="384">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2923,8 +2926,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="375">
+  <borders count="377">
     <border>
       <left/>
       <right/>
@@ -3705,6 +3718,13 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -4778,7 +4798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -5018,7 +5038,8 @@
     <xf applyBorder="true" applyFill="true" borderId="368" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="370" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="372" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="381" borderId="374" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="374" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="383" borderId="376" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6363,8 +6384,8 @@
       <c r="V9" s="205" t="s">
         <v>295</v>
       </c>
-      <c r="W9" s="210" t="s">
-        <v>298</v>
+      <c r="W9" s="240" t="s">
+        <v>318</v>
       </c>
       <c r="X9" s="207" t="s">
         <v>246</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ADAD6327-1828-4C08-AA60-45E028A71647}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{204A7601-E9A0-4142-BEDD-3F1638B6FAE9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="392">
   <si>
     <t>shipmentType</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Ceva</t>
   </si>
   <si>
-    <t>$1,044.52</t>
-  </si>
-  <si>
     <t>400</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>600</t>
   </si>
   <si>
-    <t>$1,055.50</t>
-  </si>
-  <si>
     <t>pickUpLocationName</t>
   </si>
   <si>
@@ -377,24 +371,12 @@
     <t>CartoonQuantity</t>
   </si>
   <si>
-    <t>$585.91</t>
-  </si>
-  <si>
-    <t>$913.76</t>
-  </si>
-  <si>
     <t>PalletWeight</t>
   </si>
   <si>
     <t>3000</t>
   </si>
   <si>
-    <t>$2,584.37</t>
-  </si>
-  <si>
-    <t>$572.93</t>
-  </si>
-  <si>
     <t>Non-Boxed (Bagged, Rolled or Drum Items)</t>
   </si>
   <si>
@@ -464,12 +446,6 @@
     <t>CloneOrderId</t>
   </si>
   <si>
-    <t>51497777</t>
-  </si>
-  <si>
-    <t>51497780</t>
-  </si>
-  <si>
     <t>Tracking#</t>
   </si>
   <si>
@@ -491,375 +467,54 @@
     <t>AutoRes10011</t>
   </si>
   <si>
-    <t>$95.85</t>
-  </si>
-  <si>
     <t>Ups</t>
   </si>
   <si>
-    <t>$59.00</t>
-  </si>
-  <si>
-    <t>$168.92</t>
-  </si>
-  <si>
-    <t>$118.78</t>
-  </si>
-  <si>
-    <t>$75.26</t>
-  </si>
-  <si>
-    <t>51499273</t>
-  </si>
-  <si>
-    <t>10-06-2021</t>
-  </si>
-  <si>
-    <t>FCT895220663336304640</t>
-  </si>
-  <si>
-    <t>CEV1002802</t>
-  </si>
-  <si>
-    <t>51499277</t>
-  </si>
-  <si>
-    <t>51499278</t>
-  </si>
-  <si>
-    <t>FCT895223517291741184</t>
-  </si>
-  <si>
-    <t>CEV1002804</t>
-  </si>
-  <si>
-    <t>51499282</t>
-  </si>
-  <si>
-    <t>FCT895225941423292416</t>
-  </si>
-  <si>
-    <t>CEV1002805</t>
-  </si>
-  <si>
-    <t>51499285</t>
-  </si>
-  <si>
-    <t>FCT895228518881820672</t>
-  </si>
-  <si>
-    <t>CEV1002806</t>
-  </si>
-  <si>
-    <t>51499287</t>
-  </si>
-  <si>
-    <t>51499288</t>
-  </si>
-  <si>
-    <t>FCT895231480668618752</t>
-  </si>
-  <si>
-    <t>CEV1002808</t>
-  </si>
-  <si>
-    <t>51499290</t>
-  </si>
-  <si>
-    <t>51499291</t>
-  </si>
-  <si>
-    <t>FCT895234205674373120</t>
-  </si>
-  <si>
-    <t>CEV1002810</t>
-  </si>
-  <si>
-    <t>51499293</t>
-  </si>
-  <si>
-    <t>51499294</t>
-  </si>
-  <si>
-    <t>FCT895236538525286400</t>
-  </si>
-  <si>
-    <t>CEV1002812</t>
-  </si>
-  <si>
-    <t>51499303</t>
-  </si>
-  <si>
-    <t>1Z44R7R60396087880</t>
-  </si>
-  <si>
-    <t>FCUPSG1011056</t>
-  </si>
-  <si>
-    <t>51499306</t>
-  </si>
-  <si>
-    <t>51499313</t>
-  </si>
-  <si>
-    <t>1Z44R7R60397684107</t>
-  </si>
-  <si>
-    <t>FCUPSG1011058</t>
-  </si>
-  <si>
-    <t>51499327</t>
-  </si>
-  <si>
-    <t>51499332</t>
-  </si>
-  <si>
-    <t>1Z44R7R60395801126</t>
-  </si>
-  <si>
-    <t>FCUPSG1011060</t>
-  </si>
-  <si>
-    <t>51499336</t>
-  </si>
-  <si>
-    <t>51499340</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW94177430</t>
-  </si>
-  <si>
-    <t>FCUPSG1011062</t>
-  </si>
-  <si>
-    <t>51499342</t>
-  </si>
-  <si>
-    <t>51499343</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW98898154</t>
-  </si>
-  <si>
-    <t>FCUPSG1011064</t>
-  </si>
-  <si>
-    <t>51499345</t>
-  </si>
-  <si>
     <t>BTX Global Logistics</t>
   </si>
   <si>
-    <t>51499445</t>
-  </si>
-  <si>
-    <t>10-08-2021</t>
-  </si>
-  <si>
-    <t>$472.52</t>
-  </si>
-  <si>
-    <t>FCBTXA1000153</t>
-  </si>
-  <si>
-    <t>51499447</t>
-  </si>
-  <si>
-    <t>51499545</t>
-  </si>
-  <si>
     <t>$473.82</t>
   </si>
   <si>
-    <t>FCBTXA1000155</t>
-  </si>
-  <si>
-    <t>51499548</t>
-  </si>
-  <si>
-    <t>51499549</t>
-  </si>
-  <si>
-    <t>$918.14</t>
-  </si>
-  <si>
-    <t>FCT895984969740976128</t>
-  </si>
-  <si>
-    <t>CEV1002823</t>
-  </si>
-  <si>
     <t>51499551</t>
   </si>
   <si>
-    <t>51499552</t>
-  </si>
-  <si>
     <t>$1,047.07</t>
   </si>
   <si>
-    <t>FCT895987768319016960</t>
-  </si>
-  <si>
-    <t>CEV1002825</t>
-  </si>
-  <si>
     <t>51499554</t>
   </si>
   <si>
-    <t>51499555</t>
-  </si>
-  <si>
     <t>$2,586.92</t>
   </si>
   <si>
-    <t>FCT895990605350436864</t>
-  </si>
-  <si>
-    <t>CEV1002827</t>
-  </si>
-  <si>
-    <t>51499557</t>
-  </si>
-  <si>
-    <t>51499558</t>
-  </si>
-  <si>
-    <t>FCT895993706627203072</t>
-  </si>
-  <si>
-    <t>CEV1002829</t>
-  </si>
-  <si>
-    <t>51499560</t>
-  </si>
-  <si>
-    <t>51499561</t>
-  </si>
-  <si>
     <t>$1,062.07</t>
   </si>
   <si>
-    <t>FCT895996686067826688</t>
-  </si>
-  <si>
-    <t>CEV1002831</t>
-  </si>
-  <si>
-    <t>51499563</t>
-  </si>
-  <si>
-    <t>51499564</t>
-  </si>
-  <si>
     <t>$575.48</t>
   </si>
   <si>
-    <t>FCT895999267062153216</t>
-  </si>
-  <si>
-    <t>CEV1002833</t>
-  </si>
-  <si>
     <t>51499566</t>
   </si>
   <si>
-    <t>51499567</t>
-  </si>
-  <si>
     <t>$60.46</t>
   </si>
   <si>
-    <t>1Z44R7R60399094938</t>
-  </si>
-  <si>
-    <t>FCUPSG1011070</t>
-  </si>
-  <si>
-    <t>51499569</t>
-  </si>
-  <si>
-    <t>51499570</t>
-  </si>
-  <si>
     <t>$76.66</t>
   </si>
   <si>
-    <t>1Z44R7R60395553154</t>
-  </si>
-  <si>
-    <t>FCUPSG1011072</t>
-  </si>
-  <si>
-    <t>51499572</t>
-  </si>
-  <si>
-    <t>51499573</t>
-  </si>
-  <si>
     <t>$170.38</t>
   </si>
   <si>
-    <t>1Z44R7R60393778595</t>
-  </si>
-  <si>
-    <t>FCUPSG1011074</t>
-  </si>
-  <si>
-    <t>51499575</t>
-  </si>
-  <si>
-    <t>51499576</t>
-  </si>
-  <si>
     <t>$97.31</t>
   </si>
   <si>
-    <t>1Z44R7R6YW99212178</t>
-  </si>
-  <si>
-    <t>FCUPSG1011076</t>
-  </si>
-  <si>
-    <t>51499578</t>
-  </si>
-  <si>
-    <t>51499581</t>
-  </si>
-  <si>
     <t>$120.18</t>
   </si>
   <si>
-    <t>1Z44R7R6YW97951981</t>
-  </si>
-  <si>
-    <t>FCUPSG1011078</t>
-  </si>
-  <si>
-    <t>51499583</t>
-  </si>
-  <si>
-    <t>51499647</t>
-  </si>
-  <si>
     <t>10-11-2021</t>
   </si>
   <si>
-    <t>FCBTXA1000157</t>
-  </si>
-  <si>
-    <t>51499649</t>
-  </si>
-  <si>
-    <t>51499650</t>
-  </si>
-  <si>
-    <t>FCT897085507316482048</t>
-  </si>
-  <si>
-    <t>CEV1002841</t>
-  </si>
-  <si>
     <t>51499653</t>
   </si>
   <si>
@@ -923,9 +578,6 @@
     <t>FCUPSG1011081</t>
   </si>
   <si>
-    <t>51499670</t>
-  </si>
-  <si>
     <t>51499671</t>
   </si>
   <si>
@@ -974,16 +626,583 @@
     <t>51499682</t>
   </si>
   <si>
-    <t>51500029</t>
-  </si>
-  <si>
     <t>10-14-2021</t>
   </si>
   <si>
-    <t>FCBTXA1000168</t>
-  </si>
-  <si>
     <t>51500196</t>
+  </si>
+  <si>
+    <t>51500391</t>
+  </si>
+  <si>
+    <t>51500392</t>
+  </si>
+  <si>
+    <t>10-21-2021</t>
+  </si>
+  <si>
+    <t>$952.83</t>
+  </si>
+  <si>
+    <t>FCT900621801166471168</t>
+  </si>
+  <si>
+    <t>CEV1002898</t>
+  </si>
+  <si>
+    <t>FCBTXA1000174</t>
+  </si>
+  <si>
+    <t>51500395</t>
+  </si>
+  <si>
+    <t>51500399</t>
+  </si>
+  <si>
+    <t>$1,086.98</t>
+  </si>
+  <si>
+    <t>FCT900624345443860480</t>
+  </si>
+  <si>
+    <t>CEV1002899</t>
+  </si>
+  <si>
+    <t>51500407</t>
+  </si>
+  <si>
+    <t>$2,686.05</t>
+  </si>
+  <si>
+    <t>FCT900626943311872000</t>
+  </si>
+  <si>
+    <t>CEV1002900</t>
+  </si>
+  <si>
+    <t>51500413</t>
+  </si>
+  <si>
+    <t>51500415</t>
+  </si>
+  <si>
+    <t>FCT900629959217774592</t>
+  </si>
+  <si>
+    <t>CEV1002902</t>
+  </si>
+  <si>
+    <t>51500419</t>
+  </si>
+  <si>
+    <t>51500423</t>
+  </si>
+  <si>
+    <t>$1,101.98</t>
+  </si>
+  <si>
+    <t>FCT900632712589606912</t>
+  </si>
+  <si>
+    <t>CEV1002904</t>
+  </si>
+  <si>
+    <t>51500430</t>
+  </si>
+  <si>
+    <t>51500437</t>
+  </si>
+  <si>
+    <t>$597.25</t>
+  </si>
+  <si>
+    <t>FCT900635055716564992</t>
+  </si>
+  <si>
+    <t>CEV1002907</t>
+  </si>
+  <si>
+    <t>51500454</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397974179</t>
+  </si>
+  <si>
+    <t>FCUPSG1011132</t>
+  </si>
+  <si>
+    <t>51500466</t>
+  </si>
+  <si>
+    <t>51500473</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396178255</t>
+  </si>
+  <si>
+    <t>FCUPSG1011134</t>
+  </si>
+  <si>
+    <t>51500476</t>
+  </si>
+  <si>
+    <t>51500481</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399972328</t>
+  </si>
+  <si>
+    <t>FCUPSG1011136</t>
+  </si>
+  <si>
+    <t>51500489</t>
+  </si>
+  <si>
+    <t>51500491</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99480405</t>
+  </si>
+  <si>
+    <t>FCUPSG1011138</t>
+  </si>
+  <si>
+    <t>51500494</t>
+  </si>
+  <si>
+    <t>51500495</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97752811</t>
+  </si>
+  <si>
+    <t>FCUPSG1011140</t>
+  </si>
+  <si>
+    <t>51500497</t>
+  </si>
+  <si>
+    <t>51500747</t>
+  </si>
+  <si>
+    <t>10-24-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000176</t>
+  </si>
+  <si>
+    <t>51500749</t>
+  </si>
+  <si>
+    <t>51500750</t>
+  </si>
+  <si>
+    <t>FCT901725350122225664</t>
+  </si>
+  <si>
+    <t>CEV1002915</t>
+  </si>
+  <si>
+    <t>51500753</t>
+  </si>
+  <si>
+    <t>FCT901727997579493376</t>
+  </si>
+  <si>
+    <t>CEV1002916</t>
+  </si>
+  <si>
+    <t>51500756</t>
+  </si>
+  <si>
+    <t>FCT901730661549735936</t>
+  </si>
+  <si>
+    <t>CEV1002917</t>
+  </si>
+  <si>
+    <t>51500758</t>
+  </si>
+  <si>
+    <t>51500759</t>
+  </si>
+  <si>
+    <t>FCT901733782845915136</t>
+  </si>
+  <si>
+    <t>CEV1002919</t>
+  </si>
+  <si>
+    <t>51500761</t>
+  </si>
+  <si>
+    <t>51500762</t>
+  </si>
+  <si>
+    <t>FCT901736641662550016</t>
+  </si>
+  <si>
+    <t>CEV1002921</t>
+  </si>
+  <si>
+    <t>51500764</t>
+  </si>
+  <si>
+    <t>51500765</t>
+  </si>
+  <si>
+    <t>FCT901739215157460992</t>
+  </si>
+  <si>
+    <t>CEV1002923</t>
+  </si>
+  <si>
+    <t>51500768</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393387516</t>
+  </si>
+  <si>
+    <t>FCUPSG1011142</t>
+  </si>
+  <si>
+    <t>51500770</t>
+  </si>
+  <si>
+    <t>51500771</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394095535</t>
+  </si>
+  <si>
+    <t>FCUPSG1011144</t>
+  </si>
+  <si>
+    <t>51500773</t>
+  </si>
+  <si>
+    <t>51500774</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394184359</t>
+  </si>
+  <si>
+    <t>FCUPSG1011146</t>
+  </si>
+  <si>
+    <t>51500776</t>
+  </si>
+  <si>
+    <t>51500777</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW91285971</t>
+  </si>
+  <si>
+    <t>FCUPSG1011148</t>
+  </si>
+  <si>
+    <t>51500779</t>
+  </si>
+  <si>
+    <t>51500780</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW94312391</t>
+  </si>
+  <si>
+    <t>FCUPSG1011150</t>
+  </si>
+  <si>
+    <t>51500782</t>
+  </si>
+  <si>
+    <t>51500857</t>
+  </si>
+  <si>
+    <t>10-26-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000178</t>
+  </si>
+  <si>
+    <t>51500859</t>
+  </si>
+  <si>
+    <t>51500860</t>
+  </si>
+  <si>
+    <t>FCT902471456439402496</t>
+  </si>
+  <si>
+    <t>CEV1002930</t>
+  </si>
+  <si>
+    <t>51500865</t>
+  </si>
+  <si>
+    <t>FCT902473839647129600</t>
+  </si>
+  <si>
+    <t>CEV1002931</t>
+  </si>
+  <si>
+    <t>51500872</t>
+  </si>
+  <si>
+    <t>FCT902476432574251008</t>
+  </si>
+  <si>
+    <t>CEV1002933</t>
+  </si>
+  <si>
+    <t>51500875</t>
+  </si>
+  <si>
+    <t>51500876</t>
+  </si>
+  <si>
+    <t>FCT902479437189087232</t>
+  </si>
+  <si>
+    <t>CEV1002935</t>
+  </si>
+  <si>
+    <t>51500878</t>
+  </si>
+  <si>
+    <t>51500879</t>
+  </si>
+  <si>
+    <t>FCT902482204779610112</t>
+  </si>
+  <si>
+    <t>CEV1002937</t>
+  </si>
+  <si>
+    <t>51500881</t>
+  </si>
+  <si>
+    <t>51500882</t>
+  </si>
+  <si>
+    <t>FCT902484692907851776</t>
+  </si>
+  <si>
+    <t>CEV1002939</t>
+  </si>
+  <si>
+    <t>51500885</t>
+  </si>
+  <si>
+    <t>$60.58</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398473664</t>
+  </si>
+  <si>
+    <t>FCUPSG1011156</t>
+  </si>
+  <si>
+    <t>51500887</t>
+  </si>
+  <si>
+    <t>51500888</t>
+  </si>
+  <si>
+    <t>$76.83</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396029086</t>
+  </si>
+  <si>
+    <t>FCUPSG1011158</t>
+  </si>
+  <si>
+    <t>51500890</t>
+  </si>
+  <si>
+    <t>51500891</t>
+  </si>
+  <si>
+    <t>$170.71</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392088976</t>
+  </si>
+  <si>
+    <t>FCUPSG1011160</t>
+  </si>
+  <si>
+    <t>51500893</t>
+  </si>
+  <si>
+    <t>51500894</t>
+  </si>
+  <si>
+    <t>$97.51</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97393307</t>
+  </si>
+  <si>
+    <t>FCUPSG1011162</t>
+  </si>
+  <si>
+    <t>51500896</t>
+  </si>
+  <si>
+    <t>51500897</t>
+  </si>
+  <si>
+    <t>$120.43</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW96101132</t>
+  </si>
+  <si>
+    <t>FCUPSG1011164</t>
+  </si>
+  <si>
+    <t>51500899</t>
+  </si>
+  <si>
+    <t>51501108</t>
+  </si>
+  <si>
+    <t>10-28-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000184</t>
+  </si>
+  <si>
+    <t>51501111</t>
+  </si>
+  <si>
+    <t>$1,195.62</t>
+  </si>
+  <si>
+    <t>FCT903286258602606592</t>
+  </si>
+  <si>
+    <t>CEV1002957</t>
+  </si>
+  <si>
+    <t>51501114</t>
+  </si>
+  <si>
+    <t>$1,366.31</t>
+  </si>
+  <si>
+    <t>FCT903288882680823808</t>
+  </si>
+  <si>
+    <t>CEV1002958</t>
+  </si>
+  <si>
+    <t>51501116</t>
+  </si>
+  <si>
+    <t>$3,379.96</t>
+  </si>
+  <si>
+    <t>FCT903291306204200960</t>
+  </si>
+  <si>
+    <t>CEV1002959</t>
+  </si>
+  <si>
+    <t>51501118</t>
+  </si>
+  <si>
+    <t>51501119</t>
+  </si>
+  <si>
+    <t>FCT903294415345287168</t>
+  </si>
+  <si>
+    <t>CEV1002961</t>
+  </si>
+  <si>
+    <t>51501121</t>
+  </si>
+  <si>
+    <t>51501122</t>
+  </si>
+  <si>
+    <t>$1,381.31</t>
+  </si>
+  <si>
+    <t>FCT903297385818488832</t>
+  </si>
+  <si>
+    <t>CEV1002963</t>
+  </si>
+  <si>
+    <t>51501124</t>
+  </si>
+  <si>
+    <t>51501125</t>
+  </si>
+  <si>
+    <t>$749.62</t>
+  </si>
+  <si>
+    <t>FCT903299952141139968</t>
+  </si>
+  <si>
+    <t>CEV1002965</t>
+  </si>
+  <si>
+    <t>51501128</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391763112</t>
+  </si>
+  <si>
+    <t>FCUPSG1011174</t>
+  </si>
+  <si>
+    <t>51501131</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391333283</t>
+  </si>
+  <si>
+    <t>FCUPSG1011175</t>
+  </si>
+  <si>
+    <t>51501133</t>
+  </si>
+  <si>
+    <t>51501134</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391680158</t>
+  </si>
+  <si>
+    <t>FCUPSG1011177</t>
+  </si>
+  <si>
+    <t>51501137</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW94554246</t>
+  </si>
+  <si>
+    <t>FCUPSG1011178</t>
+  </si>
+  <si>
+    <t>51501140</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93857662</t>
+  </si>
+  <si>
+    <t>FCUPSG1011179</t>
+  </si>
+  <si>
+    <t>51501142</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="384">
+  <fills count="600">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2936,8 +3155,1088 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="377">
+  <borders count="596">
     <border>
       <left/>
       <right/>
@@ -3720,6 +5019,795 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <top style="thin"/>
     </border>
     <border>
@@ -4798,7 +6886,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="349">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4809,237 +6897,345 @@
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="8" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="9" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="10" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="11" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="12" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="13" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="14" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="15" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="16" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="17" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="18" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="19" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="20" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="21" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="22" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="23" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="24" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="25" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="26" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="27" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="28" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="29" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="30" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="31" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="32" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="33" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="34" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="35" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="36" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="37" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="38" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="39" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="40" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="41" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="42" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="43" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="44" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="45" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="46" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="47" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="48" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="49" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="50" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="51" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="52" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="53" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="54" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="55" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="56" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="57" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="58" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="59" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="60" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="61" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="62" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="63" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="64" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="65" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="66" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="67" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="68" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="69" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="70" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="72" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="74" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="76" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="78" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="80" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="82" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="84" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="86" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="88" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="90" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="92" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="94" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="96" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="98" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="100" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="102" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="104" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="106" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="108" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="110" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="112" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="114" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="116" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="118" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="120" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="122" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="124" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="126" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="128" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="130" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="132" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="134" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="136" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="138" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="140" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="142" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="144" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="146" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="148" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="150" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="152" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="154" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="156" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="158" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="160" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="162" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="164" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="166" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="168" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="170" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="172" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="174" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="176" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="178" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="180" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="182" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="184" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="186" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="188" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="190" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="192" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="194" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="196" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="198" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="200" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="202" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="204" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="206" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="208" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="210" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="212" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="214" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="216" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="218" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="220" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="222" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="224" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="226" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="228" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="230" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="232" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="234" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="236" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="238" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="240" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="242" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="244" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="246" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="248" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="250" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="252" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="254" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="256" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="258" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="260" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="262" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="264" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="266" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="268" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="270" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="272" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="274" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="276" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="278" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="280" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="282" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="284" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="286" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="288" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="290" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="292" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="294" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="296" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="298" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="300" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="302" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="304" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="306" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="308" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="310" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="312" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="314" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="316" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="318" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="320" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="322" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="324" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="326" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="328" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="330" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="332" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="334" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="336" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="338" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="340" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="342" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="344" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="346" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="348" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="350" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="352" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="354" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="356" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="358" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="360" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="362" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="364" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="366" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="368" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="370" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="372" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="374" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="383" borderId="376" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="9" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="12" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="13" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="14" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="15" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="16" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="17" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="18" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="19" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="20" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="21" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="22" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="23" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="24" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="25" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="26" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="27" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="28" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="29" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="30" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="31" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="32" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="33" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="34" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="35" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="37" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="38" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="39" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="40" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="53" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="55" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="58" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="59" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="63" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="64" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="65" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="66" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="67" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="68" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="69" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="70" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="71" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="72" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="73" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="66" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="283" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="287" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="291" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="295" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="299" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="303" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="307" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="311" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="315" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="319" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="323" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="327" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="331" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="335" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="339" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="343" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="347" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="351" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="355" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="359" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="361" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="363" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="365" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="367" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="369" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="371" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="373" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="375" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="377" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="379" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="381" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="383" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="385" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="387" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="389" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="391" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="393" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="395" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="397" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="399" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="401" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="403" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="405" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="407" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="409" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="411" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="413" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="415" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="417" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="419" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="421" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="423" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="425" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="427" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="429" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="431" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="433" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="435" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="437" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="439" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="441" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="443" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="445" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="447" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="449" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="451" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="453" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="455" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="457" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="459" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="461" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="463" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="465" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="467" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="469" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="471" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="473" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="475" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="477" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="479" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="481" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="483" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="485" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="487" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="489" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="491" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="493" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="495" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="499" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="501" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="503" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="505" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="507" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="509" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="511" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="513" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="515" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="517" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="519" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="521" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="523" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="525" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="527" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="529" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="531" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="533" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="535" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="537" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="539" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="541" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="543" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="545" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="547" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="549" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="551" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="553" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="555" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="557" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="589" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="591" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="593" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="599" borderId="595" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5331,25 +7527,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>32</v>
@@ -5360,28 +7556,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>34</v>
@@ -5543,8 +7739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5596,7 +7792,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -5605,13 +7801,13 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>8</v>
@@ -5643,58 +7839,58 @@
       <c r="U1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="X1" s="12" t="s">
+      <c r="W1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>94</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="236" t="s">
-        <v>316</v>
+      <c r="B2" s="285" t="s">
+        <v>347</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -5731,31 +7927,31 @@
         <v>17</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="235" t="s">
-        <v>315</v>
-      </c>
-      <c r="W2" s="171" t="s">
-        <v>273</v>
-      </c>
-      <c r="X2" s="237" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y2" s="238" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z2" s="239" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA2" s="87" t="s">
-        <v>206</v>
+      <c r="V2" s="284" t="s">
+        <v>346</v>
+      </c>
+      <c r="W2" s="220" t="s">
+        <v>299</v>
+      </c>
+      <c r="X2" s="286" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="287" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z2" s="288" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -5775,25 +7971,25 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="173" t="s">
-        <v>271</v>
+      <c r="B3" s="290" t="s">
+        <v>347</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>15</v>
@@ -5826,23 +8022,23 @@
       <c r="T3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="172" t="s">
-        <v>274</v>
-      </c>
-      <c r="W3" s="105" t="s">
-        <v>220</v>
-      </c>
-      <c r="X3" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y3" s="175" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z3" s="176" t="s">
-        <v>276</v>
+      <c r="V3" s="289" t="s">
+        <v>349</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X3" s="291" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y3" s="292" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z3" s="293" t="s">
+        <v>352</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -5861,7 +8057,7 @@
       </c>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>78</v>
@@ -5871,8 +8067,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="178" t="s">
-        <v>271</v>
+      <c r="B4" s="295" t="s">
+        <v>347</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -5920,23 +8116,23 @@
       <c r="T4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="177" t="s">
-        <v>277</v>
-      </c>
-      <c r="W4" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="X4" s="179" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y4" s="180" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z4" s="181" t="s">
-        <v>279</v>
+      <c r="V4" s="294" t="s">
+        <v>353</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X4" s="296" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y4" s="297" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z4" s="298" t="s">
+        <v>356</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -5953,7 +8149,7 @@
       </c>
       <c r="AF4" s="5"/>
       <c r="AG4" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>78</v>
@@ -5963,8 +8159,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="183" t="s">
-        <v>271</v>
+      <c r="B5" s="300" t="s">
+        <v>347</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -5974,14 +8170,14 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>15</v>
@@ -5992,7 +8188,7 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>84</v>
@@ -6012,44 +8208,44 @@
       <c r="T5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="182" t="s">
-        <v>280</v>
-      </c>
-      <c r="W5" s="187" t="s">
-        <v>283</v>
-      </c>
-      <c r="X5" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y5" s="185" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z5" s="186" t="s">
-        <v>282</v>
+      <c r="V5" s="299" t="s">
+        <v>357</v>
+      </c>
+      <c r="W5" s="304" t="s">
+        <v>361</v>
+      </c>
+      <c r="X5" s="301" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y5" s="302" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z5" s="303" t="s">
+        <v>360</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>79</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AF5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH5" s="5" t="s">
         <v>78</v>
@@ -6059,8 +8255,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="189" t="s">
-        <v>271</v>
+      <c r="B6" s="306" t="s">
+        <v>347</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -6070,14 +8266,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>15</v>
@@ -6111,20 +8307,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="188" t="s">
-        <v>284</v>
-      </c>
-      <c r="W6" s="193" t="s">
-        <v>287</v>
-      </c>
-      <c r="X6" s="190" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y6" s="191" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z6" s="192" t="s">
-        <v>286</v>
+      <c r="V6" s="305" t="s">
+        <v>362</v>
+      </c>
+      <c r="W6" s="310" t="s">
+        <v>365</v>
+      </c>
+      <c r="X6" s="307" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y6" s="308" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z6" s="309" t="s">
+        <v>364</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -6133,7 +8329,7 @@
         <v>80</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5" t="s">
@@ -6141,7 +8337,7 @@
       </c>
       <c r="AF6" s="5"/>
       <c r="AG6" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AH6" s="5" t="s">
         <v>78</v>
@@ -6151,8 +8347,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="195" t="s">
-        <v>271</v>
+      <c r="B7" s="312" t="s">
+        <v>347</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -6183,7 +8379,7 @@
         <v>85</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>84</v>
@@ -6195,26 +8391,26 @@
         <v>17</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="194" t="s">
-        <v>288</v>
-      </c>
-      <c r="W7" s="199" t="s">
-        <v>291</v>
-      </c>
-      <c r="X7" s="196" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y7" s="197" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z7" s="198" t="s">
-        <v>290</v>
+      <c r="V7" s="311" t="s">
+        <v>366</v>
+      </c>
+      <c r="W7" s="316" t="s">
+        <v>370</v>
+      </c>
+      <c r="X7" s="313" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y7" s="314" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z7" s="315" t="s">
+        <v>369</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -6223,7 +8419,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="2" t="s">
@@ -6237,8 +8433,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="201" t="s">
-        <v>271</v>
+      <c r="B8" s="318" t="s">
+        <v>347</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -6289,20 +8485,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="200" t="s">
-        <v>292</v>
-      </c>
-      <c r="W8" s="135" t="s">
-        <v>244</v>
-      </c>
-      <c r="X8" s="202" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y8" s="203" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z8" s="204" t="s">
-        <v>294</v>
+      <c r="V8" s="317" t="s">
+        <v>371</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X8" s="319" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y8" s="320" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z8" s="321" t="s">
+        <v>374</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -6319,7 +8515,7 @@
       </c>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AH8" s="5" t="s">
         <v>78</v>
@@ -6329,14 +8525,14 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="206" t="s">
-        <v>271</v>
+      <c r="B9" s="323" t="s">
+        <v>347</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>23</v>
@@ -6381,23 +8577,23 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="205" t="s">
-        <v>295</v>
-      </c>
-      <c r="W9" s="240" t="s">
-        <v>318</v>
-      </c>
-      <c r="X9" s="207" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y9" s="208" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z9" s="209" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>155</v>
+      <c r="V9" s="322" t="s">
+        <v>375</v>
+      </c>
+      <c r="W9" s="259" t="s">
+        <v>325</v>
+      </c>
+      <c r="X9" s="324" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y9" s="325" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z9" s="326" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -6415,8 +8611,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="212" t="s">
-        <v>271</v>
+      <c r="B10" s="328" t="s">
+        <v>347</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -6444,44 +8640,44 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="16" t="s">
-        <v>151</v>
+      <c r="Q10" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="R10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="211" t="s">
-        <v>299</v>
-      </c>
-      <c r="W10" s="216" t="s">
-        <v>302</v>
-      </c>
-      <c r="X10" s="213" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y10" s="214" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z10" s="215" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA10" s="17" t="s">
-        <v>155</v>
+      <c r="V10" s="327" t="s">
+        <v>378</v>
+      </c>
+      <c r="W10" s="332" t="s">
+        <v>381</v>
+      </c>
+      <c r="X10" s="329" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y10" s="330" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z10" s="331" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -6497,8 +8693,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="218" t="s">
-        <v>271</v>
+      <c r="B11" s="334" t="s">
+        <v>347</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -6538,7 +8734,7 @@
         <v>91</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>74</v>
@@ -6549,23 +8745,23 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="217" t="s">
-        <v>303</v>
-      </c>
-      <c r="W11" s="222" t="s">
-        <v>306</v>
-      </c>
-      <c r="X11" s="219" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y11" s="220" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z11" s="221" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA11" s="17" t="s">
-        <v>155</v>
+      <c r="V11" s="333" t="s">
+        <v>382</v>
+      </c>
+      <c r="W11" s="271" t="s">
+        <v>335</v>
+      </c>
+      <c r="X11" s="335" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y11" s="336" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z11" s="337" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -6583,8 +8779,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="224" t="s">
-        <v>271</v>
+      <c r="B12" s="339" t="s">
+        <v>347</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -6594,14 +8790,14 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>25</v>
@@ -6635,23 +8831,23 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="223" t="s">
-        <v>307</v>
-      </c>
-      <c r="W12" s="228" t="s">
-        <v>310</v>
-      </c>
-      <c r="X12" s="225" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y12" s="226" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z12" s="227" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA12" s="17" t="s">
-        <v>110</v>
+      <c r="V12" s="338" t="s">
+        <v>385</v>
+      </c>
+      <c r="W12" s="277" t="s">
+        <v>340</v>
+      </c>
+      <c r="X12" s="340" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y12" s="341" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z12" s="342" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>30</v>
@@ -6669,25 +8865,25 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="230" t="s">
-        <v>271</v>
+      <c r="B13" s="344" t="s">
+        <v>347</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>25</v>
@@ -6698,44 +8894,44 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q13" s="16" t="s">
-        <v>151</v>
+      <c r="Q13" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="R13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="229" t="s">
-        <v>311</v>
-      </c>
-      <c r="W13" s="234" t="s">
-        <v>314</v>
-      </c>
-      <c r="X13" s="231" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y13" s="232" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z13" s="233" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA13" s="17" t="s">
-        <v>110</v>
+      <c r="V13" s="343" t="s">
+        <v>388</v>
+      </c>
+      <c r="W13" s="348" t="s">
+        <v>391</v>
+      </c>
+      <c r="X13" s="345" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y13" s="346" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z13" s="347" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{204A7601-E9A0-4142-BEDD-3F1638B6FAE9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{633CD00C-4044-4699-8A27-90285A4C9521}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="257">
   <si>
     <t>shipmentType</t>
   </si>
@@ -479,730 +479,325 @@
     <t>51499551</t>
   </si>
   <si>
-    <t>$1,047.07</t>
-  </si>
-  <si>
     <t>51499554</t>
   </si>
   <si>
-    <t>$2,586.92</t>
-  </si>
-  <si>
-    <t>$1,062.07</t>
-  </si>
-  <si>
-    <t>$575.48</t>
-  </si>
-  <si>
     <t>51499566</t>
   </si>
   <si>
-    <t>$60.46</t>
-  </si>
-  <si>
-    <t>$76.66</t>
-  </si>
-  <si>
-    <t>$170.38</t>
-  </si>
-  <si>
-    <t>$97.31</t>
-  </si>
-  <si>
-    <t>$120.18</t>
-  </si>
-  <si>
-    <t>10-11-2021</t>
-  </si>
-  <si>
-    <t>51499653</t>
-  </si>
-  <si>
-    <t>FCT897087894819176448</t>
-  </si>
-  <si>
-    <t>CEV1002842</t>
-  </si>
-  <si>
-    <t>51499656</t>
-  </si>
-  <si>
-    <t>FCT897090325405761536</t>
-  </si>
-  <si>
-    <t>CEV1002843</t>
-  </si>
-  <si>
-    <t>51499658</t>
-  </si>
-  <si>
-    <t>51499659</t>
-  </si>
-  <si>
-    <t>FCT897093225750200320</t>
-  </si>
-  <si>
-    <t>CEV1002845</t>
-  </si>
-  <si>
-    <t>51499661</t>
-  </si>
-  <si>
-    <t>51499662</t>
-  </si>
-  <si>
-    <t>FCT897096076819955712</t>
-  </si>
-  <si>
-    <t>CEV1002847</t>
-  </si>
-  <si>
-    <t>51499664</t>
-  </si>
-  <si>
-    <t>51499665</t>
-  </si>
-  <si>
-    <t>FCT897098607889481728</t>
-  </si>
-  <si>
-    <t>CEV1002849</t>
-  </si>
-  <si>
-    <t>51499668</t>
-  </si>
-  <si>
-    <t>1Z44R7R60391240454</t>
-  </si>
-  <si>
-    <t>FCUPSG1011081</t>
-  </si>
-  <si>
-    <t>51499671</t>
-  </si>
-  <si>
-    <t>1Z44R7R60396354895</t>
-  </si>
-  <si>
-    <t>FCUPSG1011083</t>
-  </si>
-  <si>
-    <t>51499673</t>
-  </si>
-  <si>
-    <t>51499674</t>
-  </si>
-  <si>
-    <t>1Z44R7R60393189669</t>
-  </si>
-  <si>
-    <t>FCUPSG1011085</t>
-  </si>
-  <si>
-    <t>51499676</t>
-  </si>
-  <si>
-    <t>51499677</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW96276936</t>
-  </si>
-  <si>
-    <t>FCUPSG1011087</t>
-  </si>
-  <si>
-    <t>51499679</t>
-  </si>
-  <si>
-    <t>51499680</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW92537769</t>
-  </si>
-  <si>
-    <t>FCUPSG1011089</t>
-  </si>
-  <si>
-    <t>51499682</t>
-  </si>
-  <si>
-    <t>10-14-2021</t>
-  </si>
-  <si>
-    <t>51500196</t>
-  </si>
-  <si>
-    <t>51500391</t>
-  </si>
-  <si>
-    <t>51500392</t>
-  </si>
-  <si>
-    <t>10-21-2021</t>
-  </si>
-  <si>
-    <t>$952.83</t>
-  </si>
-  <si>
-    <t>FCT900621801166471168</t>
-  </si>
-  <si>
-    <t>CEV1002898</t>
-  </si>
-  <si>
-    <t>FCBTXA1000174</t>
-  </si>
-  <si>
-    <t>51500395</t>
-  </si>
-  <si>
-    <t>51500399</t>
-  </si>
-  <si>
-    <t>$1,086.98</t>
-  </si>
-  <si>
-    <t>FCT900624345443860480</t>
-  </si>
-  <si>
-    <t>CEV1002899</t>
-  </si>
-  <si>
-    <t>51500407</t>
-  </si>
-  <si>
-    <t>$2,686.05</t>
-  </si>
-  <si>
-    <t>FCT900626943311872000</t>
-  </si>
-  <si>
-    <t>CEV1002900</t>
-  </si>
-  <si>
-    <t>51500413</t>
-  </si>
-  <si>
-    <t>51500415</t>
-  </si>
-  <si>
-    <t>FCT900629959217774592</t>
-  </si>
-  <si>
-    <t>CEV1002902</t>
-  </si>
-  <si>
-    <t>51500419</t>
-  </si>
-  <si>
-    <t>51500423</t>
-  </si>
-  <si>
-    <t>$1,101.98</t>
-  </si>
-  <si>
-    <t>FCT900632712589606912</t>
-  </si>
-  <si>
-    <t>CEV1002904</t>
-  </si>
-  <si>
-    <t>51500430</t>
-  </si>
-  <si>
-    <t>51500437</t>
-  </si>
-  <si>
-    <t>$597.25</t>
-  </si>
-  <si>
-    <t>FCT900635055716564992</t>
-  </si>
-  <si>
-    <t>CEV1002907</t>
-  </si>
-  <si>
-    <t>51500454</t>
-  </si>
-  <si>
-    <t>1Z44R7R60397974179</t>
-  </si>
-  <si>
-    <t>FCUPSG1011132</t>
-  </si>
-  <si>
-    <t>51500466</t>
-  </si>
-  <si>
-    <t>51500473</t>
-  </si>
-  <si>
-    <t>1Z44R7R60396178255</t>
-  </si>
-  <si>
-    <t>FCUPSG1011134</t>
-  </si>
-  <si>
-    <t>51500476</t>
-  </si>
-  <si>
-    <t>51500481</t>
-  </si>
-  <si>
-    <t>1Z44R7R60399972328</t>
-  </si>
-  <si>
-    <t>FCUPSG1011136</t>
-  </si>
-  <si>
-    <t>51500489</t>
-  </si>
-  <si>
-    <t>51500491</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW99480405</t>
-  </si>
-  <si>
-    <t>FCUPSG1011138</t>
-  </si>
-  <si>
-    <t>51500494</t>
-  </si>
-  <si>
-    <t>51500495</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW97752811</t>
-  </si>
-  <si>
-    <t>FCUPSG1011140</t>
-  </si>
-  <si>
-    <t>51500497</t>
-  </si>
-  <si>
-    <t>51500747</t>
-  </si>
-  <si>
-    <t>10-24-2021</t>
-  </si>
-  <si>
-    <t>FCBTXA1000176</t>
-  </si>
-  <si>
-    <t>51500749</t>
-  </si>
-  <si>
-    <t>51500750</t>
-  </si>
-  <si>
-    <t>FCT901725350122225664</t>
-  </si>
-  <si>
-    <t>CEV1002915</t>
-  </si>
-  <si>
-    <t>51500753</t>
-  </si>
-  <si>
-    <t>FCT901727997579493376</t>
-  </si>
-  <si>
-    <t>CEV1002916</t>
-  </si>
-  <si>
-    <t>51500756</t>
-  </si>
-  <si>
-    <t>FCT901730661549735936</t>
-  </si>
-  <si>
-    <t>CEV1002917</t>
-  </si>
-  <si>
-    <t>51500758</t>
-  </si>
-  <si>
-    <t>51500759</t>
-  </si>
-  <si>
-    <t>FCT901733782845915136</t>
-  </si>
-  <si>
-    <t>CEV1002919</t>
-  </si>
-  <si>
-    <t>51500761</t>
-  </si>
-  <si>
-    <t>51500762</t>
-  </si>
-  <si>
-    <t>FCT901736641662550016</t>
-  </si>
-  <si>
-    <t>CEV1002921</t>
-  </si>
-  <si>
-    <t>51500764</t>
-  </si>
-  <si>
-    <t>51500765</t>
-  </si>
-  <si>
-    <t>FCT901739215157460992</t>
-  </si>
-  <si>
-    <t>CEV1002923</t>
-  </si>
-  <si>
-    <t>51500768</t>
-  </si>
-  <si>
-    <t>1Z44R7R60393387516</t>
-  </si>
-  <si>
-    <t>FCUPSG1011142</t>
-  </si>
-  <si>
-    <t>51500770</t>
-  </si>
-  <si>
-    <t>51500771</t>
-  </si>
-  <si>
-    <t>1Z44R7R60394095535</t>
-  </si>
-  <si>
-    <t>FCUPSG1011144</t>
-  </si>
-  <si>
-    <t>51500773</t>
-  </si>
-  <si>
-    <t>51500774</t>
-  </si>
-  <si>
-    <t>1Z44R7R60394184359</t>
-  </si>
-  <si>
-    <t>FCUPSG1011146</t>
-  </si>
-  <si>
-    <t>51500776</t>
-  </si>
-  <si>
-    <t>51500777</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW91285971</t>
-  </si>
-  <si>
-    <t>FCUPSG1011148</t>
-  </si>
-  <si>
-    <t>51500779</t>
-  </si>
-  <si>
-    <t>51500780</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW94312391</t>
-  </si>
-  <si>
-    <t>FCUPSG1011150</t>
-  </si>
-  <si>
-    <t>51500782</t>
-  </si>
-  <si>
-    <t>51500857</t>
-  </si>
-  <si>
-    <t>10-26-2021</t>
-  </si>
-  <si>
-    <t>FCBTXA1000178</t>
-  </si>
-  <si>
     <t>51500859</t>
   </si>
   <si>
-    <t>51500860</t>
-  </si>
-  <si>
-    <t>FCT902471456439402496</t>
-  </si>
-  <si>
-    <t>CEV1002930</t>
-  </si>
-  <si>
-    <t>51500865</t>
-  </si>
-  <si>
-    <t>FCT902473839647129600</t>
-  </si>
-  <si>
-    <t>CEV1002931</t>
-  </si>
-  <si>
-    <t>51500872</t>
-  </si>
-  <si>
-    <t>FCT902476432574251008</t>
-  </si>
-  <si>
-    <t>CEV1002933</t>
-  </si>
-  <si>
-    <t>51500875</t>
-  </si>
-  <si>
-    <t>51500876</t>
-  </si>
-  <si>
-    <t>FCT902479437189087232</t>
-  </si>
-  <si>
-    <t>CEV1002935</t>
-  </si>
-  <si>
-    <t>51500878</t>
-  </si>
-  <si>
-    <t>51500879</t>
-  </si>
-  <si>
-    <t>FCT902482204779610112</t>
-  </si>
-  <si>
-    <t>CEV1002937</t>
-  </si>
-  <si>
-    <t>51500881</t>
-  </si>
-  <si>
-    <t>51500882</t>
-  </si>
-  <si>
-    <t>FCT902484692907851776</t>
-  </si>
-  <si>
-    <t>CEV1002939</t>
-  </si>
-  <si>
-    <t>51500885</t>
-  </si>
-  <si>
-    <t>$60.58</t>
-  </si>
-  <si>
-    <t>1Z44R7R60398473664</t>
-  </si>
-  <si>
-    <t>FCUPSG1011156</t>
-  </si>
-  <si>
     <t>51500887</t>
   </si>
   <si>
-    <t>51500888</t>
-  </si>
-  <si>
-    <t>$76.83</t>
-  </si>
-  <si>
-    <t>1Z44R7R60396029086</t>
-  </si>
-  <si>
-    <t>FCUPSG1011158</t>
-  </si>
-  <si>
-    <t>51500890</t>
-  </si>
-  <si>
-    <t>51500891</t>
-  </si>
-  <si>
-    <t>$170.71</t>
-  </si>
-  <si>
-    <t>1Z44R7R60392088976</t>
-  </si>
-  <si>
-    <t>FCUPSG1011160</t>
-  </si>
-  <si>
     <t>51500893</t>
   </si>
   <si>
-    <t>51500894</t>
-  </si>
-  <si>
-    <t>$97.51</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW97393307</t>
-  </si>
-  <si>
-    <t>FCUPSG1011162</t>
-  </si>
-  <si>
     <t>51500896</t>
   </si>
   <si>
-    <t>51500897</t>
-  </si>
-  <si>
-    <t>$120.43</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW96101132</t>
-  </si>
-  <si>
-    <t>FCUPSG1011164</t>
-  </si>
-  <si>
-    <t>51500899</t>
-  </si>
-  <si>
-    <t>51501108</t>
-  </si>
-  <si>
-    <t>10-28-2021</t>
-  </si>
-  <si>
-    <t>FCBTXA1000184</t>
-  </si>
-  <si>
-    <t>51501111</t>
-  </si>
-  <si>
     <t>$1,195.62</t>
   </si>
   <si>
-    <t>FCT903286258602606592</t>
-  </si>
-  <si>
-    <t>CEV1002957</t>
-  </si>
-  <si>
-    <t>51501114</t>
-  </si>
-  <si>
     <t>$1,366.31</t>
   </si>
   <si>
-    <t>FCT903288882680823808</t>
-  </si>
-  <si>
-    <t>CEV1002958</t>
-  </si>
-  <si>
-    <t>51501116</t>
-  </si>
-  <si>
     <t>$3,379.96</t>
   </si>
   <si>
-    <t>FCT903291306204200960</t>
-  </si>
-  <si>
-    <t>CEV1002959</t>
-  </si>
-  <si>
-    <t>51501118</t>
-  </si>
-  <si>
-    <t>51501119</t>
-  </si>
-  <si>
-    <t>FCT903294415345287168</t>
-  </si>
-  <si>
-    <t>CEV1002961</t>
-  </si>
-  <si>
-    <t>51501121</t>
-  </si>
-  <si>
-    <t>51501122</t>
-  </si>
-  <si>
     <t>$1,381.31</t>
   </si>
   <si>
-    <t>FCT903297385818488832</t>
-  </si>
-  <si>
-    <t>CEV1002963</t>
-  </si>
-  <si>
-    <t>51501124</t>
-  </si>
-  <si>
-    <t>51501125</t>
-  </si>
-  <si>
     <t>$749.62</t>
   </si>
   <si>
-    <t>FCT903299952141139968</t>
-  </si>
-  <si>
-    <t>CEV1002965</t>
-  </si>
-  <si>
-    <t>51501128</t>
-  </si>
-  <si>
-    <t>1Z44R7R60391763112</t>
-  </si>
-  <si>
-    <t>FCUPSG1011174</t>
-  </si>
-  <si>
-    <t>51501131</t>
-  </si>
-  <si>
-    <t>1Z44R7R60391333283</t>
-  </si>
-  <si>
-    <t>FCUPSG1011175</t>
-  </si>
-  <si>
-    <t>51501133</t>
-  </si>
-  <si>
-    <t>51501134</t>
-  </si>
-  <si>
-    <t>1Z44R7R60391680158</t>
-  </si>
-  <si>
-    <t>FCUPSG1011177</t>
-  </si>
-  <si>
-    <t>51501137</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW94554246</t>
-  </si>
-  <si>
-    <t>FCUPSG1011178</t>
-  </si>
-  <si>
-    <t>51501140</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW93857662</t>
-  </si>
-  <si>
-    <t>FCUPSG1011179</t>
-  </si>
-  <si>
-    <t>51501142</t>
+    <t>$60.72</t>
+  </si>
+  <si>
+    <t>$77.00</t>
+  </si>
+  <si>
+    <t>$171.06</t>
+  </si>
+  <si>
+    <t>$97.72</t>
+  </si>
+  <si>
+    <t>$120.68</t>
+  </si>
+  <si>
+    <t>51502056</t>
+  </si>
+  <si>
+    <t>51502152</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000234</t>
+  </si>
+  <si>
+    <t>51502170</t>
+  </si>
+  <si>
+    <t>FCT904646037459697664</t>
+  </si>
+  <si>
+    <t>CEV1003027</t>
+  </si>
+  <si>
+    <t>51502173</t>
+  </si>
+  <si>
+    <t>FCT904648624829366272</t>
+  </si>
+  <si>
+    <t>CEV1003028</t>
+  </si>
+  <si>
+    <t>51502178</t>
+  </si>
+  <si>
+    <t>51502181</t>
+  </si>
+  <si>
+    <t>FCT904651638722002944</t>
+  </si>
+  <si>
+    <t>CEV1003034</t>
+  </si>
+  <si>
+    <t>51502186</t>
+  </si>
+  <si>
+    <t>FCT904653966518779904</t>
+  </si>
+  <si>
+    <t>CEV1003036</t>
+  </si>
+  <si>
+    <t>51502188</t>
+  </si>
+  <si>
+    <t>51502189</t>
+  </si>
+  <si>
+    <t>FCT904656633232097280</t>
+  </si>
+  <si>
+    <t>CEV1003038</t>
+  </si>
+  <si>
+    <t>51502195</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394104659</t>
+  </si>
+  <si>
+    <t>FCUPSG1011220</t>
+  </si>
+  <si>
+    <t>51502197</t>
+  </si>
+  <si>
+    <t>51502204</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW92597865</t>
+  </si>
+  <si>
+    <t>FCUPSG1011224</t>
+  </si>
+  <si>
+    <t>51502206</t>
+  </si>
+  <si>
+    <t>51502857</t>
+  </si>
+  <si>
+    <t>11-03-2021</t>
+  </si>
+  <si>
+    <t>FCT905386125399425024</t>
+  </si>
+  <si>
+    <t>CEV1003072</t>
+  </si>
+  <si>
+    <t>51502861</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391735732</t>
+  </si>
+  <si>
+    <t>FCUPSG1011241</t>
+  </si>
+  <si>
+    <t>51502864</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397977701</t>
+  </si>
+  <si>
+    <t>FCUPSG1011242</t>
+  </si>
+  <si>
+    <t>51502867</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW92174544</t>
+  </si>
+  <si>
+    <t>FCUPSG1011243</t>
+  </si>
+  <si>
+    <t>51502887</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396876116</t>
+  </si>
+  <si>
+    <t>FCUPSG1011245</t>
+  </si>
+  <si>
+    <t>51503404</t>
+  </si>
+  <si>
+    <t>11-07-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000249</t>
+  </si>
+  <si>
+    <t>51503407</t>
+  </si>
+  <si>
+    <t>FCT906825435759771648</t>
+  </si>
+  <si>
+    <t>CEV1003083</t>
+  </si>
+  <si>
+    <t>51503410</t>
+  </si>
+  <si>
+    <t>FCT906828154578927616</t>
+  </si>
+  <si>
+    <t>CEV1003084</t>
+  </si>
+  <si>
+    <t>51503413</t>
+  </si>
+  <si>
+    <t>FCT906831008060407808</t>
+  </si>
+  <si>
+    <t>CEV1003085</t>
+  </si>
+  <si>
+    <t>51503415</t>
+  </si>
+  <si>
+    <t>51503416</t>
+  </si>
+  <si>
+    <t>FCT906834262374744064</t>
+  </si>
+  <si>
+    <t>CEV1003087</t>
+  </si>
+  <si>
+    <t>51503418</t>
+  </si>
+  <si>
+    <t>51503419</t>
+  </si>
+  <si>
+    <t>FCT906837421478379520</t>
+  </si>
+  <si>
+    <t>CEV1003089</t>
+  </si>
+  <si>
+    <t>51503421</t>
+  </si>
+  <si>
+    <t>51503422</t>
+  </si>
+  <si>
+    <t>FCT906840286188011520</t>
+  </si>
+  <si>
+    <t>CEV1003091</t>
+  </si>
+  <si>
+    <t>51503424</t>
+  </si>
+  <si>
+    <t>$61.21</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395927107</t>
+  </si>
+  <si>
+    <t>FCUPSG1011258</t>
+  </si>
+  <si>
+    <t>51503427</t>
+  </si>
+  <si>
+    <t>$77.61</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397853513</t>
+  </si>
+  <si>
+    <t>FCUPSG1011259</t>
+  </si>
+  <si>
+    <t>51503429</t>
+  </si>
+  <si>
+    <t>51503430</t>
+  </si>
+  <si>
+    <t>$172.47</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391333818</t>
+  </si>
+  <si>
+    <t>FCUPSG1011261</t>
+  </si>
+  <si>
+    <t>51503433</t>
+  </si>
+  <si>
+    <t>$98.51</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99462934</t>
+  </si>
+  <si>
+    <t>FCUPSG1011262</t>
+  </si>
+  <si>
+    <t>51503436</t>
+  </si>
+  <si>
+    <t>$121.65</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99433948</t>
+  </si>
+  <si>
+    <t>FCUPSG1011263</t>
+  </si>
+  <si>
+    <t>51503438</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +833,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="600">
+  <fills count="218">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2325,1918 +1920,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="596">
+  <borders count="214">
     <border>
       <left/>
       <right/>
@@ -5050,1343 +2735,6 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -6886,7 +3234,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6963,6 +3311,7 @@
     <xf applyBorder="1" applyFill="1" borderId="59" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="60" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="61" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="63" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="64" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="65" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
@@ -6974,7 +3323,6 @@
     <xf applyBorder="1" applyFill="1" borderId="71" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="72" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="73" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="62" fillId="66" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="75" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="77" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="79" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
@@ -7044,198 +3392,7 @@
     <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="281" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="283" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="285" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="287" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="289" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="291" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="293" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="295" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="297" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="299" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="301" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="303" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="305" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="307" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="309" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="311" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="313" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="315" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="317" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="319" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="321" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="323" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="325" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="327" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="329" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="331" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="333" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="335" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="337" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="339" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="341" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="343" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="345" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="347" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="349" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="351" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="353" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="355" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="357" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="359" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="361" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="363" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="365" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="367" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="369" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="371" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="373" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="375" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="377" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="379" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="381" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="383" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="385" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="387" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="389" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="391" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="393" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="395" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="397" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="399" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="401" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="403" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="405" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="407" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="409" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="411" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="413" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="415" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="417" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="419" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="421" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="423" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="425" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="427" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="429" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="431" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="433" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="435" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="437" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="439" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="441" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="443" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="445" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="447" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="449" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="451" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="453" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="455" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="457" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="459" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="461" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="463" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="465" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="467" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="469" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="471" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="473" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="475" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="477" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="479" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="481" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="483" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="485" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="487" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="489" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="491" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="493" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="495" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="499" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="501" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="503" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="505" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="507" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="509" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="511" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="513" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="515" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="517" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="519" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="521" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="523" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="525" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="527" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="529" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="531" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="533" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="535" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="537" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="539" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="541" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="543" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="545" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="547" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="549" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="551" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="553" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="555" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="557" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="559" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="561" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="563" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="565" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="567" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="569" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="571" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="575" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="577" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="579" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="581" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="583" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="585" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="587" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="589" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="591" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="593" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="599" borderId="595" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="213" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7740,7 +3897,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7883,8 +4040,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="285" t="s">
-        <v>347</v>
+      <c r="B2" s="94" t="s">
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -7935,20 +4092,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="284" t="s">
-        <v>346</v>
-      </c>
-      <c r="W2" s="220" t="s">
-        <v>299</v>
-      </c>
-      <c r="X2" s="286" t="s">
+      <c r="V2" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="X2" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="Y2" s="287" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z2" s="288" t="s">
-        <v>348</v>
+      <c r="Y2" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z2" s="97" t="s">
+        <v>213</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>147</v>
@@ -7971,8 +4128,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="290" t="s">
-        <v>347</v>
+      <c r="B3" s="99" t="s">
+        <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -7996,10 +4153,10 @@
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>84</v>
@@ -8025,29 +4182,29 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="289" t="s">
-        <v>349</v>
+      <c r="V3" s="98" t="s">
+        <v>214</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="X3" s="291" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y3" s="292" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z3" s="293" t="s">
-        <v>352</v>
+      <c r="X3" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y3" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z3" s="102" t="s">
+        <v>216</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AB3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>79</v>
@@ -8067,8 +4224,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="295" t="s">
-        <v>347</v>
+      <c r="B4" s="104" t="s">
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -8119,20 +4276,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="294" t="s">
-        <v>353</v>
+      <c r="V4" s="103" t="s">
+        <v>217</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="X4" s="296" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y4" s="297" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z4" s="298" t="s">
-        <v>356</v>
+        <v>150</v>
+      </c>
+      <c r="X4" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z4" s="107" t="s">
+        <v>219</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -8159,8 +4316,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="300" t="s">
-        <v>347</v>
+      <c r="B5" s="109" t="s">
+        <v>212</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -8211,20 +4368,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="299" t="s">
-        <v>357</v>
-      </c>
-      <c r="W5" s="304" t="s">
-        <v>361</v>
-      </c>
-      <c r="X5" s="301" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y5" s="302" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z5" s="303" t="s">
-        <v>360</v>
+      <c r="V5" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="W5" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="X5" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y5" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z5" s="112" t="s">
+        <v>222</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -8255,8 +4412,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="306" t="s">
-        <v>347</v>
+      <c r="B6" s="115" t="s">
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -8307,20 +4464,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="305" t="s">
-        <v>362</v>
-      </c>
-      <c r="W6" s="310" t="s">
-        <v>365</v>
-      </c>
-      <c r="X6" s="307" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y6" s="308" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z6" s="309" t="s">
-        <v>364</v>
+      <c r="V6" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="W6" s="119" t="s">
+        <v>227</v>
+      </c>
+      <c r="X6" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y6" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z6" s="118" t="s">
+        <v>226</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -8347,8 +4504,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="312" t="s">
-        <v>347</v>
+      <c r="B7" s="121" t="s">
+        <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -8397,20 +4554,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="311" t="s">
-        <v>366</v>
-      </c>
-      <c r="W7" s="316" t="s">
-        <v>370</v>
-      </c>
-      <c r="X7" s="313" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y7" s="314" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z7" s="315" t="s">
-        <v>369</v>
+      <c r="V7" s="120" t="s">
+        <v>228</v>
+      </c>
+      <c r="W7" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="X7" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z7" s="124" t="s">
+        <v>230</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -8433,8 +4590,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="318" t="s">
-        <v>347</v>
+      <c r="B8" s="127" t="s">
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -8485,20 +4642,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="317" t="s">
-        <v>371</v>
+      <c r="V8" s="126" t="s">
+        <v>232</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="X8" s="319" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y8" s="320" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z8" s="321" t="s">
-        <v>374</v>
+        <v>151</v>
+      </c>
+      <c r="X8" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y8" s="129" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z8" s="130" t="s">
+        <v>234</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -8525,8 +4682,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="323" t="s">
-        <v>347</v>
+      <c r="B9" s="132" t="s">
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -8577,20 +4734,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="322" t="s">
-        <v>375</v>
-      </c>
-      <c r="W9" s="259" t="s">
-        <v>325</v>
-      </c>
-      <c r="X9" s="324" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y9" s="325" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z9" s="326" t="s">
-        <v>377</v>
+      <c r="V9" s="131" t="s">
+        <v>235</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="X9" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y9" s="134" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z9" s="135" t="s">
+        <v>238</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -8611,8 +4768,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="328" t="s">
-        <v>347</v>
+      <c r="B10" s="137" t="s">
+        <v>212</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -8661,20 +4818,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="327" t="s">
-        <v>378</v>
-      </c>
-      <c r="W10" s="332" t="s">
-        <v>381</v>
-      </c>
-      <c r="X10" s="329" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y10" s="330" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z10" s="331" t="s">
-        <v>380</v>
+      <c r="V10" s="136" t="s">
+        <v>239</v>
+      </c>
+      <c r="W10" s="141" t="s">
+        <v>243</v>
+      </c>
+      <c r="X10" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y10" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z10" s="140" t="s">
+        <v>242</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>146</v>
@@ -8693,8 +4850,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="334" t="s">
-        <v>347</v>
+      <c r="B11" s="143" t="s">
+        <v>212</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -8745,20 +4902,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="333" t="s">
-        <v>382</v>
-      </c>
-      <c r="W11" s="271" t="s">
-        <v>335</v>
-      </c>
-      <c r="X11" s="335" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y11" s="336" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z11" s="337" t="s">
-        <v>384</v>
+      <c r="V11" s="142" t="s">
+        <v>244</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="X11" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y11" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z11" s="146" t="s">
+        <v>247</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>
@@ -8779,8 +4936,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="339" t="s">
-        <v>347</v>
+      <c r="B12" s="148" t="s">
+        <v>212</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -8831,20 +4988,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="338" t="s">
-        <v>385</v>
-      </c>
-      <c r="W12" s="277" t="s">
-        <v>340</v>
-      </c>
-      <c r="X12" s="340" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y12" s="341" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z12" s="342" t="s">
-        <v>387</v>
+      <c r="V12" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="W12" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="X12" s="149" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y12" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z12" s="151" t="s">
+        <v>251</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -8865,8 +5022,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="344" t="s">
-        <v>347</v>
+      <c r="B13" s="153" t="s">
+        <v>212</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -8915,20 +5072,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="343" t="s">
-        <v>388</v>
-      </c>
-      <c r="W13" s="348" t="s">
-        <v>391</v>
-      </c>
-      <c r="X13" s="345" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y13" s="346" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z13" s="347" t="s">
-        <v>390</v>
+      <c r="V13" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="W13" s="157" t="s">
+        <v>256</v>
+      </c>
+      <c r="X13" s="154" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y13" s="155" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z13" s="156" t="s">
+        <v>255</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="299">
   <si>
     <t>shipmentType</t>
   </si>
@@ -798,6 +798,132 @@
   </si>
   <si>
     <t>51503438</t>
+  </si>
+  <si>
+    <t>51518324</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>FCT907503708986671104</t>
+  </si>
+  <si>
+    <t>CEV1003115</t>
+  </si>
+  <si>
+    <t>51518340</t>
+  </si>
+  <si>
+    <t>FCT907517883800616960</t>
+  </si>
+  <si>
+    <t>CEV1003116</t>
+  </si>
+  <si>
+    <t>51518343</t>
+  </si>
+  <si>
+    <t>FCT907520988739010560</t>
+  </si>
+  <si>
+    <t>CEV1003117</t>
+  </si>
+  <si>
+    <t>51518346</t>
+  </si>
+  <si>
+    <t>FCT907524282773405696</t>
+  </si>
+  <si>
+    <t>CEV1003118</t>
+  </si>
+  <si>
+    <t>51518348</t>
+  </si>
+  <si>
+    <t>51518349</t>
+  </si>
+  <si>
+    <t>FCT907528297275981824</t>
+  </si>
+  <si>
+    <t>CEV1003120</t>
+  </si>
+  <si>
+    <t>51518351</t>
+  </si>
+  <si>
+    <t>51518352</t>
+  </si>
+  <si>
+    <t>FCT907531761905303552</t>
+  </si>
+  <si>
+    <t>CEV1003122</t>
+  </si>
+  <si>
+    <t>51518354</t>
+  </si>
+  <si>
+    <t>51518355</t>
+  </si>
+  <si>
+    <t>FCT907534964537425920</t>
+  </si>
+  <si>
+    <t>CEV1003124</t>
+  </si>
+  <si>
+    <t>51518358</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399046258</t>
+  </si>
+  <si>
+    <t>FCUPSG1011273</t>
+  </si>
+  <si>
+    <t>51518362</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398995663</t>
+  </si>
+  <si>
+    <t>FCUPSG1011274</t>
+  </si>
+  <si>
+    <t>51518364</t>
+  </si>
+  <si>
+    <t>51518366</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399631080</t>
+  </si>
+  <si>
+    <t>FCUPSG1011276</t>
+  </si>
+  <si>
+    <t>51518369</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97005093</t>
+  </si>
+  <si>
+    <t>FCUPSG1011277</t>
+  </si>
+  <si>
+    <t>51518372</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93905583</t>
+  </si>
+  <si>
+    <t>FCUPSG1011278</t>
+  </si>
+  <si>
+    <t>51518374</t>
   </si>
 </sst>
 </file>
@@ -833,7 +959,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="218">
+  <fills count="348">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1920,8 +2046,658 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="214">
+  <borders count="344">
     <border>
       <left/>
       <right/>
@@ -2735,6 +3511,461 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -3234,7 +4465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="223">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3392,7 +4623,72 @@
     <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="217" borderId="213" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="283" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="287" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="291" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="295" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="299" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="303" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="307" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="311" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="315" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="319" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="323" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="327" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="331" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="335" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="339" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="347" borderId="343" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4128,8 +5424,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="99" t="s">
-        <v>212</v>
+      <c r="B3" s="164" t="s">
+        <v>258</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -4182,20 +5478,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="98" t="s">
-        <v>214</v>
+      <c r="V3" s="163" t="s">
+        <v>261</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="X3" s="100" t="s">
+      <c r="X3" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="Y3" s="101" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z3" s="102" t="s">
-        <v>216</v>
+      <c r="Y3" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z3" s="167" t="s">
+        <v>263</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -4224,8 +5520,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="104" t="s">
-        <v>212</v>
+      <c r="B4" s="169" t="s">
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -4276,20 +5572,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="103" t="s">
-        <v>217</v>
+      <c r="V4" s="168" t="s">
+        <v>264</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="X4" s="105" t="s">
+      <c r="X4" s="170" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z4" s="107" t="s">
-        <v>219</v>
+      <c r="Y4" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z4" s="172" t="s">
+        <v>266</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -4316,8 +5612,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>212</v>
+      <c r="B5" s="174" t="s">
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -4368,20 +5664,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="W5" s="113" t="s">
-        <v>223</v>
-      </c>
-      <c r="X5" s="110" t="s">
+      <c r="V5" s="173" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" s="178" t="s">
+        <v>270</v>
+      </c>
+      <c r="X5" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="Y5" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z5" s="112" t="s">
-        <v>222</v>
+      <c r="Y5" s="176" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z5" s="177" t="s">
+        <v>269</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -4412,8 +5708,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="115" t="s">
-        <v>212</v>
+      <c r="B6" s="180" t="s">
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -4464,20 +5760,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="W6" s="119" t="s">
-        <v>227</v>
-      </c>
-      <c r="X6" s="116" t="s">
+      <c r="V6" s="179" t="s">
+        <v>271</v>
+      </c>
+      <c r="W6" s="184" t="s">
+        <v>274</v>
+      </c>
+      <c r="X6" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="Y6" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z6" s="118" t="s">
-        <v>226</v>
+      <c r="Y6" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z6" s="183" t="s">
+        <v>273</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -4504,8 +5800,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="121" t="s">
-        <v>212</v>
+      <c r="B7" s="186" t="s">
+        <v>258</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -4554,20 +5850,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="120" t="s">
-        <v>228</v>
-      </c>
-      <c r="W7" s="125" t="s">
-        <v>231</v>
-      </c>
-      <c r="X7" s="122" t="s">
+      <c r="V7" s="185" t="s">
+        <v>275</v>
+      </c>
+      <c r="W7" s="190" t="s">
+        <v>278</v>
+      </c>
+      <c r="X7" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="123" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z7" s="124" t="s">
-        <v>230</v>
+      <c r="Y7" s="188" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z7" s="189" t="s">
+        <v>277</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -4590,8 +5886,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="127" t="s">
-        <v>212</v>
+      <c r="B8" s="192" t="s">
+        <v>258</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -4642,20 +5938,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="126" t="s">
-        <v>232</v>
+      <c r="V8" s="191" t="s">
+        <v>279</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" s="129" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z8" s="130" t="s">
-        <v>234</v>
+      <c r="Y8" s="194" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z8" s="195" t="s">
+        <v>281</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -4682,8 +5978,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="132" t="s">
-        <v>212</v>
+      <c r="B9" s="197" t="s">
+        <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -4734,20 +6030,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="131" t="s">
-        <v>235</v>
+      <c r="V9" s="196" t="s">
+        <v>282</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="198" t="s">
         <v>236</v>
       </c>
-      <c r="Y9" s="134" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z9" s="135" t="s">
-        <v>238</v>
+      <c r="Y9" s="199" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z9" s="200" t="s">
+        <v>284</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -4768,8 +6064,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="137" t="s">
-        <v>212</v>
+      <c r="B10" s="202" t="s">
+        <v>258</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -4818,20 +6114,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="136" t="s">
-        <v>239</v>
-      </c>
-      <c r="W10" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="X10" s="138" t="s">
+      <c r="V10" s="201" t="s">
+        <v>285</v>
+      </c>
+      <c r="W10" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="X10" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="Y10" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z10" s="140" t="s">
-        <v>242</v>
+      <c r="Y10" s="204" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z10" s="205" t="s">
+        <v>287</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>146</v>
@@ -4850,8 +6146,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="143" t="s">
-        <v>212</v>
+      <c r="B11" s="208" t="s">
+        <v>258</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -4902,20 +6198,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="142" t="s">
-        <v>244</v>
+      <c r="V11" s="207" t="s">
+        <v>289</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X11" s="144" t="s">
+      <c r="X11" s="209" t="s">
         <v>245</v>
       </c>
-      <c r="Y11" s="145" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z11" s="146" t="s">
-        <v>247</v>
+      <c r="Y11" s="210" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z11" s="211" t="s">
+        <v>291</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>
@@ -4936,8 +6232,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="148" t="s">
-        <v>212</v>
+      <c r="B12" s="213" t="s">
+        <v>258</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -4988,20 +6284,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="147" t="s">
-        <v>248</v>
+      <c r="V12" s="212" t="s">
+        <v>292</v>
       </c>
       <c r="W12" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="X12" s="149" t="s">
+      <c r="X12" s="214" t="s">
         <v>249</v>
       </c>
-      <c r="Y12" s="150" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z12" s="151" t="s">
-        <v>251</v>
+      <c r="Y12" s="215" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z12" s="216" t="s">
+        <v>294</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -5022,8 +6318,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="153" t="s">
-        <v>212</v>
+      <c r="B13" s="218" t="s">
+        <v>258</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -5072,20 +6368,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="152" t="s">
-        <v>252</v>
-      </c>
-      <c r="W13" s="157" t="s">
-        <v>256</v>
-      </c>
-      <c r="X13" s="154" t="s">
+      <c r="V13" s="217" t="s">
+        <v>295</v>
+      </c>
+      <c r="W13" s="222" t="s">
+        <v>298</v>
+      </c>
+      <c r="X13" s="219" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" s="155" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z13" s="156" t="s">
-        <v>255</v>
+      <c r="Y13" s="220" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z13" s="221" t="s">
+        <v>297</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{633CD00C-4044-4699-8A27-90285A4C9521}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{01F6188F-5A5C-40D0-B0EC-B89AE726E2D1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="225">
   <si>
     <t>shipmentType</t>
   </si>
@@ -512,156 +512,6 @@
     <t>$749.62</t>
   </si>
   <si>
-    <t>$60.72</t>
-  </si>
-  <si>
-    <t>$77.00</t>
-  </si>
-  <si>
-    <t>$171.06</t>
-  </si>
-  <si>
-    <t>$97.72</t>
-  </si>
-  <si>
-    <t>$120.68</t>
-  </si>
-  <si>
-    <t>51502056</t>
-  </si>
-  <si>
-    <t>51502152</t>
-  </si>
-  <si>
-    <t>11-01-2021</t>
-  </si>
-  <si>
-    <t>FCBTXA1000234</t>
-  </si>
-  <si>
-    <t>51502170</t>
-  </si>
-  <si>
-    <t>FCT904646037459697664</t>
-  </si>
-  <si>
-    <t>CEV1003027</t>
-  </si>
-  <si>
-    <t>51502173</t>
-  </si>
-  <si>
-    <t>FCT904648624829366272</t>
-  </si>
-  <si>
-    <t>CEV1003028</t>
-  </si>
-  <si>
-    <t>51502178</t>
-  </si>
-  <si>
-    <t>51502181</t>
-  </si>
-  <si>
-    <t>FCT904651638722002944</t>
-  </si>
-  <si>
-    <t>CEV1003034</t>
-  </si>
-  <si>
-    <t>51502186</t>
-  </si>
-  <si>
-    <t>FCT904653966518779904</t>
-  </si>
-  <si>
-    <t>CEV1003036</t>
-  </si>
-  <si>
-    <t>51502188</t>
-  </si>
-  <si>
-    <t>51502189</t>
-  </si>
-  <si>
-    <t>FCT904656633232097280</t>
-  </si>
-  <si>
-    <t>CEV1003038</t>
-  </si>
-  <si>
-    <t>51502195</t>
-  </si>
-  <si>
-    <t>1Z44R7R60394104659</t>
-  </si>
-  <si>
-    <t>FCUPSG1011220</t>
-  </si>
-  <si>
-    <t>51502197</t>
-  </si>
-  <si>
-    <t>51502204</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW92597865</t>
-  </si>
-  <si>
-    <t>FCUPSG1011224</t>
-  </si>
-  <si>
-    <t>51502206</t>
-  </si>
-  <si>
-    <t>51502857</t>
-  </si>
-  <si>
-    <t>11-03-2021</t>
-  </si>
-  <si>
-    <t>FCT905386125399425024</t>
-  </si>
-  <si>
-    <t>CEV1003072</t>
-  </si>
-  <si>
-    <t>51502861</t>
-  </si>
-  <si>
-    <t>1Z44R7R60391735732</t>
-  </si>
-  <si>
-    <t>FCUPSG1011241</t>
-  </si>
-  <si>
-    <t>51502864</t>
-  </si>
-  <si>
-    <t>1Z44R7R60397977701</t>
-  </si>
-  <si>
-    <t>FCUPSG1011242</t>
-  </si>
-  <si>
-    <t>51502867</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW92174544</t>
-  </si>
-  <si>
-    <t>FCUPSG1011243</t>
-  </si>
-  <si>
-    <t>51502887</t>
-  </si>
-  <si>
-    <t>1Z44R7R60396876116</t>
-  </si>
-  <si>
-    <t>FCUPSG1011245</t>
-  </si>
-  <si>
     <t>51503404</t>
   </si>
   <si>
@@ -671,147 +521,24 @@
     <t>FCBTXA1000249</t>
   </si>
   <si>
-    <t>51503407</t>
-  </si>
-  <si>
-    <t>FCT906825435759771648</t>
-  </si>
-  <si>
-    <t>CEV1003083</t>
-  </si>
-  <si>
-    <t>51503410</t>
-  </si>
-  <si>
-    <t>FCT906828154578927616</t>
-  </si>
-  <si>
-    <t>CEV1003084</t>
-  </si>
-  <si>
-    <t>51503413</t>
-  </si>
-  <si>
-    <t>FCT906831008060407808</t>
-  </si>
-  <si>
-    <t>CEV1003085</t>
-  </si>
-  <si>
-    <t>51503415</t>
-  </si>
-  <si>
-    <t>51503416</t>
-  </si>
-  <si>
-    <t>FCT906834262374744064</t>
-  </si>
-  <si>
-    <t>CEV1003087</t>
-  </si>
-  <si>
-    <t>51503418</t>
-  </si>
-  <si>
-    <t>51503419</t>
-  </si>
-  <si>
-    <t>FCT906837421478379520</t>
-  </si>
-  <si>
-    <t>CEV1003089</t>
-  </si>
-  <si>
-    <t>51503421</t>
-  </si>
-  <si>
-    <t>51503422</t>
-  </si>
-  <si>
-    <t>FCT906840286188011520</t>
-  </si>
-  <si>
-    <t>CEV1003091</t>
-  </si>
-  <si>
-    <t>51503424</t>
-  </si>
-  <si>
     <t>$61.21</t>
   </si>
   <si>
-    <t>1Z44R7R60395927107</t>
-  </si>
-  <si>
-    <t>FCUPSG1011258</t>
-  </si>
-  <si>
-    <t>51503427</t>
-  </si>
-  <si>
     <t>$77.61</t>
   </si>
   <si>
-    <t>1Z44R7R60397853513</t>
-  </si>
-  <si>
-    <t>FCUPSG1011259</t>
-  </si>
-  <si>
-    <t>51503429</t>
-  </si>
-  <si>
-    <t>51503430</t>
-  </si>
-  <si>
     <t>$172.47</t>
   </si>
   <si>
-    <t>1Z44R7R60391333818</t>
-  </si>
-  <si>
-    <t>FCUPSG1011261</t>
-  </si>
-  <si>
-    <t>51503433</t>
-  </si>
-  <si>
     <t>$98.51</t>
   </si>
   <si>
-    <t>1Z44R7R6YW99462934</t>
-  </si>
-  <si>
-    <t>FCUPSG1011262</t>
-  </si>
-  <si>
-    <t>51503436</t>
-  </si>
-  <si>
     <t>$121.65</t>
   </si>
   <si>
-    <t>1Z44R7R6YW99433948</t>
-  </si>
-  <si>
-    <t>FCUPSG1011263</t>
-  </si>
-  <si>
-    <t>51503438</t>
-  </si>
-  <si>
-    <t>51518324</t>
-  </si>
-  <si>
     <t>11-09-2021</t>
   </si>
   <si>
-    <t>FCT907503708986671104</t>
-  </si>
-  <si>
-    <t>CEV1003115</t>
-  </si>
-  <si>
     <t>51518340</t>
   </si>
   <si>
@@ -924,6 +651,57 @@
   </si>
   <si>
     <t>51518374</t>
+  </si>
+  <si>
+    <t>51521253</t>
+  </si>
+  <si>
+    <t>11-17-2021</t>
+  </si>
+  <si>
+    <t>FCT910399825269227520</t>
+  </si>
+  <si>
+    <t>CEV1003201</t>
+  </si>
+  <si>
+    <t>51521258</t>
+  </si>
+  <si>
+    <t>51521264</t>
+  </si>
+  <si>
+    <t>FCT910405422207205376</t>
+  </si>
+  <si>
+    <t>CEV1003203</t>
+  </si>
+  <si>
+    <t>51521267</t>
+  </si>
+  <si>
+    <t>51521270</t>
+  </si>
+  <si>
+    <t>$78.26</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395723783</t>
+  </si>
+  <si>
+    <t>FCUPSG1011385</t>
+  </si>
+  <si>
+    <t>51521276</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398271793</t>
+  </si>
+  <si>
+    <t>FCUPSG1011386</t>
+  </si>
+  <si>
+    <t>51521278</t>
   </si>
 </sst>
 </file>
@@ -959,7 +737,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="348">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,1128 +1354,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="344">
+  <borders count="120">
     <border>
       <left/>
       <right/>
@@ -3511,790 +2169,6 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -4465,7 +2339,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4576,119 +2450,7 @@
     <xf applyBorder="true" applyFill="true" borderId="113" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="115" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="117" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="119" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="121" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="123" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="125" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="135" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="137" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="139" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="141" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="143" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="145" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="147" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="149" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="151" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="153" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="155" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="157" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="159" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="161" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="163" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="165" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="167" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="169" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="171" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="173" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="175" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="177" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="179" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="181" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="183" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="185" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="187" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="189" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="191" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="193" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="195" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="197" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="199" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="201" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="203" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="205" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="281" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="283" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="285" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="287" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="289" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="291" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="293" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="295" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="297" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="299" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="301" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="303" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="305" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="307" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="309" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="311" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="313" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="315" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="317" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="319" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="321" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="323" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="325" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="327" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="329" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="331" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="333" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="335" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="337" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="339" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="341" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="347" borderId="343" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="119" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5192,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5336,8 +3098,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>212</v>
+      <c r="B2" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -5388,20 +3150,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="93" t="s">
-        <v>211</v>
+      <c r="V2" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="X2" s="95" t="s">
+      <c r="X2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="Y2" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z2" s="97" t="s">
-        <v>213</v>
+      <c r="Y2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>147</v>
@@ -5424,8 +3186,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="164" t="s">
-        <v>258</v>
+      <c r="B3" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -5478,20 +3240,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="163" t="s">
-        <v>261</v>
+      <c r="V3" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="X3" s="165" t="s">
+      <c r="X3" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="Y3" s="166" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z3" s="167" t="s">
-        <v>263</v>
+      <c r="Y3" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -5520,8 +3282,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="169" t="s">
-        <v>258</v>
+      <c r="B4" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -5572,20 +3334,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="168" t="s">
-        <v>264</v>
+      <c r="V4" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="X4" s="170" t="s">
+      <c r="X4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z4" s="172" t="s">
-        <v>266</v>
+      <c r="Y4" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z4" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -5612,8 +3374,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="174" t="s">
-        <v>258</v>
+      <c r="B5" s="39" t="s">
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -5664,20 +3426,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="173" t="s">
-        <v>267</v>
-      </c>
-      <c r="W5" s="178" t="s">
-        <v>270</v>
-      </c>
-      <c r="X5" s="175" t="s">
+      <c r="V5" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Y5" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z5" s="177" t="s">
-        <v>269</v>
+      <c r="Y5" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>178</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -5708,8 +3470,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="180" t="s">
-        <v>258</v>
+      <c r="B6" s="89" t="s">
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -5760,20 +3522,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="179" t="s">
-        <v>271</v>
-      </c>
-      <c r="W6" s="184" t="s">
-        <v>274</v>
-      </c>
-      <c r="X6" s="181" t="s">
+      <c r="V6" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="W6" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="X6" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="Y6" s="182" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z6" s="183" t="s">
-        <v>273</v>
+      <c r="Y6" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z6" s="92" t="s">
+        <v>211</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -5786,11 +3548,11 @@
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="AH6" s="5" t="s">
         <v>78</v>
@@ -5800,8 +3562,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="186" t="s">
-        <v>258</v>
+      <c r="B7" s="95" t="s">
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -5850,20 +3612,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="185" t="s">
-        <v>275</v>
-      </c>
-      <c r="W7" s="190" t="s">
-        <v>278</v>
-      </c>
-      <c r="X7" s="187" t="s">
+      <c r="V7" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="X7" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="188" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z7" s="189" t="s">
-        <v>277</v>
+      <c r="Y7" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z7" s="98" t="s">
+        <v>215</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -5872,11 +3634,11 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AH7" s="5" t="s">
         <v>78</v>
@@ -5886,8 +3648,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="192" t="s">
-        <v>258</v>
+      <c r="B8" s="57" t="s">
+        <v>169</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -5938,20 +3700,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="191" t="s">
-        <v>279</v>
+      <c r="V8" s="56" t="s">
+        <v>188</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="X8" s="193" t="s">
+      <c r="X8" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" s="194" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z8" s="195" t="s">
-        <v>281</v>
+      <c r="Y8" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z8" s="60" t="s">
+        <v>190</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -5978,8 +3740,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="197" t="s">
-        <v>258</v>
+      <c r="B9" s="62" t="s">
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -6030,20 +3792,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="196" t="s">
-        <v>282</v>
+      <c r="V9" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="X9" s="198" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y9" s="199" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z9" s="200" t="s">
-        <v>284</v>
+      <c r="X9" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y9" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z9" s="65" t="s">
+        <v>193</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -6064,8 +3826,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="202" t="s">
-        <v>258</v>
+      <c r="B10" s="106" t="s">
+        <v>209</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -6114,20 +3876,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="201" t="s">
-        <v>285</v>
-      </c>
-      <c r="W10" s="206" t="s">
-        <v>288</v>
-      </c>
-      <c r="X10" s="203" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y10" s="204" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z10" s="205" t="s">
-        <v>287</v>
+      <c r="V10" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="W10" s="110" t="s">
+        <v>224</v>
+      </c>
+      <c r="X10" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y10" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z10" s="109" t="s">
+        <v>223</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>146</v>
@@ -6146,8 +3908,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="208" t="s">
-        <v>258</v>
+      <c r="B11" s="73" t="s">
+        <v>169</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -6198,20 +3960,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="207" t="s">
-        <v>289</v>
+      <c r="V11" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X11" s="209" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y11" s="210" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z11" s="211" t="s">
-        <v>291</v>
+      <c r="X11" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y11" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>200</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>
@@ -6232,8 +3994,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="213" t="s">
-        <v>258</v>
+      <c r="B12" s="78" t="s">
+        <v>169</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -6284,20 +4046,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="212" t="s">
-        <v>292</v>
+      <c r="V12" s="77" t="s">
+        <v>201</v>
       </c>
       <c r="W12" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="X12" s="214" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y12" s="215" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z12" s="216" t="s">
-        <v>294</v>
+      <c r="X12" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y12" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z12" s="81" t="s">
+        <v>203</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -6318,8 +4080,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="218" t="s">
-        <v>258</v>
+      <c r="B13" s="83" t="s">
+        <v>169</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -6368,20 +4130,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="217" t="s">
-        <v>295</v>
-      </c>
-      <c r="W13" s="222" t="s">
-        <v>298</v>
-      </c>
-      <c r="X13" s="219" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y13" s="220" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z13" s="221" t="s">
-        <v>297</v>
+      <c r="V13" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="W13" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="X13" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y13" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z13" s="86" t="s">
+        <v>206</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="232">
   <si>
     <t>shipmentType</t>
   </si>
@@ -702,6 +702,27 @@
   </si>
   <si>
     <t>51521278</t>
+  </si>
+  <si>
+    <t>51521727</t>
+  </si>
+  <si>
+    <t>11-19-2021</t>
+  </si>
+  <si>
+    <t>FCT911121147427291136</t>
+  </si>
+  <si>
+    <t>CEV1003226</t>
+  </si>
+  <si>
+    <t>51521728</t>
+  </si>
+  <si>
+    <t>FCT911123245149716480</t>
+  </si>
+  <si>
+    <t>CEV1003227</t>
   </si>
 </sst>
 </file>
@@ -737,7 +758,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="124">
+  <fills count="144">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,8 +1375,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="120">
+  <borders count="140">
     <border>
       <left/>
       <right/>
@@ -2169,6 +2290,76 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2339,7 +2530,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2450,7 +2641,17 @@
     <xf applyBorder="true" applyFill="true" borderId="113" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="115" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="117" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="119" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="139" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3282,8 +3483,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>169</v>
+      <c r="B4" s="117" t="s">
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3334,20 +3535,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="33" t="s">
-        <v>173</v>
+      <c r="V4" s="116" t="s">
+        <v>229</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z4" s="37" t="s">
-        <v>175</v>
+      <c r="Y4" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z4" s="120" t="s">
+        <v>231</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="281">
   <si>
     <t>shipmentType</t>
   </si>
@@ -723,6 +723,153 @@
   </si>
   <si>
     <t>CEV1003227</t>
+  </si>
+  <si>
+    <t>51521916</t>
+  </si>
+  <si>
+    <t>11-24-2021</t>
+  </si>
+  <si>
+    <t>FCT912924924761341952</t>
+  </si>
+  <si>
+    <t>CEV1003247</t>
+  </si>
+  <si>
+    <t>51521917</t>
+  </si>
+  <si>
+    <t>FCT912939609137086464</t>
+  </si>
+  <si>
+    <t>CEV1003249</t>
+  </si>
+  <si>
+    <t>51521925</t>
+  </si>
+  <si>
+    <t>FCBTXA1000281</t>
+  </si>
+  <si>
+    <t>51521927</t>
+  </si>
+  <si>
+    <t>51521930</t>
+  </si>
+  <si>
+    <t>FCT912973653879029760</t>
+  </si>
+  <si>
+    <t>CEV1003250</t>
+  </si>
+  <si>
+    <t>51521936</t>
+  </si>
+  <si>
+    <t>FCT912976996311498752</t>
+  </si>
+  <si>
+    <t>CEV1003251</t>
+  </si>
+  <si>
+    <t>51521939</t>
+  </si>
+  <si>
+    <t>FCT912980491718623232</t>
+  </si>
+  <si>
+    <t>CEV1003252</t>
+  </si>
+  <si>
+    <t>51521941</t>
+  </si>
+  <si>
+    <t>51521945</t>
+  </si>
+  <si>
+    <t>51521946</t>
+  </si>
+  <si>
+    <t>FCT912989055820496896</t>
+  </si>
+  <si>
+    <t>CEV1003255</t>
+  </si>
+  <si>
+    <t>51521950</t>
+  </si>
+  <si>
+    <t>51521952</t>
+  </si>
+  <si>
+    <t>FCT912992463533113344</t>
+  </si>
+  <si>
+    <t>CEV1003258</t>
+  </si>
+  <si>
+    <t>51521955</t>
+  </si>
+  <si>
+    <t>$61.75</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391383014</t>
+  </si>
+  <si>
+    <t>FCUPSG1011480</t>
+  </si>
+  <si>
+    <t>51521958</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398804476</t>
+  </si>
+  <si>
+    <t>FCUPSG1011481</t>
+  </si>
+  <si>
+    <t>51521960</t>
+  </si>
+  <si>
+    <t>51521961</t>
+  </si>
+  <si>
+    <t>$173.82</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395948291</t>
+  </si>
+  <si>
+    <t>FCUPSG1011483</t>
+  </si>
+  <si>
+    <t>51521964</t>
+  </si>
+  <si>
+    <t>$99.35</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW98895522</t>
+  </si>
+  <si>
+    <t>FCUPSG1011484</t>
+  </si>
+  <si>
+    <t>51521967</t>
+  </si>
+  <si>
+    <t>$122.68</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99662334</t>
+  </si>
+  <si>
+    <t>FCUPSG1011485</t>
+  </si>
+  <si>
+    <t>51521969</t>
   </si>
 </sst>
 </file>
@@ -758,7 +905,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="144">
+  <fills count="286">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1475,8 +1622,718 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="140">
+  <borders count="282">
     <border>
       <left/>
       <right/>
@@ -2290,6 +3147,503 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2530,7 +3884,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="192">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2651,7 +4005,78 @@
     <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="135" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="137" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="139" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="285" borderId="281" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3299,8 +4724,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>162</v>
+      <c r="B2" s="132" t="s">
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3351,20 +4776,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="X2" s="25" t="s">
+      <c r="V2" s="131" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="X2" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="Y2" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>163</v>
+      <c r="Y2" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z2" s="135" t="s">
+        <v>240</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>147</v>
@@ -3387,8 +4812,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>169</v>
+      <c r="B3" s="138" t="s">
+        <v>233</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -3441,20 +4866,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="28" t="s">
-        <v>170</v>
+      <c r="V3" s="137" t="s">
+        <v>242</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="Y3" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>172</v>
+      <c r="Y3" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z3" s="141" t="s">
+        <v>244</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -3483,8 +4908,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="117" t="s">
-        <v>226</v>
+      <c r="B4" s="143" t="s">
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3535,20 +4960,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="116" t="s">
-        <v>229</v>
+      <c r="V4" s="142" t="s">
+        <v>245</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="X4" s="118" t="s">
+      <c r="X4" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="119" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z4" s="120" t="s">
-        <v>231</v>
+      <c r="Y4" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z4" s="146" t="s">
+        <v>247</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -3575,8 +5000,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>169</v>
+      <c r="B5" s="148" t="s">
+        <v>233</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -3627,20 +5052,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="W5" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="X5" s="40" t="s">
+      <c r="V5" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="W5" s="152" t="s">
+        <v>251</v>
+      </c>
+      <c r="X5" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="Y5" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z5" s="42" t="s">
-        <v>178</v>
+      <c r="Y5" s="150" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z5" s="151" t="s">
+        <v>250</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -3726,8 +5151,8 @@
       <c r="V6" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="W6" s="93" t="s">
-        <v>212</v>
+      <c r="W6" s="153" t="s">
+        <v>252</v>
       </c>
       <c r="X6" s="90" t="s">
         <v>157</v>
@@ -3763,8 +5188,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>209</v>
+      <c r="B7" s="155" t="s">
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -3813,20 +5238,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="94" t="s">
-        <v>213</v>
-      </c>
-      <c r="W7" s="99" t="s">
-        <v>216</v>
-      </c>
-      <c r="X7" s="96" t="s">
+      <c r="V7" s="154" t="s">
+        <v>253</v>
+      </c>
+      <c r="W7" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="X7" s="156" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z7" s="98" t="s">
-        <v>215</v>
+      <c r="Y7" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z7" s="158" t="s">
+        <v>255</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -3849,8 +5274,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>169</v>
+      <c r="B8" s="161" t="s">
+        <v>233</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3901,20 +5326,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="56" t="s">
-        <v>188</v>
+      <c r="V8" s="160" t="s">
+        <v>257</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="X8" s="58" t="s">
+      <c r="X8" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z8" s="60" t="s">
-        <v>190</v>
+      <c r="Y8" s="163" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z8" s="164" t="s">
+        <v>259</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -3941,8 +5366,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>169</v>
+      <c r="B9" s="166" t="s">
+        <v>233</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3993,20 +5418,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="61" t="s">
-        <v>191</v>
+      <c r="V9" s="165" t="s">
+        <v>260</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="X9" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y9" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z9" s="65" t="s">
-        <v>193</v>
+      <c r="X9" s="167" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y9" s="168" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z9" s="169" t="s">
+        <v>263</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -4027,8 +5452,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="106" t="s">
-        <v>209</v>
+      <c r="B10" s="171" t="s">
+        <v>233</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -4077,20 +5502,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="W10" s="110" t="s">
-        <v>224</v>
-      </c>
-      <c r="X10" s="107" t="s">
+      <c r="V10" s="170" t="s">
+        <v>264</v>
+      </c>
+      <c r="W10" s="175" t="s">
+        <v>267</v>
+      </c>
+      <c r="X10" s="172" t="s">
         <v>218</v>
       </c>
-      <c r="Y10" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z10" s="109" t="s">
-        <v>223</v>
+      <c r="Y10" s="173" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z10" s="174" t="s">
+        <v>266</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>146</v>
@@ -4109,8 +5534,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>169</v>
+      <c r="B11" s="177" t="s">
+        <v>233</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -4161,20 +5586,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="72" t="s">
-        <v>198</v>
+      <c r="V11" s="176" t="s">
+        <v>268</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X11" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y11" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z11" s="76" t="s">
-        <v>200</v>
+      <c r="X11" s="178" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y11" s="179" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z11" s="180" t="s">
+        <v>271</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>
@@ -4195,8 +5620,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>169</v>
+      <c r="B12" s="182" t="s">
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -4247,20 +5672,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="77" t="s">
-        <v>201</v>
+      <c r="V12" s="181" t="s">
+        <v>272</v>
       </c>
       <c r="W12" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="X12" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y12" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z12" s="81" t="s">
-        <v>203</v>
+      <c r="X12" s="183" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y12" s="184" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z12" s="185" t="s">
+        <v>275</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -4281,8 +5706,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>169</v>
+      <c r="B13" s="187" t="s">
+        <v>233</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -4331,20 +5756,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="W13" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="X13" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y13" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z13" s="86" t="s">
-        <v>206</v>
+      <c r="V13" s="186" t="s">
+        <v>276</v>
+      </c>
+      <c r="W13" s="191" t="s">
+        <v>280</v>
+      </c>
+      <c r="X13" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y13" s="189" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z13" s="190" t="s">
+        <v>279</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{01F6188F-5A5C-40D0-B0EC-B89AE726E2D1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C6650632-4183-4F23-95C1-231B6702AEF3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="1" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" r:id="rId1" sheetId="7"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="248">
   <si>
     <t>shipmentType</t>
   </si>
@@ -404,12 +404,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Test Automation</t>
-  </si>
-  <si>
     <t>billing.address@mailinator.com</t>
   </si>
   <si>
@@ -485,9 +479,6 @@
     <t>51499566</t>
   </si>
   <si>
-    <t>51500859</t>
-  </si>
-  <si>
     <t>51500887</t>
   </si>
   <si>
@@ -497,162 +488,12 @@
     <t>51500896</t>
   </si>
   <si>
-    <t>$1,195.62</t>
-  </si>
-  <si>
     <t>$1,366.31</t>
   </si>
   <si>
-    <t>$3,379.96</t>
-  </si>
-  <si>
-    <t>$1,381.31</t>
-  </si>
-  <si>
     <t>$749.62</t>
   </si>
   <si>
-    <t>51503404</t>
-  </si>
-  <si>
-    <t>11-07-2021</t>
-  </si>
-  <si>
-    <t>FCBTXA1000249</t>
-  </si>
-  <si>
-    <t>$61.21</t>
-  </si>
-  <si>
-    <t>$77.61</t>
-  </si>
-  <si>
-    <t>$172.47</t>
-  </si>
-  <si>
-    <t>$98.51</t>
-  </si>
-  <si>
-    <t>$121.65</t>
-  </si>
-  <si>
-    <t>11-09-2021</t>
-  </si>
-  <si>
-    <t>51518340</t>
-  </si>
-  <si>
-    <t>FCT907517883800616960</t>
-  </si>
-  <si>
-    <t>CEV1003116</t>
-  </si>
-  <si>
-    <t>51518343</t>
-  </si>
-  <si>
-    <t>FCT907520988739010560</t>
-  </si>
-  <si>
-    <t>CEV1003117</t>
-  </si>
-  <si>
-    <t>51518346</t>
-  </si>
-  <si>
-    <t>FCT907524282773405696</t>
-  </si>
-  <si>
-    <t>CEV1003118</t>
-  </si>
-  <si>
-    <t>51518348</t>
-  </si>
-  <si>
-    <t>51518349</t>
-  </si>
-  <si>
-    <t>FCT907528297275981824</t>
-  </si>
-  <si>
-    <t>CEV1003120</t>
-  </si>
-  <si>
-    <t>51518351</t>
-  </si>
-  <si>
-    <t>51518352</t>
-  </si>
-  <si>
-    <t>FCT907531761905303552</t>
-  </si>
-  <si>
-    <t>CEV1003122</t>
-  </si>
-  <si>
-    <t>51518354</t>
-  </si>
-  <si>
-    <t>51518355</t>
-  </si>
-  <si>
-    <t>FCT907534964537425920</t>
-  </si>
-  <si>
-    <t>CEV1003124</t>
-  </si>
-  <si>
-    <t>51518358</t>
-  </si>
-  <si>
-    <t>1Z44R7R60399046258</t>
-  </si>
-  <si>
-    <t>FCUPSG1011273</t>
-  </si>
-  <si>
-    <t>51518362</t>
-  </si>
-  <si>
-    <t>1Z44R7R60398995663</t>
-  </si>
-  <si>
-    <t>FCUPSG1011274</t>
-  </si>
-  <si>
-    <t>51518364</t>
-  </si>
-  <si>
-    <t>51518366</t>
-  </si>
-  <si>
-    <t>1Z44R7R60399631080</t>
-  </si>
-  <si>
-    <t>FCUPSG1011276</t>
-  </si>
-  <si>
-    <t>51518369</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW97005093</t>
-  </si>
-  <si>
-    <t>FCUPSG1011277</t>
-  </si>
-  <si>
-    <t>51518372</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW93905583</t>
-  </si>
-  <si>
-    <t>FCUPSG1011278</t>
-  </si>
-  <si>
-    <t>51518374</t>
-  </si>
-  <si>
     <t>51521253</t>
   </si>
   <si>
@@ -665,105 +506,12 @@
     <t>CEV1003201</t>
   </si>
   <si>
-    <t>51521258</t>
-  </si>
-  <si>
-    <t>51521264</t>
-  </si>
-  <si>
-    <t>FCT910405422207205376</t>
-  </si>
-  <si>
-    <t>CEV1003203</t>
-  </si>
-  <si>
-    <t>51521267</t>
-  </si>
-  <si>
-    <t>51521270</t>
-  </si>
-  <si>
     <t>$78.26</t>
   </si>
   <si>
-    <t>1Z44R7R60395723783</t>
-  </si>
-  <si>
-    <t>FCUPSG1011385</t>
-  </si>
-  <si>
-    <t>51521276</t>
-  </si>
-  <si>
-    <t>1Z44R7R60398271793</t>
-  </si>
-  <si>
-    <t>FCUPSG1011386</t>
-  </si>
-  <si>
-    <t>51521278</t>
-  </si>
-  <si>
-    <t>51521727</t>
-  </si>
-  <si>
-    <t>11-19-2021</t>
-  </si>
-  <si>
-    <t>FCT911121147427291136</t>
-  </si>
-  <si>
-    <t>CEV1003226</t>
-  </si>
-  <si>
-    <t>51521728</t>
-  </si>
-  <si>
-    <t>FCT911123245149716480</t>
-  </si>
-  <si>
-    <t>CEV1003227</t>
-  </si>
-  <si>
-    <t>51521916</t>
-  </si>
-  <si>
     <t>11-24-2021</t>
   </si>
   <si>
-    <t>FCT912924924761341952</t>
-  </si>
-  <si>
-    <t>CEV1003247</t>
-  </si>
-  <si>
-    <t>51521917</t>
-  </si>
-  <si>
-    <t>FCT912939609137086464</t>
-  </si>
-  <si>
-    <t>CEV1003249</t>
-  </si>
-  <si>
-    <t>51521925</t>
-  </si>
-  <si>
-    <t>FCBTXA1000281</t>
-  </si>
-  <si>
-    <t>51521927</t>
-  </si>
-  <si>
-    <t>51521930</t>
-  </si>
-  <si>
-    <t>FCT912973653879029760</t>
-  </si>
-  <si>
-    <t>CEV1003250</t>
-  </si>
-  <si>
     <t>51521936</t>
   </si>
   <si>
@@ -773,33 +521,6 @@
     <t>CEV1003251</t>
   </si>
   <si>
-    <t>51521939</t>
-  </si>
-  <si>
-    <t>FCT912980491718623232</t>
-  </si>
-  <si>
-    <t>CEV1003252</t>
-  </si>
-  <si>
-    <t>51521941</t>
-  </si>
-  <si>
-    <t>51521945</t>
-  </si>
-  <si>
-    <t>51521946</t>
-  </si>
-  <si>
-    <t>FCT912989055820496896</t>
-  </si>
-  <si>
-    <t>CEV1003255</t>
-  </si>
-  <si>
-    <t>51521950</t>
-  </si>
-  <si>
     <t>51521952</t>
   </si>
   <si>
@@ -809,67 +530,247 @@
     <t>CEV1003258</t>
   </si>
   <si>
-    <t>51521955</t>
-  </si>
-  <si>
     <t>$61.75</t>
   </si>
   <si>
-    <t>1Z44R7R60391383014</t>
-  </si>
-  <si>
-    <t>FCUPSG1011480</t>
-  </si>
-  <si>
-    <t>51521958</t>
-  </si>
-  <si>
-    <t>1Z44R7R60398804476</t>
-  </si>
-  <si>
-    <t>FCUPSG1011481</t>
-  </si>
-  <si>
-    <t>51521960</t>
-  </si>
-  <si>
-    <t>51521961</t>
-  </si>
-  <si>
     <t>$173.82</t>
   </si>
   <si>
-    <t>1Z44R7R60395948291</t>
-  </si>
-  <si>
-    <t>FCUPSG1011483</t>
-  </si>
-  <si>
-    <t>51521964</t>
-  </si>
-  <si>
     <t>$99.35</t>
   </si>
   <si>
-    <t>1Z44R7R6YW98895522</t>
-  </si>
-  <si>
-    <t>FCUPSG1011484</t>
-  </si>
-  <si>
-    <t>51521967</t>
-  </si>
-  <si>
     <t>$122.68</t>
   </si>
   <si>
-    <t>1Z44R7R6YW99662334</t>
-  </si>
-  <si>
-    <t>FCUPSG1011485</t>
-  </si>
-  <si>
-    <t>51521969</t>
+    <t>11-27-2021</t>
+  </si>
+  <si>
+    <t>51522290</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395334391</t>
+  </si>
+  <si>
+    <t>FCUPSG1011505</t>
+  </si>
+  <si>
+    <t>$568.29</t>
+  </si>
+  <si>
+    <t>11-28-2021</t>
+  </si>
+  <si>
+    <t>51522308</t>
+  </si>
+  <si>
+    <t>51522309</t>
+  </si>
+  <si>
+    <t>FCT914475123405225984</t>
+  </si>
+  <si>
+    <t>FCESTES1003273</t>
+  </si>
+  <si>
+    <t>51522315</t>
+  </si>
+  <si>
+    <t>$2,341.17</t>
+  </si>
+  <si>
+    <t>FCBTXA1000289</t>
+  </si>
+  <si>
+    <t>51522317</t>
+  </si>
+  <si>
+    <t>51522320</t>
+  </si>
+  <si>
+    <t>51522321</t>
+  </si>
+  <si>
+    <t>$757.42</t>
+  </si>
+  <si>
+    <t>301210018441</t>
+  </si>
+  <si>
+    <t>FCWERN1000463</t>
+  </si>
+  <si>
+    <t>51522323</t>
+  </si>
+  <si>
+    <t>51522327</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396101827</t>
+  </si>
+  <si>
+    <t>FCUPSG1011509</t>
+  </si>
+  <si>
+    <t>51522330</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396074634</t>
+  </si>
+  <si>
+    <t>FCUPSG1011510</t>
+  </si>
+  <si>
+    <t>51522332</t>
+  </si>
+  <si>
+    <t>51522336</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW90755947</t>
+  </si>
+  <si>
+    <t>FCUPSG1011513</t>
+  </si>
+  <si>
+    <t>51522339</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW96999647</t>
+  </si>
+  <si>
+    <t>FCUPSG1011514</t>
+  </si>
+  <si>
+    <t>51522341</t>
+  </si>
+  <si>
+    <t>51522492</t>
+  </si>
+  <si>
+    <t>11-29-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000297</t>
+  </si>
+  <si>
+    <t>Test Automation2</t>
+  </si>
+  <si>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>51522502</t>
+  </si>
+  <si>
+    <t>51522503</t>
+  </si>
+  <si>
+    <t>$607.28</t>
+  </si>
+  <si>
+    <t>FCT914858581851897856</t>
+  </si>
+  <si>
+    <t>FCESTES1003274</t>
+  </si>
+  <si>
+    <t>51522514</t>
+  </si>
+  <si>
+    <t>$872.04</t>
+  </si>
+  <si>
+    <t>FCBTXA1000299</t>
+  </si>
+  <si>
+    <t>51522519</t>
+  </si>
+  <si>
+    <t>FCBTXA1000300</t>
+  </si>
+  <si>
+    <t>51522525</t>
+  </si>
+  <si>
+    <t>51522533</t>
+  </si>
+  <si>
+    <t>$887.04</t>
+  </si>
+  <si>
+    <t>FCBTXA1000302</t>
+  </si>
+  <si>
+    <t>51522536</t>
+  </si>
+  <si>
+    <t>51522539</t>
+  </si>
+  <si>
+    <t>$456.09</t>
+  </si>
+  <si>
+    <t>FCBTXA1000304</t>
+  </si>
+  <si>
+    <t>51522542</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399372860</t>
+  </si>
+  <si>
+    <t>FCUPSG1011529</t>
+  </si>
+  <si>
+    <t>51522544</t>
+  </si>
+  <si>
+    <t>51522545</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392198222</t>
+  </si>
+  <si>
+    <t>FCUPSG1011531</t>
+  </si>
+  <si>
+    <t>51522548</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93968275</t>
+  </si>
+  <si>
+    <t>FCUPSG1011532</t>
+  </si>
+  <si>
+    <t>51522559</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW98265659</t>
+  </si>
+  <si>
+    <t>FCUPSG1011533</t>
+  </si>
+  <si>
+    <t>51522561</t>
+  </si>
+  <si>
+    <t>51522626</t>
+  </si>
+  <si>
+    <t>11-30-2021</t>
+  </si>
+  <si>
+    <t>$742.42</t>
+  </si>
+  <si>
+    <t>301210018444</t>
+  </si>
+  <si>
+    <t>FCWERN1000466</t>
+  </si>
+  <si>
+    <t>51522628</t>
   </si>
 </sst>
 </file>
@@ -905,7 +806,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="286">
+  <fills count="190">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1852,488 +1753,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="282">
+  <borders count="186">
     <border>
       <left/>
       <right/>
@@ -3147,342 +2568,6 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -3884,7 +2969,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="144">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4028,55 +3113,7 @@
     <xf applyBorder="true" applyFill="true" borderId="179" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="181" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="183" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="185" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="187" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="189" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="191" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="193" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="195" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="197" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="199" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="201" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="203" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="205" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="285" borderId="281" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="185" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4361,7 +3398,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,22 +3440,22 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>126</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>34</v>
@@ -4433,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4580,7 +3617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
@@ -4607,7 +3644,7 @@
     <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.07421875" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.265625" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
@@ -4684,16 +3721,16 @@
         <v>19</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>83</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>94</v>
@@ -4708,24 +3745,24 @@
         <v>113</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>114</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>233</v>
+      <c r="B2" s="84" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -4776,23 +3813,23 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="131" t="s">
-        <v>239</v>
-      </c>
-      <c r="W2" s="136" t="s">
-        <v>241</v>
-      </c>
-      <c r="X2" s="133" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="134" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z2" s="135" t="s">
-        <v>240</v>
+      <c r="V2" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="W2" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="X2" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z2" s="87" t="s">
+        <v>207</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -4812,8 +3849,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="138" t="s">
-        <v>233</v>
+      <c r="B3" s="90" t="s">
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -4866,20 +3903,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="137" t="s">
-        <v>242</v>
+      <c r="V3" s="89" t="s">
+        <v>211</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="X3" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y3" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z3" s="141" t="s">
-        <v>244</v>
+        <v>147</v>
+      </c>
+      <c r="X3" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y3" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" s="93" t="s">
+        <v>214</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -4898,7 +3935,7 @@
       </c>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>78</v>
@@ -4908,8 +3945,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="143" t="s">
-        <v>233</v>
+      <c r="B4" s="95" t="s">
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -4960,20 +3997,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="142" t="s">
-        <v>245</v>
+      <c r="V4" s="94" t="s">
+        <v>215</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="X4" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y4" s="145" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z4" s="146" t="s">
-        <v>247</v>
+        <v>148</v>
+      </c>
+      <c r="X4" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y4" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z4" s="98" t="s">
+        <v>217</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -4990,7 +4027,7 @@
       </c>
       <c r="AF4" s="5"/>
       <c r="AG4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>78</v>
@@ -5000,8 +4037,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="148" t="s">
-        <v>233</v>
+      <c r="B5" s="100" t="s">
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -5052,20 +4089,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="147" t="s">
-        <v>248</v>
-      </c>
-      <c r="W5" s="152" t="s">
-        <v>251</v>
-      </c>
-      <c r="X5" s="149" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y5" s="150" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z5" s="151" t="s">
-        <v>250</v>
+      <c r="V5" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="W5" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="X5" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y5" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z5" s="103" t="s">
+        <v>219</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -5080,13 +4117,13 @@
         <v>79</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AH5" s="5" t="s">
         <v>78</v>
@@ -5096,8 +4133,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="89" t="s">
-        <v>209</v>
+      <c r="B6" s="139" t="s">
+        <v>243</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -5148,20 +4185,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="W6" s="153" t="s">
-        <v>252</v>
-      </c>
-      <c r="X6" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y6" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z6" s="92" t="s">
-        <v>211</v>
+      <c r="V6" s="138" t="s">
+        <v>242</v>
+      </c>
+      <c r="W6" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="X6" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y6" s="141" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z6" s="142" t="s">
+        <v>246</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -5174,7 +4211,7 @@
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF6" s="5"/>
       <c r="AG6" s="4" t="s">
@@ -5188,8 +4225,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="155" t="s">
-        <v>233</v>
+      <c r="B7" s="106" t="s">
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -5238,20 +4275,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="154" t="s">
-        <v>253</v>
-      </c>
-      <c r="W7" s="159" t="s">
-        <v>256</v>
-      </c>
-      <c r="X7" s="156" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y7" s="157" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z7" s="158" t="s">
-        <v>255</v>
+      <c r="V7" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="W7" s="110" t="s">
+        <v>224</v>
+      </c>
+      <c r="X7" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y7" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z7" s="109" t="s">
+        <v>223</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -5264,7 +4301,7 @@
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH7" s="5" t="s">
         <v>78</v>
@@ -5274,8 +4311,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="161" t="s">
-        <v>233</v>
+      <c r="B8" s="112" t="s">
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -5326,20 +4363,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="160" t="s">
-        <v>257</v>
+      <c r="V8" s="111" t="s">
+        <v>225</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="X8" s="162" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y8" s="163" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z8" s="164" t="s">
-        <v>259</v>
+        <v>149</v>
+      </c>
+      <c r="X8" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y8" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z8" s="115" t="s">
+        <v>227</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -5356,7 +4393,7 @@
       </c>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AH8" s="5" t="s">
         <v>78</v>
@@ -5366,8 +4403,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="166" t="s">
-        <v>233</v>
+      <c r="B9" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -5418,23 +4455,23 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="165" t="s">
-        <v>260</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="X9" s="167" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y9" s="168" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z9" s="169" t="s">
-        <v>263</v>
+      <c r="V9" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="X9" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y9" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z9" s="65" t="s">
+        <v>193</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -5452,8 +4489,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="171" t="s">
-        <v>233</v>
+      <c r="B10" s="117" t="s">
+        <v>206</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -5481,19 +4518,19 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P10" s="13" t="s">
         <v>91</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>96</v>
@@ -5502,23 +4539,23 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="170" t="s">
-        <v>264</v>
-      </c>
-      <c r="W10" s="175" t="s">
-        <v>267</v>
-      </c>
-      <c r="X10" s="172" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y10" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z10" s="174" t="s">
-        <v>266</v>
+      <c r="V10" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="W10" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="X10" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y10" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z10" s="120" t="s">
+        <v>230</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -5534,8 +4571,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="177" t="s">
-        <v>233</v>
+      <c r="B11" s="123" t="s">
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -5586,23 +4623,23 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="X11" s="178" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y11" s="179" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z11" s="180" t="s">
-        <v>271</v>
+      <c r="V11" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="X11" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z11" s="126" t="s">
+        <v>234</v>
       </c>
       <c r="AA11" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -5620,8 +4657,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="182" t="s">
-        <v>233</v>
+      <c r="B12" s="128" t="s">
+        <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -5638,7 +4675,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>25</v>
@@ -5672,20 +4709,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="181" t="s">
-        <v>272</v>
-      </c>
-      <c r="W12" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="X12" s="183" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y12" s="184" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z12" s="185" t="s">
-        <v>275</v>
+      <c r="V12" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="X12" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z12" s="131" t="s">
+        <v>237</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -5706,8 +4743,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="187" t="s">
-        <v>233</v>
+      <c r="B13" s="133" t="s">
+        <v>206</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -5724,7 +4761,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>25</v>
@@ -5735,19 +4772,19 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>91</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>96</v>
@@ -5756,20 +4793,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="186" t="s">
-        <v>276</v>
-      </c>
-      <c r="W13" s="191" t="s">
-        <v>280</v>
-      </c>
-      <c r="X13" s="188" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y13" s="189" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z13" s="190" t="s">
-        <v>279</v>
+      <c r="V13" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="W13" s="137" t="s">
+        <v>241</v>
+      </c>
+      <c r="X13" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y13" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z13" s="136" t="s">
+        <v>240</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="393">
   <si>
     <t>shipmentType</t>
   </si>
@@ -771,6 +771,441 @@
   </si>
   <si>
     <t>51522628</t>
+  </si>
+  <si>
+    <t>51523106</t>
+  </si>
+  <si>
+    <t>12-05-2021</t>
+  </si>
+  <si>
+    <t>$1,030.21</t>
+  </si>
+  <si>
+    <t>FCT917015855802351616</t>
+  </si>
+  <si>
+    <t>FCABF1006623</t>
+  </si>
+  <si>
+    <t>51523108</t>
+  </si>
+  <si>
+    <t>51523109</t>
+  </si>
+  <si>
+    <t>$1,757.25</t>
+  </si>
+  <si>
+    <t>FCT917019470633893888</t>
+  </si>
+  <si>
+    <t>FCABF1006625</t>
+  </si>
+  <si>
+    <t>51523110</t>
+  </si>
+  <si>
+    <t>FCT917045012775043072</t>
+  </si>
+  <si>
+    <t>FCABF1006626</t>
+  </si>
+  <si>
+    <t>51523112</t>
+  </si>
+  <si>
+    <t>51523113</t>
+  </si>
+  <si>
+    <t>FCT917048564582973440</t>
+  </si>
+  <si>
+    <t>FCABF1006627</t>
+  </si>
+  <si>
+    <t>51523116</t>
+  </si>
+  <si>
+    <t>$2,118.26</t>
+  </si>
+  <si>
+    <t>FCT917052324017340416</t>
+  </si>
+  <si>
+    <t>FCABF1006628</t>
+  </si>
+  <si>
+    <t>51523119</t>
+  </si>
+  <si>
+    <t>$4,935.98</t>
+  </si>
+  <si>
+    <t>FCT917056061620355072</t>
+  </si>
+  <si>
+    <t>FCABF1006629</t>
+  </si>
+  <si>
+    <t>51523121</t>
+  </si>
+  <si>
+    <t>51523122</t>
+  </si>
+  <si>
+    <t>FCT917060537160826880</t>
+  </si>
+  <si>
+    <t>FCABF1006631</t>
+  </si>
+  <si>
+    <t>51523124</t>
+  </si>
+  <si>
+    <t>51523125</t>
+  </si>
+  <si>
+    <t>$2,133.26</t>
+  </si>
+  <si>
+    <t>FCT917064876730351616</t>
+  </si>
+  <si>
+    <t>FCABF1006633</t>
+  </si>
+  <si>
+    <t>51523127</t>
+  </si>
+  <si>
+    <t>51523128</t>
+  </si>
+  <si>
+    <t>$1,012.48</t>
+  </si>
+  <si>
+    <t>FCT917068714568843264</t>
+  </si>
+  <si>
+    <t>FCABF1006635</t>
+  </si>
+  <si>
+    <t>51523131</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398046330</t>
+  </si>
+  <si>
+    <t>FCUPSG1011558</t>
+  </si>
+  <si>
+    <t>51523134</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394298236</t>
+  </si>
+  <si>
+    <t>FCUPSG1011559</t>
+  </si>
+  <si>
+    <t>51523136</t>
+  </si>
+  <si>
+    <t>51523137</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398995574</t>
+  </si>
+  <si>
+    <t>FCUPSG1011561</t>
+  </si>
+  <si>
+    <t>51523140</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW96843386</t>
+  </si>
+  <si>
+    <t>FCUPSG1011562</t>
+  </si>
+  <si>
+    <t>51523143</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW98143398</t>
+  </si>
+  <si>
+    <t>FCUPSG1011563</t>
+  </si>
+  <si>
+    <t>51523145</t>
+  </si>
+  <si>
+    <t>51523259</t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000320</t>
+  </si>
+  <si>
+    <t>51523264</t>
+  </si>
+  <si>
+    <t>51523265</t>
+  </si>
+  <si>
+    <t>FCT917644792605704192</t>
+  </si>
+  <si>
+    <t>FCABF1006638</t>
+  </si>
+  <si>
+    <t>51523274</t>
+  </si>
+  <si>
+    <t>FCT917648495119171584</t>
+  </si>
+  <si>
+    <t>FCABF1006639</t>
+  </si>
+  <si>
+    <t>51523277</t>
+  </si>
+  <si>
+    <t>FCT917651953272487936</t>
+  </si>
+  <si>
+    <t>FCABF1006640</t>
+  </si>
+  <si>
+    <t>51523279</t>
+  </si>
+  <si>
+    <t>51523280</t>
+  </si>
+  <si>
+    <t>FCT917656434513018880</t>
+  </si>
+  <si>
+    <t>FCABF1006642</t>
+  </si>
+  <si>
+    <t>51523282</t>
+  </si>
+  <si>
+    <t>51523284</t>
+  </si>
+  <si>
+    <t>FCT917660678376914944</t>
+  </si>
+  <si>
+    <t>FCABF1006644</t>
+  </si>
+  <si>
+    <t>51523287</t>
+  </si>
+  <si>
+    <t>51523289</t>
+  </si>
+  <si>
+    <t>FCT917664445386194944</t>
+  </si>
+  <si>
+    <t>FCABF1006646</t>
+  </si>
+  <si>
+    <t>51523294</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394239880</t>
+  </si>
+  <si>
+    <t>FCUPSG1011569</t>
+  </si>
+  <si>
+    <t>51523300</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399781785</t>
+  </si>
+  <si>
+    <t>FCUPSG1011570</t>
+  </si>
+  <si>
+    <t>51523303</t>
+  </si>
+  <si>
+    <t>51523304</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395774004</t>
+  </si>
+  <si>
+    <t>FCUPSG1011572</t>
+  </si>
+  <si>
+    <t>51523310</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW91006692</t>
+  </si>
+  <si>
+    <t>FCUPSG1011574</t>
+  </si>
+  <si>
+    <t>51523317</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93152708</t>
+  </si>
+  <si>
+    <t>FCUPSG1011575</t>
+  </si>
+  <si>
+    <t>51523321</t>
+  </si>
+  <si>
+    <t>51523446</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000327</t>
+  </si>
+  <si>
+    <t>51523448</t>
+  </si>
+  <si>
+    <t>51523449</t>
+  </si>
+  <si>
+    <t>$1,752.68</t>
+  </si>
+  <si>
+    <t>FCT918044666706788352</t>
+  </si>
+  <si>
+    <t>FCABF1006654</t>
+  </si>
+  <si>
+    <t>51523452</t>
+  </si>
+  <si>
+    <t>$2,112.53</t>
+  </si>
+  <si>
+    <t>FCT918046632300249088</t>
+  </si>
+  <si>
+    <t>FCABF1006655</t>
+  </si>
+  <si>
+    <t>51523455</t>
+  </si>
+  <si>
+    <t>$4,921.50</t>
+  </si>
+  <si>
+    <t>FCT918048616361230336</t>
+  </si>
+  <si>
+    <t>FCABF1006656</t>
+  </si>
+  <si>
+    <t>51523457</t>
+  </si>
+  <si>
+    <t>51523458</t>
+  </si>
+  <si>
+    <t>FCT918051047191085056</t>
+  </si>
+  <si>
+    <t>FCABF1006658</t>
+  </si>
+  <si>
+    <t>51523460</t>
+  </si>
+  <si>
+    <t>51523461</t>
+  </si>
+  <si>
+    <t>$2,127.53</t>
+  </si>
+  <si>
+    <t>FCT918053409142079488</t>
+  </si>
+  <si>
+    <t>FCABF1006660</t>
+  </si>
+  <si>
+    <t>51523463</t>
+  </si>
+  <si>
+    <t>51523464</t>
+  </si>
+  <si>
+    <t>$1,010.18</t>
+  </si>
+  <si>
+    <t>FCT918055438308605952</t>
+  </si>
+  <si>
+    <t>FCABF1006662</t>
+  </si>
+  <si>
+    <t>51523469</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393155347</t>
+  </si>
+  <si>
+    <t>FCUPSG1011578</t>
+  </si>
+  <si>
+    <t>51523472</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399154784</t>
+  </si>
+  <si>
+    <t>FCUPSG1011579</t>
+  </si>
+  <si>
+    <t>51523474</t>
+  </si>
+  <si>
+    <t>51523479</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391066563</t>
+  </si>
+  <si>
+    <t>FCUPSG1011581</t>
+  </si>
+  <si>
+    <t>51523482</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99922795</t>
+  </si>
+  <si>
+    <t>FCUPSG1011582</t>
+  </si>
+  <si>
+    <t>51523487</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW92370975</t>
+  </si>
+  <si>
+    <t>FCUPSG1011583</t>
+  </si>
+  <si>
+    <t>51523489</t>
   </si>
 </sst>
 </file>
@@ -806,7 +1241,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="190">
+  <fills count="608">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1753,8 +2188,2098 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="186">
+  <borders count="604">
     <border>
       <left/>
       <right/>
@@ -2961,6 +5486,1469 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2969,7 +6957,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="353">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3113,7 +7101,216 @@
     <xf applyBorder="true" applyFill="true" borderId="179" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="181" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="183" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="185" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="283" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="287" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="291" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="295" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="299" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="303" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="307" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="311" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="315" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="319" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="323" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="327" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="331" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="335" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="339" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="343" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="347" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="351" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="355" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="359" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="361" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="363" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="365" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="367" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="369" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="371" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="373" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="375" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="377" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="379" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="381" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="383" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="385" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="387" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="389" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="391" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="393" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="395" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="397" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="399" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="401" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="403" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="405" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="407" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="409" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="411" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="413" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="415" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="417" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="419" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="421" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="423" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="425" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="427" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="429" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="431" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="433" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="435" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="437" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="439" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="441" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="443" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="445" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="447" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="449" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="451" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="453" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="455" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="457" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="459" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="461" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="463" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="465" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="467" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="469" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="471" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="473" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="475" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="477" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="479" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="481" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="483" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="485" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="487" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="489" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="491" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="493" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="495" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="499" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="501" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="503" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="505" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="507" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="509" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="511" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="513" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="515" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="517" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="519" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="521" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="523" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="525" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="527" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="529" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="531" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="533" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="535" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="537" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="539" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="541" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="543" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="545" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="547" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="549" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="551" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="553" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="555" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="557" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="589" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="591" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="593" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="595" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="597" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="599" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="601" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="607" borderId="603" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3644,7 +7841,7 @@
     <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.07421875" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.265625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
@@ -3761,8 +7958,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>206</v>
+      <c r="B2" s="288" t="s">
+        <v>347</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3813,20 +8010,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="W2" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="X2" s="85" t="s">
+      <c r="V2" s="287" t="s">
+        <v>346</v>
+      </c>
+      <c r="W2" s="292" t="s">
+        <v>349</v>
+      </c>
+      <c r="X2" s="289" t="s">
         <v>146</v>
       </c>
-      <c r="Y2" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z2" s="87" t="s">
-        <v>207</v>
+      <c r="Y2" s="290" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z2" s="291" t="s">
+        <v>348</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -3849,8 +8046,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>206</v>
+      <c r="B3" s="294" t="s">
+        <v>347</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -3903,20 +8100,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="89" t="s">
-        <v>211</v>
+      <c r="V3" s="293" t="s">
+        <v>350</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y3" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="93" t="s">
-        <v>214</v>
+      <c r="X3" s="295" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y3" s="296" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z3" s="297" t="s">
+        <v>353</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -3945,8 +8142,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>206</v>
+      <c r="B4" s="299" t="s">
+        <v>347</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3997,20 +8194,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="94" t="s">
-        <v>215</v>
+      <c r="V4" s="298" t="s">
+        <v>354</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y4" s="97" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z4" s="98" t="s">
-        <v>217</v>
+      <c r="X4" s="300" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y4" s="301" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z4" s="302" t="s">
+        <v>357</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -4037,8 +8234,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="100" t="s">
-        <v>206</v>
+      <c r="B5" s="304" t="s">
+        <v>347</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -4089,20 +8286,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="W5" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="X5" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y5" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z5" s="103" t="s">
-        <v>219</v>
+      <c r="V5" s="303" t="s">
+        <v>358</v>
+      </c>
+      <c r="W5" s="308" t="s">
+        <v>362</v>
+      </c>
+      <c r="X5" s="305" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y5" s="306" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z5" s="307" t="s">
+        <v>361</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -4133,8 +8330,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="139" t="s">
-        <v>243</v>
+      <c r="B6" s="310" t="s">
+        <v>347</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -4185,20 +8382,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="138" t="s">
-        <v>242</v>
-      </c>
-      <c r="W6" s="143" t="s">
-        <v>247</v>
-      </c>
-      <c r="X6" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y6" s="141" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z6" s="142" t="s">
-        <v>246</v>
+      <c r="V6" s="309" t="s">
+        <v>363</v>
+      </c>
+      <c r="W6" s="314" t="s">
+        <v>366</v>
+      </c>
+      <c r="X6" s="311" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y6" s="312" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z6" s="313" t="s">
+        <v>365</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -4225,8 +8422,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="106" t="s">
-        <v>206</v>
+      <c r="B7" s="316" t="s">
+        <v>347</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -4275,20 +8472,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="W7" s="110" t="s">
-        <v>224</v>
-      </c>
-      <c r="X7" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y7" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z7" s="109" t="s">
-        <v>223</v>
+      <c r="V7" s="315" t="s">
+        <v>367</v>
+      </c>
+      <c r="W7" s="320" t="s">
+        <v>371</v>
+      </c>
+      <c r="X7" s="317" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y7" s="318" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z7" s="319" t="s">
+        <v>370</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -4311,8 +8508,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="112" t="s">
-        <v>206</v>
+      <c r="B8" s="322" t="s">
+        <v>347</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -4363,20 +8560,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="111" t="s">
-        <v>225</v>
+      <c r="V8" s="321" t="s">
+        <v>372</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y8" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z8" s="115" t="s">
-        <v>227</v>
+      <c r="X8" s="323" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y8" s="324" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z8" s="325" t="s">
+        <v>375</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -4403,8 +8600,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>176</v>
+      <c r="B9" s="327" t="s">
+        <v>347</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -4455,20 +8652,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="61" t="s">
-        <v>191</v>
+      <c r="V9" s="326" t="s">
+        <v>376</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="63" t="s">
+      <c r="X9" s="328" t="s">
         <v>167</v>
       </c>
-      <c r="Y9" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z9" s="65" t="s">
-        <v>193</v>
+      <c r="Y9" s="329" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z9" s="330" t="s">
+        <v>378</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -4489,8 +8686,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="117" t="s">
-        <v>206</v>
+      <c r="B10" s="332" t="s">
+        <v>347</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -4539,20 +8736,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="116" t="s">
-        <v>228</v>
-      </c>
-      <c r="W10" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="X10" s="118" t="s">
+      <c r="V10" s="331" t="s">
+        <v>379</v>
+      </c>
+      <c r="W10" s="336" t="s">
+        <v>382</v>
+      </c>
+      <c r="X10" s="333" t="s">
         <v>159</v>
       </c>
-      <c r="Y10" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z10" s="120" t="s">
-        <v>230</v>
+      <c r="Y10" s="334" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z10" s="335" t="s">
+        <v>381</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -4571,8 +8768,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="123" t="s">
-        <v>206</v>
+      <c r="B11" s="338" t="s">
+        <v>347</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -4623,20 +8820,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="122" t="s">
-        <v>232</v>
+      <c r="V11" s="337" t="s">
+        <v>383</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="124" t="s">
+      <c r="X11" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="Y11" s="125" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z11" s="126" t="s">
-        <v>234</v>
+      <c r="Y11" s="340" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z11" s="341" t="s">
+        <v>385</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -4657,8 +8854,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="128" t="s">
-        <v>206</v>
+      <c r="B12" s="343" t="s">
+        <v>347</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -4709,20 +8906,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="127" t="s">
-        <v>235</v>
+      <c r="V12" s="342" t="s">
+        <v>386</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="129" t="s">
+      <c r="X12" s="344" t="s">
         <v>169</v>
       </c>
-      <c r="Y12" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z12" s="131" t="s">
-        <v>237</v>
+      <c r="Y12" s="345" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z12" s="346" t="s">
+        <v>388</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -4743,8 +8940,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="133" t="s">
-        <v>206</v>
+      <c r="B13" s="348" t="s">
+        <v>347</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -4793,20 +8990,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="132" t="s">
-        <v>238</v>
-      </c>
-      <c r="W13" s="137" t="s">
-        <v>241</v>
-      </c>
-      <c r="X13" s="134" t="s">
+      <c r="V13" s="347" t="s">
+        <v>389</v>
+      </c>
+      <c r="W13" s="352" t="s">
+        <v>392</v>
+      </c>
+      <c r="X13" s="349" t="s">
         <v>170</v>
       </c>
-      <c r="Y13" s="135" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z13" s="136" t="s">
-        <v>240</v>
+      <c r="Y13" s="350" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z13" s="351" t="s">
+        <v>391</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="486">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1206,6 +1206,285 @@
   </si>
   <si>
     <t>51523489</t>
+  </si>
+  <si>
+    <t>51524027</t>
+  </si>
+  <si>
+    <t>12-12-2021</t>
+  </si>
+  <si>
+    <t>$1,027.91</t>
+  </si>
+  <si>
+    <t>FCT919480895428100096</t>
+  </si>
+  <si>
+    <t>FCABF1006688</t>
+  </si>
+  <si>
+    <t>51524029</t>
+  </si>
+  <si>
+    <t>51524030</t>
+  </si>
+  <si>
+    <t>$987.51</t>
+  </si>
+  <si>
+    <t>FCT919483193785057280</t>
+  </si>
+  <si>
+    <t>CEV1003270</t>
+  </si>
+  <si>
+    <t>51524033</t>
+  </si>
+  <si>
+    <t>$1,126.88</t>
+  </si>
+  <si>
+    <t>FCT919485174553509888</t>
+  </si>
+  <si>
+    <t>CEV1003271</t>
+  </si>
+  <si>
+    <t>51524036</t>
+  </si>
+  <si>
+    <t>$2,785.18</t>
+  </si>
+  <si>
+    <t>FCT919487212511297536</t>
+  </si>
+  <si>
+    <t>CEV1003272</t>
+  </si>
+  <si>
+    <t>51524038</t>
+  </si>
+  <si>
+    <t>51524039</t>
+  </si>
+  <si>
+    <t>FCT919489784768888832</t>
+  </si>
+  <si>
+    <t>CEV1003274</t>
+  </si>
+  <si>
+    <t>51524041</t>
+  </si>
+  <si>
+    <t>51524042</t>
+  </si>
+  <si>
+    <t>$1,141.88</t>
+  </si>
+  <si>
+    <t>FCT919492103426277376</t>
+  </si>
+  <si>
+    <t>CEV1003276</t>
+  </si>
+  <si>
+    <t>51524044</t>
+  </si>
+  <si>
+    <t>51524045</t>
+  </si>
+  <si>
+    <t>$619.02</t>
+  </si>
+  <si>
+    <t>FCT919494244538777600</t>
+  </si>
+  <si>
+    <t>CEV1003278</t>
+  </si>
+  <si>
+    <t>51524048</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395416427</t>
+  </si>
+  <si>
+    <t>FCUPSG1011614</t>
+  </si>
+  <si>
+    <t>51524051</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395041233</t>
+  </si>
+  <si>
+    <t>FCUPSG1011615</t>
+  </si>
+  <si>
+    <t>51524053</t>
+  </si>
+  <si>
+    <t>51524054</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394623017</t>
+  </si>
+  <si>
+    <t>FCUPSG1011617</t>
+  </si>
+  <si>
+    <t>51524057</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93991427</t>
+  </si>
+  <si>
+    <t>FCUPSG1011618</t>
+  </si>
+  <si>
+    <t>51524060</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW96858245</t>
+  </si>
+  <si>
+    <t>FCUPSG1011619</t>
+  </si>
+  <si>
+    <t>51524062</t>
+  </si>
+  <si>
+    <t>51524201</t>
+  </si>
+  <si>
+    <t>12-14-2021</t>
+  </si>
+  <si>
+    <t>$1,026.77</t>
+  </si>
+  <si>
+    <t>FCT920199923377373184</t>
+  </si>
+  <si>
+    <t>FCABF1006694</t>
+  </si>
+  <si>
+    <t>51524203</t>
+  </si>
+  <si>
+    <t>51524204</t>
+  </si>
+  <si>
+    <t>FCT920202118181158912</t>
+  </si>
+  <si>
+    <t>CEV1003286</t>
+  </si>
+  <si>
+    <t>51524207</t>
+  </si>
+  <si>
+    <t>FCT920204007748665344</t>
+  </si>
+  <si>
+    <t>CEV1003287</t>
+  </si>
+  <si>
+    <t>51524210</t>
+  </si>
+  <si>
+    <t>FCT920205916333146112</t>
+  </si>
+  <si>
+    <t>CEV1003288</t>
+  </si>
+  <si>
+    <t>51524212</t>
+  </si>
+  <si>
+    <t>51524213</t>
+  </si>
+  <si>
+    <t>FCT920208374761521152</t>
+  </si>
+  <si>
+    <t>CEV1003290</t>
+  </si>
+  <si>
+    <t>51524215</t>
+  </si>
+  <si>
+    <t>51524216</t>
+  </si>
+  <si>
+    <t>FCT920210600452161536</t>
+  </si>
+  <si>
+    <t>CEV1003292</t>
+  </si>
+  <si>
+    <t>51524218</t>
+  </si>
+  <si>
+    <t>51524222</t>
+  </si>
+  <si>
+    <t>FCT920212769876213760</t>
+  </si>
+  <si>
+    <t>CEV1003294</t>
+  </si>
+  <si>
+    <t>51524225</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398227519</t>
+  </si>
+  <si>
+    <t>FCUPSG1011644</t>
+  </si>
+  <si>
+    <t>51524228</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396818125</t>
+  </si>
+  <si>
+    <t>FCUPSG1011645</t>
+  </si>
+  <si>
+    <t>51524230</t>
+  </si>
+  <si>
+    <t>51524231</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396247948</t>
+  </si>
+  <si>
+    <t>FCUPSG1011647</t>
+  </si>
+  <si>
+    <t>51524234</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97902560</t>
+  </si>
+  <si>
+    <t>FCUPSG1011648</t>
+  </si>
+  <si>
+    <t>51524237</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW95074174</t>
+  </si>
+  <si>
+    <t>FCUPSG1011649</t>
+  </si>
+  <si>
+    <t>51524239</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1520,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="608">
+  <fills count="872">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4278,8 +4557,1328 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="604">
+  <borders count="868">
     <border>
       <left/>
       <right/>
@@ -6949,6 +8548,930 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6957,7 +9480,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="485">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -7310,7 +9833,139 @@
     <xf applyBorder="true" applyFill="true" borderId="597" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="599" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="601" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="607" borderId="603" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="603" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="605" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="607" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="609" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="611" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="613" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="615" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="617" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="619" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="621" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="623" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="625" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="627" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="629" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="631" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="633" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="635" fillId="639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="637" fillId="641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="639" fillId="643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="641" fillId="645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="643" fillId="647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="645" fillId="649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="647" fillId="651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="649" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="651" fillId="655" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="653" fillId="657" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="655" fillId="659" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="657" fillId="661" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="659" fillId="663" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="661" fillId="665" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="663" fillId="667" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="665" fillId="669" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="667" fillId="671" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="669" fillId="673" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="671" fillId="675" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="673" fillId="677" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="675" fillId="679" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="677" fillId="681" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="679" fillId="683" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="681" fillId="685" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="683" fillId="687" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="685" fillId="689" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="687" fillId="691" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="689" fillId="693" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="691" fillId="695" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="693" fillId="697" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="695" fillId="699" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="697" fillId="701" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="699" fillId="703" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="701" fillId="705" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="703" fillId="707" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="705" fillId="709" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="707" fillId="711" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="709" fillId="713" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="711" fillId="715" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="713" fillId="717" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="715" fillId="719" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="717" fillId="721" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="719" fillId="723" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="721" fillId="725" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="723" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="725" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="727" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="729" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="731" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="733" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="735" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="737" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="739" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="741" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="743" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="745" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="747" fillId="751" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="749" fillId="753" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="751" fillId="755" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="753" fillId="757" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="755" fillId="759" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="757" fillId="761" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="759" fillId="763" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="761" fillId="765" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="763" fillId="767" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="765" fillId="769" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="767" fillId="771" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="769" fillId="773" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="771" fillId="775" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="773" fillId="777" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="775" fillId="779" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="777" fillId="781" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="779" fillId="783" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="781" fillId="785" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="783" fillId="787" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="785" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="787" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="789" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="791" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="793" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="795" fillId="799" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="797" fillId="801" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="799" fillId="803" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="801" fillId="805" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="803" fillId="807" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="805" fillId="809" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="807" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="809" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="811" fillId="815" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="813" fillId="817" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="815" fillId="819" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="817" fillId="821" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="819" fillId="823" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="821" fillId="825" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="823" fillId="827" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="825" fillId="829" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="827" fillId="831" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="829" fillId="833" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="831" fillId="835" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="833" fillId="837" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="835" fillId="839" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="837" fillId="841" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="839" fillId="843" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="841" fillId="845" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="843" fillId="847" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="845" fillId="849" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="847" fillId="851" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="849" fillId="853" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="851" fillId="855" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="853" fillId="857" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="855" fillId="859" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="857" fillId="861" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="859" fillId="863" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="861" fillId="865" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="863" fillId="867" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="865" fillId="869" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="871" borderId="867" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7958,8 +10613,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="288" t="s">
-        <v>347</v>
+      <c r="B2" s="420" t="s">
+        <v>443</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -8010,20 +10665,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="287" t="s">
-        <v>346</v>
-      </c>
-      <c r="W2" s="292" t="s">
-        <v>349</v>
-      </c>
-      <c r="X2" s="289" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="290" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z2" s="291" t="s">
-        <v>348</v>
+      <c r="V2" s="419" t="s">
+        <v>442</v>
+      </c>
+      <c r="W2" s="424" t="s">
+        <v>447</v>
+      </c>
+      <c r="X2" s="421" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y2" s="422" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z2" s="423" t="s">
+        <v>446</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -8046,8 +10701,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="294" t="s">
-        <v>347</v>
+      <c r="B3" s="426" t="s">
+        <v>443</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -8100,20 +10755,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="293" t="s">
-        <v>350</v>
+      <c r="V3" s="425" t="s">
+        <v>448</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="295" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y3" s="296" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z3" s="297" t="s">
-        <v>353</v>
+      <c r="X3" s="427" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y3" s="428" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z3" s="429" t="s">
+        <v>450</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -8142,8 +10797,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="299" t="s">
-        <v>347</v>
+      <c r="B4" s="431" t="s">
+        <v>443</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -8194,20 +10849,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="298" t="s">
-        <v>354</v>
+      <c r="V4" s="430" t="s">
+        <v>451</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="300" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y4" s="301" t="s">
-        <v>356</v>
-      </c>
-      <c r="Z4" s="302" t="s">
-        <v>357</v>
+      <c r="X4" s="432" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y4" s="433" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z4" s="434" t="s">
+        <v>453</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -8234,8 +10889,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="304" t="s">
-        <v>347</v>
+      <c r="B5" s="436" t="s">
+        <v>443</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -8286,20 +10941,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="303" t="s">
-        <v>358</v>
-      </c>
-      <c r="W5" s="308" t="s">
-        <v>362</v>
-      </c>
-      <c r="X5" s="305" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y5" s="306" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z5" s="307" t="s">
-        <v>361</v>
+      <c r="V5" s="435" t="s">
+        <v>454</v>
+      </c>
+      <c r="W5" s="440" t="s">
+        <v>457</v>
+      </c>
+      <c r="X5" s="437" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y5" s="438" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z5" s="439" t="s">
+        <v>456</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -8330,8 +10985,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="310" t="s">
-        <v>347</v>
+      <c r="B6" s="442" t="s">
+        <v>443</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -8382,20 +11037,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="309" t="s">
-        <v>363</v>
-      </c>
-      <c r="W6" s="314" t="s">
-        <v>366</v>
-      </c>
-      <c r="X6" s="311" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y6" s="312" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z6" s="313" t="s">
-        <v>365</v>
+      <c r="V6" s="441" t="s">
+        <v>458</v>
+      </c>
+      <c r="W6" s="446" t="s">
+        <v>461</v>
+      </c>
+      <c r="X6" s="443" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y6" s="444" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z6" s="445" t="s">
+        <v>460</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -8422,8 +11077,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="316" t="s">
-        <v>347</v>
+      <c r="B7" s="448" t="s">
+        <v>443</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -8472,20 +11127,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="315" t="s">
-        <v>367</v>
-      </c>
-      <c r="W7" s="320" t="s">
-        <v>371</v>
-      </c>
-      <c r="X7" s="317" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y7" s="318" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z7" s="319" t="s">
-        <v>370</v>
+      <c r="V7" s="447" t="s">
+        <v>462</v>
+      </c>
+      <c r="W7" s="452" t="s">
+        <v>465</v>
+      </c>
+      <c r="X7" s="449" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y7" s="450" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z7" s="451" t="s">
+        <v>464</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -8508,8 +11163,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="322" t="s">
-        <v>347</v>
+      <c r="B8" s="454" t="s">
+        <v>443</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -8560,20 +11215,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="321" t="s">
-        <v>372</v>
+      <c r="V8" s="453" t="s">
+        <v>466</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="323" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y8" s="324" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z8" s="325" t="s">
-        <v>375</v>
+      <c r="X8" s="455" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y8" s="456" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z8" s="457" t="s">
+        <v>468</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -8600,8 +11255,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="327" t="s">
-        <v>347</v>
+      <c r="B9" s="459" t="s">
+        <v>443</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -8652,20 +11307,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="326" t="s">
-        <v>376</v>
+      <c r="V9" s="458" t="s">
+        <v>469</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="328" t="s">
+      <c r="X9" s="460" t="s">
         <v>167</v>
       </c>
-      <c r="Y9" s="329" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z9" s="330" t="s">
-        <v>378</v>
+      <c r="Y9" s="461" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z9" s="462" t="s">
+        <v>471</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -8686,8 +11341,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="332" t="s">
-        <v>347</v>
+      <c r="B10" s="464" t="s">
+        <v>443</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -8736,20 +11391,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="331" t="s">
-        <v>379</v>
-      </c>
-      <c r="W10" s="336" t="s">
-        <v>382</v>
-      </c>
-      <c r="X10" s="333" t="s">
+      <c r="V10" s="463" t="s">
+        <v>472</v>
+      </c>
+      <c r="W10" s="468" t="s">
+        <v>475</v>
+      </c>
+      <c r="X10" s="465" t="s">
         <v>159</v>
       </c>
-      <c r="Y10" s="334" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z10" s="335" t="s">
-        <v>381</v>
+      <c r="Y10" s="466" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z10" s="467" t="s">
+        <v>474</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -8768,8 +11423,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="338" t="s">
-        <v>347</v>
+      <c r="B11" s="470" t="s">
+        <v>443</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -8820,20 +11475,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="337" t="s">
-        <v>383</v>
+      <c r="V11" s="469" t="s">
+        <v>476</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="339" t="s">
+      <c r="X11" s="471" t="s">
         <v>168</v>
       </c>
-      <c r="Y11" s="340" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z11" s="341" t="s">
-        <v>385</v>
+      <c r="Y11" s="472" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z11" s="473" t="s">
+        <v>478</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -8854,8 +11509,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="343" t="s">
-        <v>347</v>
+      <c r="B12" s="475" t="s">
+        <v>443</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -8906,20 +11561,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="342" t="s">
-        <v>386</v>
+      <c r="V12" s="474" t="s">
+        <v>479</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="344" t="s">
+      <c r="X12" s="476" t="s">
         <v>169</v>
       </c>
-      <c r="Y12" s="345" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z12" s="346" t="s">
-        <v>388</v>
+      <c r="Y12" s="477" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z12" s="478" t="s">
+        <v>481</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -8940,8 +11595,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="348" t="s">
-        <v>347</v>
+      <c r="B13" s="480" t="s">
+        <v>443</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -8990,20 +11645,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="347" t="s">
-        <v>389</v>
-      </c>
-      <c r="W13" s="352" t="s">
-        <v>392</v>
-      </c>
-      <c r="X13" s="349" t="s">
+      <c r="V13" s="479" t="s">
+        <v>482</v>
+      </c>
+      <c r="W13" s="484" t="s">
+        <v>485</v>
+      </c>
+      <c r="X13" s="481" t="s">
         <v>170</v>
       </c>
-      <c r="Y13" s="350" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z13" s="351" t="s">
-        <v>391</v>
+      <c r="Y13" s="482" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z13" s="483" t="s">
+        <v>484</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="526">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1485,6 +1485,126 @@
   </si>
   <si>
     <t>51524239</t>
+  </si>
+  <si>
+    <t>51524518</t>
+  </si>
+  <si>
+    <t>12-18-2021</t>
+  </si>
+  <si>
+    <t>FCT921663251488440320</t>
+  </si>
+  <si>
+    <t>FCABF1006706</t>
+  </si>
+  <si>
+    <t>51524520</t>
+  </si>
+  <si>
+    <t>51524521</t>
+  </si>
+  <si>
+    <t>FCT921665536444596224</t>
+  </si>
+  <si>
+    <t>CEV1003320</t>
+  </si>
+  <si>
+    <t>51524524</t>
+  </si>
+  <si>
+    <t>FCT921669787115847680</t>
+  </si>
+  <si>
+    <t>CEV1003321</t>
+  </si>
+  <si>
+    <t>51524526</t>
+  </si>
+  <si>
+    <t>51524527</t>
+  </si>
+  <si>
+    <t>FCT921672277731311616</t>
+  </si>
+  <si>
+    <t>CEV1003323</t>
+  </si>
+  <si>
+    <t>51524529</t>
+  </si>
+  <si>
+    <t>51524530</t>
+  </si>
+  <si>
+    <t>FCT921674596887822336</t>
+  </si>
+  <si>
+    <t>CEV1003325</t>
+  </si>
+  <si>
+    <t>51524532</t>
+  </si>
+  <si>
+    <t>51524533</t>
+  </si>
+  <si>
+    <t>FCT921676616155791360</t>
+  </si>
+  <si>
+    <t>CEV1003327</t>
+  </si>
+  <si>
+    <t>51524536</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391442969</t>
+  </si>
+  <si>
+    <t>FCUPSG1011680</t>
+  </si>
+  <si>
+    <t>51524539</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393195376</t>
+  </si>
+  <si>
+    <t>FCUPSG1011681</t>
+  </si>
+  <si>
+    <t>51524541</t>
+  </si>
+  <si>
+    <t>51524542</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399384624</t>
+  </si>
+  <si>
+    <t>FCUPSG1011683</t>
+  </si>
+  <si>
+    <t>51524545</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW90718988</t>
+  </si>
+  <si>
+    <t>FCUPSG1011684</t>
+  </si>
+  <si>
+    <t>51524548</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97493431</t>
+  </si>
+  <si>
+    <t>FCUPSG1011685</t>
+  </si>
+  <si>
+    <t>51524550</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1640,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="872">
+  <fills count="994">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5877,8 +5997,618 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="868">
+  <borders count="990">
     <border>
       <left/>
       <right/>
@@ -9472,6 +10202,433 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9480,7 +10637,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="485">
+  <cellXfs count="546">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -9965,7 +11122,68 @@
     <xf applyBorder="true" applyFill="true" borderId="861" fillId="865" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="863" fillId="867" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="865" fillId="869" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="871" borderId="867" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="867" fillId="871" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="869" fillId="873" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="871" fillId="875" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="873" fillId="877" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="875" fillId="879" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="877" fillId="881" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="879" fillId="883" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="881" fillId="885" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="883" fillId="887" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="885" fillId="889" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="887" fillId="891" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="889" fillId="893" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="891" fillId="895" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="893" fillId="897" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="895" fillId="899" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="897" fillId="901" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="899" fillId="903" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="901" fillId="905" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="903" fillId="907" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="905" fillId="909" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="907" fillId="911" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="909" fillId="913" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="911" fillId="915" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="913" fillId="917" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="915" fillId="919" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="917" fillId="921" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="919" fillId="923" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="921" fillId="925" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="923" fillId="927" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="925" fillId="929" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="927" fillId="931" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="929" fillId="933" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="931" fillId="935" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="933" fillId="937" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="935" fillId="939" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="937" fillId="941" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="939" fillId="943" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="941" fillId="945" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="943" fillId="947" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="945" fillId="949" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="947" fillId="951" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="949" fillId="953" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="951" fillId="955" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="953" fillId="957" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="955" fillId="959" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="957" fillId="961" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="959" fillId="963" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="961" fillId="965" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="963" fillId="967" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="965" fillId="969" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="967" fillId="971" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="969" fillId="973" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="971" fillId="975" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="973" fillId="977" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="975" fillId="979" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="977" fillId="981" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="979" fillId="983" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="981" fillId="985" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="983" fillId="987" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="985" fillId="989" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="987" fillId="991" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="993" borderId="989" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -10613,8 +11831,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="420" t="s">
-        <v>443</v>
+      <c r="B2" s="486" t="s">
+        <v>487</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -10665,20 +11883,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="419" t="s">
-        <v>442</v>
-      </c>
-      <c r="W2" s="424" t="s">
-        <v>447</v>
-      </c>
-      <c r="X2" s="421" t="s">
+      <c r="V2" s="485" t="s">
+        <v>486</v>
+      </c>
+      <c r="W2" s="490" t="s">
+        <v>490</v>
+      </c>
+      <c r="X2" s="487" t="s">
         <v>444</v>
       </c>
-      <c r="Y2" s="422" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z2" s="423" t="s">
-        <v>446</v>
+      <c r="Y2" s="488" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z2" s="489" t="s">
+        <v>489</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -10701,8 +11919,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="426" t="s">
-        <v>443</v>
+      <c r="B3" s="492" t="s">
+        <v>487</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -10755,20 +11973,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="425" t="s">
-        <v>448</v>
+      <c r="V3" s="491" t="s">
+        <v>491</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="427" t="s">
+      <c r="X3" s="493" t="s">
         <v>400</v>
       </c>
-      <c r="Y3" s="428" t="s">
-        <v>449</v>
-      </c>
-      <c r="Z3" s="429" t="s">
-        <v>450</v>
+      <c r="Y3" s="494" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z3" s="495" t="s">
+        <v>493</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -10889,8 +12107,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="436" t="s">
-        <v>443</v>
+      <c r="B5" s="497" t="s">
+        <v>487</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -10941,20 +12159,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="435" t="s">
-        <v>454</v>
-      </c>
-      <c r="W5" s="440" t="s">
-        <v>457</v>
-      </c>
-      <c r="X5" s="437" t="s">
+      <c r="V5" s="496" t="s">
+        <v>494</v>
+      </c>
+      <c r="W5" s="501" t="s">
+        <v>497</v>
+      </c>
+      <c r="X5" s="498" t="s">
         <v>408</v>
       </c>
-      <c r="Y5" s="438" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z5" s="439" t="s">
-        <v>456</v>
+      <c r="Y5" s="499" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z5" s="500" t="s">
+        <v>496</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -10985,8 +12203,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="442" t="s">
-        <v>443</v>
+      <c r="B6" s="503" t="s">
+        <v>487</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -11037,20 +12255,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="441" t="s">
-        <v>458</v>
-      </c>
-      <c r="W6" s="446" t="s">
-        <v>461</v>
-      </c>
-      <c r="X6" s="443" t="s">
+      <c r="V6" s="502" t="s">
+        <v>498</v>
+      </c>
+      <c r="W6" s="507" t="s">
+        <v>501</v>
+      </c>
+      <c r="X6" s="504" t="s">
         <v>404</v>
       </c>
-      <c r="Y6" s="444" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z6" s="445" t="s">
-        <v>460</v>
+      <c r="Y6" s="505" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z6" s="506" t="s">
+        <v>500</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -11077,8 +12295,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="448" t="s">
-        <v>443</v>
+      <c r="B7" s="509" t="s">
+        <v>487</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -11127,20 +12345,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="447" t="s">
-        <v>462</v>
-      </c>
-      <c r="W7" s="452" t="s">
-        <v>465</v>
-      </c>
-      <c r="X7" s="449" t="s">
+      <c r="V7" s="508" t="s">
+        <v>502</v>
+      </c>
+      <c r="W7" s="513" t="s">
+        <v>505</v>
+      </c>
+      <c r="X7" s="510" t="s">
         <v>417</v>
       </c>
-      <c r="Y7" s="450" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z7" s="451" t="s">
-        <v>464</v>
+      <c r="Y7" s="511" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z7" s="512" t="s">
+        <v>504</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -11163,8 +12381,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="454" t="s">
-        <v>443</v>
+      <c r="B8" s="515" t="s">
+        <v>487</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -11215,20 +12433,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="453" t="s">
-        <v>466</v>
+      <c r="V8" s="514" t="s">
+        <v>506</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="455" t="s">
+      <c r="X8" s="516" t="s">
         <v>422</v>
       </c>
-      <c r="Y8" s="456" t="s">
-        <v>467</v>
-      </c>
-      <c r="Z8" s="457" t="s">
-        <v>468</v>
+      <c r="Y8" s="517" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z8" s="518" t="s">
+        <v>508</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -11255,8 +12473,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="459" t="s">
-        <v>443</v>
+      <c r="B9" s="520" t="s">
+        <v>487</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -11307,20 +12525,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="458" t="s">
-        <v>469</v>
+      <c r="V9" s="519" t="s">
+        <v>509</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="460" t="s">
+      <c r="X9" s="521" t="s">
         <v>167</v>
       </c>
-      <c r="Y9" s="461" t="s">
-        <v>470</v>
-      </c>
-      <c r="Z9" s="462" t="s">
-        <v>471</v>
+      <c r="Y9" s="522" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z9" s="523" t="s">
+        <v>511</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -11341,8 +12559,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="464" t="s">
-        <v>443</v>
+      <c r="B10" s="525" t="s">
+        <v>487</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -11391,20 +12609,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="463" t="s">
-        <v>472</v>
-      </c>
-      <c r="W10" s="468" t="s">
-        <v>475</v>
-      </c>
-      <c r="X10" s="465" t="s">
+      <c r="V10" s="524" t="s">
+        <v>512</v>
+      </c>
+      <c r="W10" s="529" t="s">
+        <v>515</v>
+      </c>
+      <c r="X10" s="526" t="s">
         <v>159</v>
       </c>
-      <c r="Y10" s="466" t="s">
-        <v>473</v>
-      </c>
-      <c r="Z10" s="467" t="s">
-        <v>474</v>
+      <c r="Y10" s="527" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z10" s="528" t="s">
+        <v>514</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -11423,8 +12641,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="470" t="s">
-        <v>443</v>
+      <c r="B11" s="531" t="s">
+        <v>487</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -11475,20 +12693,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="469" t="s">
-        <v>476</v>
+      <c r="V11" s="530" t="s">
+        <v>516</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="471" t="s">
+      <c r="X11" s="532" t="s">
         <v>168</v>
       </c>
-      <c r="Y11" s="472" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z11" s="473" t="s">
-        <v>478</v>
+      <c r="Y11" s="533" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z11" s="534" t="s">
+        <v>518</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -11509,8 +12727,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="475" t="s">
-        <v>443</v>
+      <c r="B12" s="536" t="s">
+        <v>487</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -11561,20 +12779,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="474" t="s">
-        <v>479</v>
+      <c r="V12" s="535" t="s">
+        <v>519</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="476" t="s">
+      <c r="X12" s="537" t="s">
         <v>169</v>
       </c>
-      <c r="Y12" s="477" t="s">
-        <v>480</v>
-      </c>
-      <c r="Z12" s="478" t="s">
-        <v>481</v>
+      <c r="Y12" s="538" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z12" s="539" t="s">
+        <v>521</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -11595,8 +12813,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="480" t="s">
-        <v>443</v>
+      <c r="B13" s="541" t="s">
+        <v>487</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -11645,20 +12863,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="479" t="s">
-        <v>482</v>
-      </c>
-      <c r="W13" s="484" t="s">
-        <v>485</v>
-      </c>
-      <c r="X13" s="481" t="s">
+      <c r="V13" s="540" t="s">
+        <v>522</v>
+      </c>
+      <c r="W13" s="545" t="s">
+        <v>525</v>
+      </c>
+      <c r="X13" s="542" t="s">
         <v>170</v>
       </c>
-      <c r="Y13" s="482" t="s">
-        <v>483</v>
-      </c>
-      <c r="Z13" s="483" t="s">
-        <v>484</v>
+      <c r="Y13" s="543" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z13" s="544" t="s">
+        <v>524</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="655">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1605,6 +1605,393 @@
   </si>
   <si>
     <t>51524550</t>
+  </si>
+  <si>
+    <t>51525129</t>
+  </si>
+  <si>
+    <t>12-23-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000382</t>
+  </si>
+  <si>
+    <t>51525131</t>
+  </si>
+  <si>
+    <t>51525132</t>
+  </si>
+  <si>
+    <t>FCT923591102861148160</t>
+  </si>
+  <si>
+    <t>CEV1003392</t>
+  </si>
+  <si>
+    <t>51525135</t>
+  </si>
+  <si>
+    <t>FCT923593088767623168</t>
+  </si>
+  <si>
+    <t>CEV1003393</t>
+  </si>
+  <si>
+    <t>51525138</t>
+  </si>
+  <si>
+    <t>FCT923594995263340544</t>
+  </si>
+  <si>
+    <t>CEV1003394</t>
+  </si>
+  <si>
+    <t>51525140</t>
+  </si>
+  <si>
+    <t>51525141</t>
+  </si>
+  <si>
+    <t>FCT923597393998381056</t>
+  </si>
+  <si>
+    <t>CEV1003396</t>
+  </si>
+  <si>
+    <t>51525143</t>
+  </si>
+  <si>
+    <t>51525144</t>
+  </si>
+  <si>
+    <t>FCT923599977677062144</t>
+  </si>
+  <si>
+    <t>CEV1003398</t>
+  </si>
+  <si>
+    <t>51525146</t>
+  </si>
+  <si>
+    <t>51525147</t>
+  </si>
+  <si>
+    <t>FCT923601960140013568</t>
+  </si>
+  <si>
+    <t>CEV1003400</t>
+  </si>
+  <si>
+    <t>51525151</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398312435</t>
+  </si>
+  <si>
+    <t>FCUPSG1011728</t>
+  </si>
+  <si>
+    <t>51525153</t>
+  </si>
+  <si>
+    <t>51525154</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392540146</t>
+  </si>
+  <si>
+    <t>FCUPSG1011730</t>
+  </si>
+  <si>
+    <t>51525157</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW98501492</t>
+  </si>
+  <si>
+    <t>FCUPSG1011731</t>
+  </si>
+  <si>
+    <t>51525160</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW95939703</t>
+  </si>
+  <si>
+    <t>FCUPSG1011732</t>
+  </si>
+  <si>
+    <t>51525162</t>
+  </si>
+  <si>
+    <t>51525250</t>
+  </si>
+  <si>
+    <t>12-27-2021</t>
+  </si>
+  <si>
+    <t>$1,026.19</t>
+  </si>
+  <si>
+    <t>FCT924917220344070144</t>
+  </si>
+  <si>
+    <t>FCABF1006718</t>
+  </si>
+  <si>
+    <t>51525252</t>
+  </si>
+  <si>
+    <t>51525253</t>
+  </si>
+  <si>
+    <t>FCT924919406381760512</t>
+  </si>
+  <si>
+    <t>CEV1003406</t>
+  </si>
+  <si>
+    <t>51525256</t>
+  </si>
+  <si>
+    <t>FCT924921360986144768</t>
+  </si>
+  <si>
+    <t>CEV1003407</t>
+  </si>
+  <si>
+    <t>51525259</t>
+  </si>
+  <si>
+    <t>FCT924923250843058176</t>
+  </si>
+  <si>
+    <t>CEV1003408</t>
+  </si>
+  <si>
+    <t>51525261</t>
+  </si>
+  <si>
+    <t>51525262</t>
+  </si>
+  <si>
+    <t>FCT924925611065999360</t>
+  </si>
+  <si>
+    <t>CEV1003410</t>
+  </si>
+  <si>
+    <t>51525264</t>
+  </si>
+  <si>
+    <t>51525265</t>
+  </si>
+  <si>
+    <t>FCT924927809543995392</t>
+  </si>
+  <si>
+    <t>CEV1003412</t>
+  </si>
+  <si>
+    <t>51525267</t>
+  </si>
+  <si>
+    <t>51525268</t>
+  </si>
+  <si>
+    <t>FCT924929767449296896</t>
+  </si>
+  <si>
+    <t>CEV1003414</t>
+  </si>
+  <si>
+    <t>51525271</t>
+  </si>
+  <si>
+    <t>$66.05</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394050314</t>
+  </si>
+  <si>
+    <t>FCUPSG1011736</t>
+  </si>
+  <si>
+    <t>51525274</t>
+  </si>
+  <si>
+    <t>$84.02</t>
+  </si>
+  <si>
+    <t>1Z44R7R60390154728</t>
+  </si>
+  <si>
+    <t>FCUPSG1011737</t>
+  </si>
+  <si>
+    <t>51525276</t>
+  </si>
+  <si>
+    <t>51525277</t>
+  </si>
+  <si>
+    <t>$180.13</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394181147</t>
+  </si>
+  <si>
+    <t>FCUPSG1011739</t>
+  </si>
+  <si>
+    <t>51525280</t>
+  </si>
+  <si>
+    <t>$104.81</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW92151158</t>
+  </si>
+  <si>
+    <t>FCUPSG1011740</t>
+  </si>
+  <si>
+    <t>51525283</t>
+  </si>
+  <si>
+    <t>$129.79</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW90524366</t>
+  </si>
+  <si>
+    <t>FCUPSG1011741</t>
+  </si>
+  <si>
+    <t>51525285</t>
+  </si>
+  <si>
+    <t>51525309</t>
+  </si>
+  <si>
+    <t>FCBTXA1000384</t>
+  </si>
+  <si>
+    <t>51525311</t>
+  </si>
+  <si>
+    <t>51525312</t>
+  </si>
+  <si>
+    <t>FCT924977003130519552</t>
+  </si>
+  <si>
+    <t>CEV1003417</t>
+  </si>
+  <si>
+    <t>51525315</t>
+  </si>
+  <si>
+    <t>FCT924978929993777152</t>
+  </si>
+  <si>
+    <t>CEV1003418</t>
+  </si>
+  <si>
+    <t>51525319</t>
+  </si>
+  <si>
+    <t>FCT924980817996808192</t>
+  </si>
+  <si>
+    <t>CEV1003419</t>
+  </si>
+  <si>
+    <t>51525321</t>
+  </si>
+  <si>
+    <t>51525322</t>
+  </si>
+  <si>
+    <t>FCT924983175673806848</t>
+  </si>
+  <si>
+    <t>CEV1003421</t>
+  </si>
+  <si>
+    <t>51525324</t>
+  </si>
+  <si>
+    <t>51525325</t>
+  </si>
+  <si>
+    <t>FCT924985392074063872</t>
+  </si>
+  <si>
+    <t>CEV1003423</t>
+  </si>
+  <si>
+    <t>51525328</t>
+  </si>
+  <si>
+    <t>51525329</t>
+  </si>
+  <si>
+    <t>FCT924988879809806336</t>
+  </si>
+  <si>
+    <t>CEV1003425</t>
+  </si>
+  <si>
+    <t>51525333</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392905243</t>
+  </si>
+  <si>
+    <t>FCUPSG1011743</t>
+  </si>
+  <si>
+    <t>51525338</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397746880</t>
+  </si>
+  <si>
+    <t>FCUPSG1011744</t>
+  </si>
+  <si>
+    <t>51525340</t>
+  </si>
+  <si>
+    <t>51525342</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399103105</t>
+  </si>
+  <si>
+    <t>FCUPSG1011746</t>
+  </si>
+  <si>
+    <t>51525348</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW94504871</t>
+  </si>
+  <si>
+    <t>FCUPSG1011747</t>
+  </si>
+  <si>
+    <t>51525354</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99198935</t>
+  </si>
+  <si>
+    <t>FCUPSG1011748</t>
+  </si>
+  <si>
+    <t>51525356</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +2027,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="994">
+  <fills count="1380">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6607,8 +6994,1938 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="990">
+  <borders count="1376">
     <border>
       <left/>
       <right/>
@@ -10629,6 +12946,1357 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10637,7 +14305,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="739">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -11183,7 +14851,200 @@
     <xf applyBorder="true" applyFill="true" borderId="983" fillId="987" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="985" fillId="989" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="987" fillId="991" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="993" borderId="989" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="989" fillId="993" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="991" fillId="995" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="993" fillId="997" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="995" fillId="999" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="997" fillId="1001" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="999" fillId="1003" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1001" fillId="1005" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1003" fillId="1007" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1005" fillId="1009" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1007" fillId="1011" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1009" fillId="1013" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1011" fillId="1015" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1013" fillId="1017" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1015" fillId="1019" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1017" fillId="1021" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1019" fillId="1023" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1021" fillId="1025" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1023" fillId="1027" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1025" fillId="1029" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1027" fillId="1031" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1029" fillId="1033" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1031" fillId="1035" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1033" fillId="1037" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1035" fillId="1039" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1037" fillId="1041" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1039" fillId="1043" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1041" fillId="1045" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1043" fillId="1047" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1045" fillId="1049" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1047" fillId="1051" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1049" fillId="1053" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1051" fillId="1055" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1053" fillId="1057" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1055" fillId="1059" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1057" fillId="1061" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1059" fillId="1063" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1061" fillId="1065" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1063" fillId="1067" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1065" fillId="1069" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1067" fillId="1071" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1069" fillId="1073" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1071" fillId="1075" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1073" fillId="1077" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1075" fillId="1079" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1077" fillId="1081" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1079" fillId="1083" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1081" fillId="1085" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1083" fillId="1087" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1085" fillId="1089" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1087" fillId="1091" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1089" fillId="1093" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1091" fillId="1095" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1093" fillId="1097" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1095" fillId="1099" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1097" fillId="1101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1099" fillId="1103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1101" fillId="1105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1103" fillId="1107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1105" fillId="1109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1107" fillId="1111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1109" fillId="1113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1111" fillId="1115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1113" fillId="1117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1115" fillId="1119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1117" fillId="1121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1119" fillId="1123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1121" fillId="1125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1123" fillId="1127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1125" fillId="1129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1127" fillId="1131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1129" fillId="1133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1131" fillId="1135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1133" fillId="1137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1135" fillId="1139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1137" fillId="1141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1139" fillId="1143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1141" fillId="1145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1143" fillId="1147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1145" fillId="1149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1147" fillId="1151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1149" fillId="1153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1151" fillId="1155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1153" fillId="1157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1155" fillId="1159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1157" fillId="1161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1159" fillId="1163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1161" fillId="1165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1163" fillId="1167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1165" fillId="1169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1167" fillId="1171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1169" fillId="1173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1171" fillId="1175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1173" fillId="1177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1175" fillId="1179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1177" fillId="1181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1179" fillId="1183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1181" fillId="1185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1183" fillId="1187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1185" fillId="1189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1187" fillId="1191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1189" fillId="1193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1191" fillId="1195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1193" fillId="1197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1195" fillId="1199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1197" fillId="1201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1199" fillId="1203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1201" fillId="1205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1203" fillId="1207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1205" fillId="1209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1207" fillId="1211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1209" fillId="1213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1211" fillId="1215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1213" fillId="1217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1215" fillId="1219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1217" fillId="1221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1219" fillId="1223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1221" fillId="1225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1223" fillId="1227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1225" fillId="1229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1227" fillId="1231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1229" fillId="1233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1231" fillId="1235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1233" fillId="1237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1235" fillId="1239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1237" fillId="1241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1239" fillId="1243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1241" fillId="1245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1243" fillId="1247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1245" fillId="1249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1247" fillId="1251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1249" fillId="1253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1251" fillId="1255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1253" fillId="1257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1255" fillId="1259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1257" fillId="1261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1259" fillId="1263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1261" fillId="1265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1263" fillId="1267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1265" fillId="1269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1267" fillId="1271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1269" fillId="1273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1271" fillId="1275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1273" fillId="1277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1275" fillId="1279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1277" fillId="1281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1279" fillId="1283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1281" fillId="1285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1283" fillId="1287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1285" fillId="1289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1287" fillId="1291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1289" fillId="1293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1291" fillId="1295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1293" fillId="1297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1295" fillId="1299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1297" fillId="1301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1299" fillId="1303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1301" fillId="1305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1303" fillId="1307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1305" fillId="1309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1307" fillId="1311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1309" fillId="1313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1311" fillId="1315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1313" fillId="1317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1315" fillId="1319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1317" fillId="1321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1319" fillId="1323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1321" fillId="1325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1323" fillId="1327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1325" fillId="1329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1327" fillId="1331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1329" fillId="1333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1331" fillId="1335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1333" fillId="1337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1335" fillId="1339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1337" fillId="1341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1339" fillId="1343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1341" fillId="1345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1343" fillId="1347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1345" fillId="1349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1347" fillId="1351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1349" fillId="1353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1351" fillId="1355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1353" fillId="1357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1355" fillId="1359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1357" fillId="1361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1359" fillId="1363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1361" fillId="1365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1363" fillId="1367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1365" fillId="1369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1367" fillId="1371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1369" fillId="1373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1371" fillId="1375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1373" fillId="1377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1379" borderId="1375" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -11831,8 +15692,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="486" t="s">
-        <v>487</v>
+      <c r="B2" s="674" t="s">
+        <v>566</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -11883,20 +15744,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="485" t="s">
-        <v>486</v>
-      </c>
-      <c r="W2" s="490" t="s">
-        <v>490</v>
-      </c>
-      <c r="X2" s="487" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y2" s="488" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z2" s="489" t="s">
-        <v>489</v>
+      <c r="V2" s="673" t="s">
+        <v>614</v>
+      </c>
+      <c r="W2" s="678" t="s">
+        <v>616</v>
+      </c>
+      <c r="X2" s="675" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="676" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z2" s="677" t="s">
+        <v>615</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -11919,8 +15780,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="492" t="s">
-        <v>487</v>
+      <c r="B3" s="680" t="s">
+        <v>566</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -11973,20 +15834,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="491" t="s">
-        <v>491</v>
+      <c r="V3" s="679" t="s">
+        <v>617</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="493" t="s">
+      <c r="X3" s="681" t="s">
         <v>400</v>
       </c>
-      <c r="Y3" s="494" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z3" s="495" t="s">
-        <v>493</v>
+      <c r="Y3" s="682" t="s">
+        <v>618</v>
+      </c>
+      <c r="Z3" s="683" t="s">
+        <v>619</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -12015,8 +15876,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="431" t="s">
-        <v>443</v>
+      <c r="B4" s="685" t="s">
+        <v>566</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -12067,20 +15928,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="430" t="s">
-        <v>451</v>
+      <c r="V4" s="684" t="s">
+        <v>620</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="432" t="s">
+      <c r="X4" s="686" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" s="433" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z4" s="434" t="s">
-        <v>453</v>
+      <c r="Y4" s="687" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z4" s="688" t="s">
+        <v>622</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -12107,8 +15968,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="497" t="s">
-        <v>487</v>
+      <c r="B5" s="690" t="s">
+        <v>566</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -12159,20 +16020,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="496" t="s">
-        <v>494</v>
-      </c>
-      <c r="W5" s="501" t="s">
-        <v>497</v>
-      </c>
-      <c r="X5" s="498" t="s">
+      <c r="V5" s="689" t="s">
+        <v>623</v>
+      </c>
+      <c r="W5" s="694" t="s">
+        <v>626</v>
+      </c>
+      <c r="X5" s="691" t="s">
         <v>408</v>
       </c>
-      <c r="Y5" s="499" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z5" s="500" t="s">
-        <v>496</v>
+      <c r="Y5" s="692" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z5" s="693" t="s">
+        <v>625</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -12203,8 +16064,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="503" t="s">
-        <v>487</v>
+      <c r="B6" s="696" t="s">
+        <v>566</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -12255,20 +16116,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="502" t="s">
-        <v>498</v>
-      </c>
-      <c r="W6" s="507" t="s">
-        <v>501</v>
-      </c>
-      <c r="X6" s="504" t="s">
+      <c r="V6" s="695" t="s">
+        <v>627</v>
+      </c>
+      <c r="W6" s="700" t="s">
+        <v>630</v>
+      </c>
+      <c r="X6" s="697" t="s">
         <v>404</v>
       </c>
-      <c r="Y6" s="505" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z6" s="506" t="s">
-        <v>500</v>
+      <c r="Y6" s="698" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z6" s="699" t="s">
+        <v>629</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -12295,8 +16156,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="509" t="s">
-        <v>487</v>
+      <c r="B7" s="702" t="s">
+        <v>566</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -12345,20 +16206,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="508" t="s">
-        <v>502</v>
-      </c>
-      <c r="W7" s="513" t="s">
-        <v>505</v>
-      </c>
-      <c r="X7" s="510" t="s">
+      <c r="V7" s="701" t="s">
+        <v>631</v>
+      </c>
+      <c r="W7" s="706" t="s">
+        <v>634</v>
+      </c>
+      <c r="X7" s="703" t="s">
         <v>417</v>
       </c>
-      <c r="Y7" s="511" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z7" s="512" t="s">
-        <v>504</v>
+      <c r="Y7" s="704" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z7" s="705" t="s">
+        <v>633</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -12381,8 +16242,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="515" t="s">
-        <v>487</v>
+      <c r="B8" s="708" t="s">
+        <v>566</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -12433,20 +16294,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="514" t="s">
-        <v>506</v>
+      <c r="V8" s="707" t="s">
+        <v>635</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="516" t="s">
+      <c r="X8" s="709" t="s">
         <v>422</v>
       </c>
-      <c r="Y8" s="517" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z8" s="518" t="s">
-        <v>508</v>
+      <c r="Y8" s="710" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z8" s="711" t="s">
+        <v>637</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -12473,8 +16334,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="520" t="s">
-        <v>487</v>
+      <c r="B9" s="713" t="s">
+        <v>566</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -12525,20 +16386,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="519" t="s">
-        <v>509</v>
+      <c r="V9" s="712" t="s">
+        <v>638</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="521" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y9" s="522" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z9" s="523" t="s">
-        <v>511</v>
+      <c r="X9" s="714" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y9" s="715" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z9" s="716" t="s">
+        <v>640</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -12559,8 +16420,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="525" t="s">
-        <v>487</v>
+      <c r="B10" s="718" t="s">
+        <v>566</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -12609,20 +16470,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="524" t="s">
-        <v>512</v>
-      </c>
-      <c r="W10" s="529" t="s">
-        <v>515</v>
-      </c>
-      <c r="X10" s="526" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y10" s="527" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z10" s="528" t="s">
-        <v>514</v>
+      <c r="V10" s="717" t="s">
+        <v>641</v>
+      </c>
+      <c r="W10" s="722" t="s">
+        <v>644</v>
+      </c>
+      <c r="X10" s="719" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y10" s="720" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z10" s="721" t="s">
+        <v>643</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -12641,8 +16502,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="531" t="s">
-        <v>487</v>
+      <c r="B11" s="724" t="s">
+        <v>566</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -12693,20 +16554,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="530" t="s">
-        <v>516</v>
+      <c r="V11" s="723" t="s">
+        <v>645</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="532" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y11" s="533" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z11" s="534" t="s">
-        <v>518</v>
+      <c r="X11" s="725" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y11" s="726" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z11" s="727" t="s">
+        <v>647</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -12727,8 +16588,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="536" t="s">
-        <v>487</v>
+      <c r="B12" s="729" t="s">
+        <v>566</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -12779,20 +16640,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="535" t="s">
-        <v>519</v>
+      <c r="V12" s="728" t="s">
+        <v>648</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="537" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y12" s="538" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z12" s="539" t="s">
-        <v>521</v>
+      <c r="X12" s="730" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y12" s="731" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z12" s="732" t="s">
+        <v>650</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -12813,8 +16674,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="541" t="s">
-        <v>487</v>
+      <c r="B13" s="734" t="s">
+        <v>566</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -12863,20 +16724,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="540" t="s">
-        <v>522</v>
-      </c>
-      <c r="W13" s="545" t="s">
-        <v>525</v>
-      </c>
-      <c r="X13" s="542" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y13" s="543" t="s">
-        <v>523</v>
-      </c>
-      <c r="Z13" s="544" t="s">
-        <v>524</v>
+      <c r="V13" s="733" t="s">
+        <v>651</v>
+      </c>
+      <c r="W13" s="738" t="s">
+        <v>654</v>
+      </c>
+      <c r="X13" s="735" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y13" s="736" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z13" s="737" t="s">
+        <v>653</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>
